--- a/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
@@ -421,28 +421,28 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9826415200015293</v>
+        <v>0.9826415200015287</v>
       </c>
       <c r="D2">
-        <v>1.004196324637693</v>
+        <v>1.004196324637692</v>
       </c>
       <c r="E2">
-        <v>0.9909393004774393</v>
+        <v>0.9909393004774391</v>
       </c>
       <c r="F2">
-        <v>0.9926164133912735</v>
+        <v>0.9926164133912729</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038374046523336</v>
+        <v>1.038374046523335</v>
       </c>
       <c r="J2">
         <v>1.00535411285656</v>
       </c>
       <c r="K2">
-        <v>1.015597505936578</v>
+        <v>1.015597505936577</v>
       </c>
       <c r="L2">
         <v>1.00252632537405</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9914169650813953</v>
+        <v>0.9914169650813967</v>
       </c>
       <c r="D3">
-        <v>1.010730553686371</v>
+        <v>1.010730553686372</v>
       </c>
       <c r="E3">
-        <v>0.9991629262550975</v>
+        <v>0.9991629262550985</v>
       </c>
       <c r="F3">
-        <v>1.001548202120117</v>
+        <v>1.001548202120118</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041463327865815</v>
+        <v>1.041463327865816</v>
       </c>
       <c r="J3">
-        <v>1.012144378830204</v>
+        <v>1.012144378830205</v>
       </c>
       <c r="K3">
         <v>1.021227951747649</v>
       </c>
       <c r="L3">
-        <v>1.009806528812455</v>
+        <v>1.009806528812456</v>
       </c>
       <c r="M3">
-        <v>1.012161311665386</v>
+        <v>1.012161311665388</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9968896715637459</v>
+        <v>0.9968896715637461</v>
       </c>
       <c r="D4">
         <v>1.014807520497148</v>
       </c>
       <c r="E4">
-        <v>1.004297797086692</v>
+        <v>1.004297797086693</v>
       </c>
       <c r="F4">
         <v>1.007124190142763</v>
@@ -515,16 +515,16 @@
         <v>1.043373165354297</v>
       </c>
       <c r="J4">
-        <v>1.016373275891316</v>
+        <v>1.016373275891317</v>
       </c>
       <c r="K4">
         <v>1.024730457264826</v>
       </c>
       <c r="L4">
-        <v>1.014344626767908</v>
+        <v>1.014344626767909</v>
       </c>
       <c r="M4">
-        <v>1.017137386221092</v>
+        <v>1.017137386221093</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9991444980555793</v>
+        <v>0.9991444980555779</v>
       </c>
       <c r="D5">
-        <v>1.016487596135405</v>
+        <v>1.016487596135404</v>
       </c>
       <c r="E5">
-        <v>1.006414849261597</v>
+        <v>1.006414849261595</v>
       </c>
       <c r="F5">
-        <v>1.009422917511005</v>
+        <v>1.009422917511003</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044155941948385</v>
+        <v>1.044155941948384</v>
       </c>
       <c r="J5">
-        <v>1.018114172871445</v>
+        <v>1.018114172871444</v>
       </c>
       <c r="K5">
-        <v>1.026171305361186</v>
+        <v>1.026171305361185</v>
       </c>
       <c r="L5">
-        <v>1.016213790781447</v>
+        <v>1.016213790781446</v>
       </c>
       <c r="M5">
         <v>1.019187149353985</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995204918547951</v>
+        <v>0.9995204918547944</v>
       </c>
       <c r="D6">
-        <v>1.016767763799571</v>
+        <v>1.01676776379957</v>
       </c>
       <c r="E6">
-        <v>1.006767950000367</v>
+        <v>1.006767950000366</v>
       </c>
       <c r="F6">
-        <v>1.00980631001604</v>
+        <v>1.009806310016039</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.044286226908609</v>
       </c>
       <c r="J6">
-        <v>1.018404380311812</v>
+        <v>1.018404380311811</v>
       </c>
       <c r="K6">
         <v>1.026411433643831</v>
       </c>
       <c r="L6">
-        <v>1.016525438013484</v>
+        <v>1.016525438013483</v>
       </c>
       <c r="M6">
         <v>1.019528921151558</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9969199768894509</v>
+        <v>0.9969199768894498</v>
       </c>
       <c r="D7">
-        <v>1.014830100020113</v>
+        <v>1.014830100020112</v>
       </c>
       <c r="E7">
-        <v>1.004326245193077</v>
+        <v>1.004326245193075</v>
       </c>
       <c r="F7">
-        <v>1.007155080213641</v>
+        <v>1.00715508021364</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043383702388978</v>
+        <v>1.043383702388977</v>
       </c>
       <c r="J7">
-        <v>1.016396679800424</v>
+        <v>1.016396679800423</v>
       </c>
       <c r="K7">
-        <v>1.024749831526071</v>
+        <v>1.02474983152607</v>
       </c>
       <c r="L7">
-        <v>1.014369751161311</v>
+        <v>1.01436975116131</v>
       </c>
       <c r="M7">
-        <v>1.017164937279571</v>
+        <v>1.01716493727957</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.985651906877529</v>
+        <v>0.9856519068775296</v>
       </c>
       <c r="D8">
-        <v>1.006437348527238</v>
+        <v>1.006437348527239</v>
       </c>
       <c r="E8">
-        <v>0.9937589910426146</v>
+        <v>0.9937589910426152</v>
       </c>
       <c r="F8">
-        <v>0.9956791824665872</v>
+        <v>0.9956791824665878</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039437315790951</v>
       </c>
       <c r="J8">
-        <v>1.007684664720866</v>
+        <v>1.007684664720867</v>
       </c>
       <c r="K8">
-        <v>1.017530822211558</v>
+        <v>1.01753082221156</v>
       </c>
       <c r="L8">
-        <v>1.005024169724689</v>
+        <v>1.00502416972469</v>
       </c>
       <c r="M8">
-        <v>1.006918001831487</v>
+        <v>1.006918001831488</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9640506220755876</v>
+        <v>0.9640506220755886</v>
       </c>
       <c r="D9">
-        <v>0.9903730231254227</v>
+        <v>0.9903730231254234</v>
       </c>
       <c r="E9">
-        <v>0.973558238301738</v>
+        <v>0.9735582383017393</v>
       </c>
       <c r="F9">
-        <v>0.9737292793747468</v>
+        <v>0.9737292793747481</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031737955000544</v>
       </c>
       <c r="J9">
-        <v>0.9909399930785425</v>
+        <v>0.9909399930785439</v>
       </c>
       <c r="K9">
-        <v>1.003624246544996</v>
+        <v>1.003624246544997</v>
       </c>
       <c r="L9">
-        <v>0.9870953953438526</v>
+        <v>0.9870953953438537</v>
       </c>
       <c r="M9">
-        <v>0.9872634635333015</v>
+        <v>0.9872634635333025</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9481949458824088</v>
+        <v>0.9481949458824074</v>
       </c>
       <c r="D10">
-        <v>0.9786128651730728</v>
+        <v>0.9786128651730713</v>
       </c>
       <c r="E10">
-        <v>0.958778262990408</v>
+        <v>0.9587782629904068</v>
       </c>
       <c r="F10">
-        <v>0.9576554654046606</v>
+        <v>0.9576554654046597</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026001113081316</v>
+        <v>1.026001113081315</v>
       </c>
       <c r="J10">
-        <v>0.9786261926561428</v>
+        <v>0.9786261926561416</v>
       </c>
       <c r="K10">
-        <v>0.9933793146092982</v>
+        <v>0.9933793146092971</v>
       </c>
       <c r="L10">
-        <v>0.9739339303193982</v>
+        <v>0.9739339303193973</v>
       </c>
       <c r="M10">
-        <v>0.9728338006833976</v>
+        <v>0.9728338006833968</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9409055307105343</v>
+        <v>0.9409055307105342</v>
       </c>
       <c r="D11">
-        <v>0.9732176221880704</v>
+        <v>0.9732176221880701</v>
       </c>
       <c r="E11">
-        <v>0.9519970844986405</v>
+        <v>0.9519970844986403</v>
       </c>
       <c r="F11">
-        <v>0.9502757192786881</v>
+        <v>0.9502757192786878</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.023345111111956</v>
       </c>
       <c r="J11">
-        <v>0.9729615170898084</v>
+        <v>0.9729615170898083</v>
       </c>
       <c r="K11">
-        <v>0.988662928330664</v>
+        <v>0.9886629283306636</v>
       </c>
       <c r="L11">
         <v>0.9678848297417293</v>
       </c>
       <c r="M11">
-        <v>0.9662005040253936</v>
+        <v>0.9662005040253931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9381260042772573</v>
+        <v>0.9381260042772578</v>
       </c>
       <c r="D12">
-        <v>0.9711624542732732</v>
+        <v>0.9711624542732737</v>
       </c>
       <c r="E12">
-        <v>0.9494136517603328</v>
+        <v>0.9494136517603332</v>
       </c>
       <c r="F12">
-        <v>0.9474633418787854</v>
+        <v>0.9474633418787859</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022329736602324</v>
+        <v>1.022329736602325</v>
       </c>
       <c r="J12">
-        <v>0.9708011730569004</v>
+        <v>0.9708011730569009</v>
       </c>
       <c r="K12">
-        <v>0.986863805703999</v>
+        <v>0.9868638057039995</v>
       </c>
       <c r="L12">
-        <v>0.9655787101103338</v>
+        <v>0.965578710110334</v>
       </c>
       <c r="M12">
-        <v>0.9636713668468542</v>
+        <v>0.9636713668468545</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.93872562576381</v>
+        <v>0.9387256257638074</v>
       </c>
       <c r="D13">
-        <v>0.9716057101678665</v>
+        <v>0.9716057101678643</v>
       </c>
       <c r="E13">
-        <v>0.9499708625061912</v>
+        <v>0.9499708625061887</v>
       </c>
       <c r="F13">
-        <v>0.9480699767023921</v>
+        <v>0.9480699767023898</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022548895995162</v>
+        <v>1.022548895995161</v>
       </c>
       <c r="J13">
-        <v>0.9712672318291791</v>
+        <v>0.9712672318291765</v>
       </c>
       <c r="K13">
-        <v>0.9872519546534279</v>
+        <v>0.9872519546534262</v>
       </c>
       <c r="L13">
-        <v>0.9660761799637931</v>
+        <v>0.9660761799637906</v>
       </c>
       <c r="M13">
-        <v>0.9642169609210371</v>
+        <v>0.9642169609210348</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9406772944175742</v>
+        <v>0.9406772944175724</v>
       </c>
       <c r="D14">
-        <v>0.9730488206428768</v>
+        <v>0.9730488206428752</v>
       </c>
       <c r="E14">
-        <v>0.9517849021244882</v>
+        <v>0.9517849021244862</v>
       </c>
       <c r="F14">
-        <v>0.950044752646942</v>
+        <v>0.9500447526469401</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023261787065872</v>
       </c>
       <c r="J14">
-        <v>0.9727841297576507</v>
+        <v>0.9727841297576489</v>
       </c>
       <c r="K14">
-        <v>0.9885152092543319</v>
+        <v>0.9885152092543307</v>
       </c>
       <c r="L14">
-        <v>0.9676954558043899</v>
+        <v>0.9676954558043879</v>
       </c>
       <c r="M14">
-        <v>0.9659928231067307</v>
+        <v>0.965992823106729</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.941869979810144</v>
+        <v>0.9418699798101434</v>
       </c>
       <c r="D15">
-        <v>0.9739310074457034</v>
+        <v>0.9739310074457032</v>
       </c>
       <c r="E15">
-        <v>0.9528937898111993</v>
+        <v>0.9528937898111991</v>
       </c>
       <c r="F15">
-        <v>0.9512517710232192</v>
+        <v>0.9512517710232185</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.023697105429422</v>
       </c>
       <c r="J15">
-        <v>0.9737110829032107</v>
+        <v>0.9737110829032105</v>
       </c>
       <c r="K15">
-        <v>0.9892871115002499</v>
+        <v>0.9892871115002497</v>
       </c>
       <c r="L15">
-        <v>0.9686850797816982</v>
+        <v>0.968685079781698</v>
       </c>
       <c r="M15">
-        <v>0.9670781021803515</v>
+        <v>0.9670781021803508</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9486691219939527</v>
+        <v>0.9486691219939533</v>
       </c>
       <c r="D16">
-        <v>0.9789640894179934</v>
+        <v>0.9789640894179938</v>
       </c>
       <c r="E16">
-        <v>0.9592196790595698</v>
+        <v>0.9592196790595703</v>
       </c>
       <c r="F16">
-        <v>0.958135729971093</v>
+        <v>0.9581357299710933</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02617351820088</v>
       </c>
       <c r="J16">
-        <v>0.9789946211295533</v>
+        <v>0.9789946211295536</v>
       </c>
       <c r="K16">
-        <v>0.9936860030081686</v>
+        <v>0.9936860030081691</v>
       </c>
       <c r="L16">
-        <v>0.974327475413741</v>
+        <v>0.9743274754137413</v>
       </c>
       <c r="M16">
-        <v>0.9732653171962746</v>
+        <v>0.973265317196275</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9528152209171421</v>
+        <v>0.9528152209171423</v>
       </c>
       <c r="D17">
         <v>0.982036428558307</v>
       </c>
       <c r="E17">
-        <v>0.9630808876410781</v>
+        <v>0.9630808876410789</v>
       </c>
       <c r="F17">
-        <v>0.9623361886873428</v>
+        <v>0.9623361886873432</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027678933993537</v>
+        <v>1.027678933993536</v>
       </c>
       <c r="J17">
-        <v>0.9822157027457897</v>
+        <v>0.9822157027457904</v>
       </c>
       <c r="K17">
         <v>0.9963669299840228</v>
       </c>
       <c r="L17">
-        <v>0.9777687635247707</v>
+        <v>0.9777687635247714</v>
       </c>
       <c r="M17">
-        <v>0.9770384813292047</v>
+        <v>0.9770384813292049</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9551933090963122</v>
+        <v>0.9551933090963113</v>
       </c>
       <c r="D18">
-        <v>0.9837996629016632</v>
+        <v>0.9837996629016621</v>
       </c>
       <c r="E18">
-        <v>0.9652968280363302</v>
+        <v>0.9652968280363293</v>
       </c>
       <c r="F18">
-        <v>0.9647463754565597</v>
+        <v>0.9647463754565591</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.028540658529014</v>
       </c>
       <c r="J18">
-        <v>0.9840628791242069</v>
+        <v>0.984062879124206</v>
       </c>
       <c r="K18">
-        <v>0.9979040200810511</v>
+        <v>0.9979040200810501</v>
       </c>
       <c r="L18">
-        <v>0.9797427340168382</v>
+        <v>0.9797427340168373</v>
       </c>
       <c r="M18">
-        <v>0.9792027047412839</v>
+        <v>0.9792027047412832</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9559975729816557</v>
+        <v>0.9559975729816561</v>
       </c>
       <c r="D19">
-        <v>0.9843961480530192</v>
+        <v>0.9843961480530197</v>
       </c>
       <c r="E19">
-        <v>0.9660464608147445</v>
+        <v>0.9660464608147449</v>
       </c>
       <c r="F19">
-        <v>0.965561648330267</v>
+        <v>0.9655616483302674</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028831791778619</v>
       </c>
       <c r="J19">
-        <v>0.9846875258289387</v>
+        <v>0.9846875258289389</v>
       </c>
       <c r="K19">
-        <v>0.9984237492602642</v>
+        <v>0.9984237492602646</v>
       </c>
       <c r="L19">
-        <v>0.9804103448234739</v>
+        <v>0.9804103448234742</v>
       </c>
       <c r="M19">
-        <v>0.9799346435604919</v>
+        <v>0.9799346435604922</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9523746028917011</v>
+        <v>0.9523746028917008</v>
       </c>
       <c r="D20">
-        <v>0.9817098128351128</v>
+        <v>0.9817098128351126</v>
       </c>
       <c r="E20">
-        <v>0.962670413277158</v>
+        <v>0.9626704132771576</v>
       </c>
       <c r="F20">
-        <v>0.9618896973478236</v>
+        <v>0.961889697347823</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027519129107362</v>
+        <v>1.027519129107361</v>
       </c>
       <c r="J20">
-        <v>0.9818734239198421</v>
+        <v>0.9818734239198417</v>
       </c>
       <c r="K20">
-        <v>0.9960820825426859</v>
+        <v>0.9960820825426857</v>
       </c>
       <c r="L20">
-        <v>0.977403031621381</v>
+        <v>0.9774030316213809</v>
       </c>
       <c r="M20">
-        <v>0.9766374911559615</v>
+        <v>0.9766374911559611</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9401046357985035</v>
+        <v>0.9401046357985016</v>
       </c>
       <c r="D21">
-        <v>0.9726253223981983</v>
+        <v>0.9726253223981964</v>
       </c>
       <c r="E21">
-        <v>0.9512525615189495</v>
+        <v>0.9512525615189471</v>
       </c>
       <c r="F21">
-        <v>0.9494652693673731</v>
+        <v>0.9494652693673711</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023052680696324</v>
       </c>
       <c r="J21">
-        <v>0.9723390493868073</v>
+        <v>0.9723390493868054</v>
       </c>
       <c r="K21">
-        <v>0.9881445625818723</v>
+        <v>0.9881445625818708</v>
       </c>
       <c r="L21">
-        <v>0.9672203133710037</v>
+        <v>0.9672203133710012</v>
       </c>
       <c r="M21">
-        <v>0.9654717429085128</v>
+        <v>0.9654717429085109</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9319686470990556</v>
+        <v>0.9319686470990569</v>
       </c>
       <c r="D22">
-        <v>0.9666141006466119</v>
+        <v>0.9666141006466134</v>
       </c>
       <c r="E22">
-        <v>0.9436952498351592</v>
+        <v>0.9436952498351607</v>
       </c>
       <c r="F22">
-        <v>0.9412362829999876</v>
+        <v>0.9412362829999891</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020075804382503</v>
+        <v>1.020075804382504</v>
       </c>
       <c r="J22">
-        <v>0.966015063019047</v>
+        <v>0.9660150630190485</v>
       </c>
       <c r="K22">
-        <v>0.9828772764840361</v>
+        <v>0.9828772764840374</v>
       </c>
       <c r="L22">
-        <v>0.9604711899037397</v>
+        <v>0.9604711899037413</v>
       </c>
       <c r="M22">
-        <v>0.9580692230310871</v>
+        <v>0.9580692230310885</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9363248126238608</v>
+        <v>0.9363248126238616</v>
       </c>
       <c r="D23">
-        <v>0.9698313067188393</v>
+        <v>0.9698313067188402</v>
       </c>
       <c r="E23">
-        <v>0.9477402146457877</v>
+        <v>0.9477402146457888</v>
       </c>
       <c r="F23">
-        <v>0.9456413249521434</v>
+        <v>0.945641324952144</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021671039597725</v>
+        <v>1.021671039597726</v>
       </c>
       <c r="J23">
-        <v>0.9694011536823488</v>
+        <v>0.9694011536823498</v>
       </c>
       <c r="K23">
-        <v>0.9856977686137772</v>
+        <v>0.9856977686137779</v>
       </c>
       <c r="L23">
-        <v>0.9640844557230068</v>
+        <v>0.9640844557230075</v>
       </c>
       <c r="M23">
-        <v>0.9620325079833731</v>
+        <v>0.9620325079833738</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9525738230274121</v>
+        <v>0.9525738230274139</v>
       </c>
       <c r="D24">
-        <v>0.9818574850394203</v>
+        <v>0.9818574850394221</v>
       </c>
       <c r="E24">
-        <v>0.9628560004227202</v>
+        <v>0.9628560004227219</v>
       </c>
       <c r="F24">
-        <v>0.9620915701777348</v>
+        <v>0.9620915701777364</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027591388391943</v>
+        <v>1.027591388391944</v>
       </c>
       <c r="J24">
-        <v>0.9820281822648995</v>
+        <v>0.9820281822649011</v>
       </c>
       <c r="K24">
-        <v>0.9962108748180563</v>
+        <v>0.9962108748180579</v>
       </c>
       <c r="L24">
-        <v>0.9775683924701336</v>
+        <v>0.9775683924701353</v>
       </c>
       <c r="M24">
-        <v>0.9768187939186269</v>
+        <v>0.9768187939186286</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9698682611976482</v>
+        <v>0.9698682611976487</v>
       </c>
       <c r="D25">
-        <v>0.9946952889991849</v>
+        <v>0.9946952889991854</v>
       </c>
       <c r="E25">
-        <v>0.9789913343571176</v>
+        <v>0.9789913343571182</v>
       </c>
       <c r="F25">
-        <v>0.9796347381994863</v>
+        <v>0.9796347381994868</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033826394071941</v>
       </c>
       <c r="J25">
-        <v>0.9954540415825969</v>
+        <v>0.9954540415825976</v>
       </c>
       <c r="K25">
         <v>1.007376515747818</v>
       </c>
       <c r="L25">
-        <v>0.991924779580409</v>
+        <v>0.9919247795804096</v>
       </c>
       <c r="M25">
-        <v>0.992557645619758</v>
+        <v>0.9925576456197581</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
@@ -421,28 +421,28 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9826415200015287</v>
+        <v>0.9826415200015293</v>
       </c>
       <c r="D2">
-        <v>1.004196324637692</v>
+        <v>1.004196324637693</v>
       </c>
       <c r="E2">
-        <v>0.9909393004774391</v>
+        <v>0.9909393004774393</v>
       </c>
       <c r="F2">
-        <v>0.9926164133912729</v>
+        <v>0.9926164133912735</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038374046523335</v>
+        <v>1.038374046523336</v>
       </c>
       <c r="J2">
         <v>1.00535411285656</v>
       </c>
       <c r="K2">
-        <v>1.015597505936577</v>
+        <v>1.015597505936578</v>
       </c>
       <c r="L2">
         <v>1.00252632537405</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9914169650813967</v>
+        <v>0.9914169650813953</v>
       </c>
       <c r="D3">
-        <v>1.010730553686372</v>
+        <v>1.010730553686371</v>
       </c>
       <c r="E3">
-        <v>0.9991629262550985</v>
+        <v>0.9991629262550975</v>
       </c>
       <c r="F3">
-        <v>1.001548202120118</v>
+        <v>1.001548202120117</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041463327865816</v>
+        <v>1.041463327865815</v>
       </c>
       <c r="J3">
-        <v>1.012144378830205</v>
+        <v>1.012144378830204</v>
       </c>
       <c r="K3">
         <v>1.021227951747649</v>
       </c>
       <c r="L3">
-        <v>1.009806528812456</v>
+        <v>1.009806528812455</v>
       </c>
       <c r="M3">
-        <v>1.012161311665388</v>
+        <v>1.012161311665386</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9968896715637461</v>
+        <v>0.9968896715637459</v>
       </c>
       <c r="D4">
         <v>1.014807520497148</v>
       </c>
       <c r="E4">
-        <v>1.004297797086693</v>
+        <v>1.004297797086692</v>
       </c>
       <c r="F4">
         <v>1.007124190142763</v>
@@ -515,16 +515,16 @@
         <v>1.043373165354297</v>
       </c>
       <c r="J4">
-        <v>1.016373275891317</v>
+        <v>1.016373275891316</v>
       </c>
       <c r="K4">
         <v>1.024730457264826</v>
       </c>
       <c r="L4">
-        <v>1.014344626767909</v>
+        <v>1.014344626767908</v>
       </c>
       <c r="M4">
-        <v>1.017137386221093</v>
+        <v>1.017137386221092</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9991444980555779</v>
+        <v>0.9991444980555793</v>
       </c>
       <c r="D5">
-        <v>1.016487596135404</v>
+        <v>1.016487596135405</v>
       </c>
       <c r="E5">
-        <v>1.006414849261595</v>
+        <v>1.006414849261597</v>
       </c>
       <c r="F5">
-        <v>1.009422917511003</v>
+        <v>1.009422917511005</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044155941948384</v>
+        <v>1.044155941948385</v>
       </c>
       <c r="J5">
-        <v>1.018114172871444</v>
+        <v>1.018114172871445</v>
       </c>
       <c r="K5">
-        <v>1.026171305361185</v>
+        <v>1.026171305361186</v>
       </c>
       <c r="L5">
-        <v>1.016213790781446</v>
+        <v>1.016213790781447</v>
       </c>
       <c r="M5">
         <v>1.019187149353985</v>
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995204918547944</v>
+        <v>0.9995204918547951</v>
       </c>
       <c r="D6">
-        <v>1.01676776379957</v>
+        <v>1.016767763799571</v>
       </c>
       <c r="E6">
-        <v>1.006767950000366</v>
+        <v>1.006767950000367</v>
       </c>
       <c r="F6">
-        <v>1.009806310016039</v>
+        <v>1.00980631001604</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.044286226908609</v>
       </c>
       <c r="J6">
-        <v>1.018404380311811</v>
+        <v>1.018404380311812</v>
       </c>
       <c r="K6">
         <v>1.026411433643831</v>
       </c>
       <c r="L6">
-        <v>1.016525438013483</v>
+        <v>1.016525438013484</v>
       </c>
       <c r="M6">
         <v>1.019528921151558</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9969199768894498</v>
+        <v>0.9969199768894509</v>
       </c>
       <c r="D7">
-        <v>1.014830100020112</v>
+        <v>1.014830100020113</v>
       </c>
       <c r="E7">
-        <v>1.004326245193075</v>
+        <v>1.004326245193077</v>
       </c>
       <c r="F7">
-        <v>1.00715508021364</v>
+        <v>1.007155080213641</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043383702388977</v>
+        <v>1.043383702388978</v>
       </c>
       <c r="J7">
-        <v>1.016396679800423</v>
+        <v>1.016396679800424</v>
       </c>
       <c r="K7">
-        <v>1.02474983152607</v>
+        <v>1.024749831526071</v>
       </c>
       <c r="L7">
-        <v>1.01436975116131</v>
+        <v>1.014369751161311</v>
       </c>
       <c r="M7">
-        <v>1.01716493727957</v>
+        <v>1.017164937279571</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9856519068775296</v>
+        <v>0.985651906877529</v>
       </c>
       <c r="D8">
-        <v>1.006437348527239</v>
+        <v>1.006437348527238</v>
       </c>
       <c r="E8">
-        <v>0.9937589910426152</v>
+        <v>0.9937589910426146</v>
       </c>
       <c r="F8">
-        <v>0.9956791824665878</v>
+        <v>0.9956791824665872</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.039437315790951</v>
       </c>
       <c r="J8">
-        <v>1.007684664720867</v>
+        <v>1.007684664720866</v>
       </c>
       <c r="K8">
-        <v>1.01753082221156</v>
+        <v>1.017530822211558</v>
       </c>
       <c r="L8">
-        <v>1.00502416972469</v>
+        <v>1.005024169724689</v>
       </c>
       <c r="M8">
-        <v>1.006918001831488</v>
+        <v>1.006918001831487</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9640506220755886</v>
+        <v>0.9640506220755876</v>
       </c>
       <c r="D9">
-        <v>0.9903730231254234</v>
+        <v>0.9903730231254227</v>
       </c>
       <c r="E9">
-        <v>0.9735582383017393</v>
+        <v>0.973558238301738</v>
       </c>
       <c r="F9">
-        <v>0.9737292793747481</v>
+        <v>0.9737292793747468</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.031737955000544</v>
       </c>
       <c r="J9">
-        <v>0.9909399930785439</v>
+        <v>0.9909399930785425</v>
       </c>
       <c r="K9">
-        <v>1.003624246544997</v>
+        <v>1.003624246544996</v>
       </c>
       <c r="L9">
-        <v>0.9870953953438537</v>
+        <v>0.9870953953438526</v>
       </c>
       <c r="M9">
-        <v>0.9872634635333025</v>
+        <v>0.9872634635333015</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9481949458824074</v>
+        <v>0.9481949458824088</v>
       </c>
       <c r="D10">
-        <v>0.9786128651730713</v>
+        <v>0.9786128651730728</v>
       </c>
       <c r="E10">
-        <v>0.9587782629904068</v>
+        <v>0.958778262990408</v>
       </c>
       <c r="F10">
-        <v>0.9576554654046597</v>
+        <v>0.9576554654046606</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026001113081315</v>
+        <v>1.026001113081316</v>
       </c>
       <c r="J10">
-        <v>0.9786261926561416</v>
+        <v>0.9786261926561428</v>
       </c>
       <c r="K10">
-        <v>0.9933793146092971</v>
+        <v>0.9933793146092982</v>
       </c>
       <c r="L10">
-        <v>0.9739339303193973</v>
+        <v>0.9739339303193982</v>
       </c>
       <c r="M10">
-        <v>0.9728338006833968</v>
+        <v>0.9728338006833976</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9409055307105342</v>
+        <v>0.9409055307105343</v>
       </c>
       <c r="D11">
-        <v>0.9732176221880701</v>
+        <v>0.9732176221880704</v>
       </c>
       <c r="E11">
-        <v>0.9519970844986403</v>
+        <v>0.9519970844986405</v>
       </c>
       <c r="F11">
-        <v>0.9502757192786878</v>
+        <v>0.9502757192786881</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.023345111111956</v>
       </c>
       <c r="J11">
-        <v>0.9729615170898083</v>
+        <v>0.9729615170898084</v>
       </c>
       <c r="K11">
-        <v>0.9886629283306636</v>
+        <v>0.988662928330664</v>
       </c>
       <c r="L11">
         <v>0.9678848297417293</v>
       </c>
       <c r="M11">
-        <v>0.9662005040253931</v>
+        <v>0.9662005040253936</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9381260042772578</v>
+        <v>0.9381260042772573</v>
       </c>
       <c r="D12">
-        <v>0.9711624542732737</v>
+        <v>0.9711624542732732</v>
       </c>
       <c r="E12">
-        <v>0.9494136517603332</v>
+        <v>0.9494136517603328</v>
       </c>
       <c r="F12">
-        <v>0.9474633418787859</v>
+        <v>0.9474633418787854</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022329736602325</v>
+        <v>1.022329736602324</v>
       </c>
       <c r="J12">
-        <v>0.9708011730569009</v>
+        <v>0.9708011730569004</v>
       </c>
       <c r="K12">
-        <v>0.9868638057039995</v>
+        <v>0.986863805703999</v>
       </c>
       <c r="L12">
-        <v>0.965578710110334</v>
+        <v>0.9655787101103338</v>
       </c>
       <c r="M12">
-        <v>0.9636713668468545</v>
+        <v>0.9636713668468542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9387256257638074</v>
+        <v>0.93872562576381</v>
       </c>
       <c r="D13">
-        <v>0.9716057101678643</v>
+        <v>0.9716057101678665</v>
       </c>
       <c r="E13">
-        <v>0.9499708625061887</v>
+        <v>0.9499708625061912</v>
       </c>
       <c r="F13">
-        <v>0.9480699767023898</v>
+        <v>0.9480699767023921</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022548895995161</v>
+        <v>1.022548895995162</v>
       </c>
       <c r="J13">
-        <v>0.9712672318291765</v>
+        <v>0.9712672318291791</v>
       </c>
       <c r="K13">
-        <v>0.9872519546534262</v>
+        <v>0.9872519546534279</v>
       </c>
       <c r="L13">
-        <v>0.9660761799637906</v>
+        <v>0.9660761799637931</v>
       </c>
       <c r="M13">
-        <v>0.9642169609210348</v>
+        <v>0.9642169609210371</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9406772944175724</v>
+        <v>0.9406772944175742</v>
       </c>
       <c r="D14">
-        <v>0.9730488206428752</v>
+        <v>0.9730488206428768</v>
       </c>
       <c r="E14">
-        <v>0.9517849021244862</v>
+        <v>0.9517849021244882</v>
       </c>
       <c r="F14">
-        <v>0.9500447526469401</v>
+        <v>0.950044752646942</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.023261787065872</v>
       </c>
       <c r="J14">
-        <v>0.9727841297576489</v>
+        <v>0.9727841297576507</v>
       </c>
       <c r="K14">
-        <v>0.9885152092543307</v>
+        <v>0.9885152092543319</v>
       </c>
       <c r="L14">
-        <v>0.9676954558043879</v>
+        <v>0.9676954558043899</v>
       </c>
       <c r="M14">
-        <v>0.965992823106729</v>
+        <v>0.9659928231067307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9418699798101434</v>
+        <v>0.941869979810144</v>
       </c>
       <c r="D15">
-        <v>0.9739310074457032</v>
+        <v>0.9739310074457034</v>
       </c>
       <c r="E15">
-        <v>0.9528937898111991</v>
+        <v>0.9528937898111993</v>
       </c>
       <c r="F15">
-        <v>0.9512517710232185</v>
+        <v>0.9512517710232192</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.023697105429422</v>
       </c>
       <c r="J15">
-        <v>0.9737110829032105</v>
+        <v>0.9737110829032107</v>
       </c>
       <c r="K15">
-        <v>0.9892871115002497</v>
+        <v>0.9892871115002499</v>
       </c>
       <c r="L15">
-        <v>0.968685079781698</v>
+        <v>0.9686850797816982</v>
       </c>
       <c r="M15">
-        <v>0.9670781021803508</v>
+        <v>0.9670781021803515</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9486691219939533</v>
+        <v>0.9486691219939527</v>
       </c>
       <c r="D16">
-        <v>0.9789640894179938</v>
+        <v>0.9789640894179934</v>
       </c>
       <c r="E16">
-        <v>0.9592196790595703</v>
+        <v>0.9592196790595698</v>
       </c>
       <c r="F16">
-        <v>0.9581357299710933</v>
+        <v>0.958135729971093</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.02617351820088</v>
       </c>
       <c r="J16">
-        <v>0.9789946211295536</v>
+        <v>0.9789946211295533</v>
       </c>
       <c r="K16">
-        <v>0.9936860030081691</v>
+        <v>0.9936860030081686</v>
       </c>
       <c r="L16">
-        <v>0.9743274754137413</v>
+        <v>0.974327475413741</v>
       </c>
       <c r="M16">
-        <v>0.973265317196275</v>
+        <v>0.9732653171962746</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9528152209171423</v>
+        <v>0.9528152209171421</v>
       </c>
       <c r="D17">
         <v>0.982036428558307</v>
       </c>
       <c r="E17">
-        <v>0.9630808876410789</v>
+        <v>0.9630808876410781</v>
       </c>
       <c r="F17">
-        <v>0.9623361886873432</v>
+        <v>0.9623361886873428</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027678933993536</v>
+        <v>1.027678933993537</v>
       </c>
       <c r="J17">
-        <v>0.9822157027457904</v>
+        <v>0.9822157027457897</v>
       </c>
       <c r="K17">
         <v>0.9963669299840228</v>
       </c>
       <c r="L17">
-        <v>0.9777687635247714</v>
+        <v>0.9777687635247707</v>
       </c>
       <c r="M17">
-        <v>0.9770384813292049</v>
+        <v>0.9770384813292047</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9551933090963113</v>
+        <v>0.9551933090963122</v>
       </c>
       <c r="D18">
-        <v>0.9837996629016621</v>
+        <v>0.9837996629016632</v>
       </c>
       <c r="E18">
-        <v>0.9652968280363293</v>
+        <v>0.9652968280363302</v>
       </c>
       <c r="F18">
-        <v>0.9647463754565591</v>
+        <v>0.9647463754565597</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.028540658529014</v>
       </c>
       <c r="J18">
-        <v>0.984062879124206</v>
+        <v>0.9840628791242069</v>
       </c>
       <c r="K18">
-        <v>0.9979040200810501</v>
+        <v>0.9979040200810511</v>
       </c>
       <c r="L18">
-        <v>0.9797427340168373</v>
+        <v>0.9797427340168382</v>
       </c>
       <c r="M18">
-        <v>0.9792027047412832</v>
+        <v>0.9792027047412839</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9559975729816561</v>
+        <v>0.9559975729816557</v>
       </c>
       <c r="D19">
-        <v>0.9843961480530197</v>
+        <v>0.9843961480530192</v>
       </c>
       <c r="E19">
-        <v>0.9660464608147449</v>
+        <v>0.9660464608147445</v>
       </c>
       <c r="F19">
-        <v>0.9655616483302674</v>
+        <v>0.965561648330267</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.028831791778619</v>
       </c>
       <c r="J19">
-        <v>0.9846875258289389</v>
+        <v>0.9846875258289387</v>
       </c>
       <c r="K19">
-        <v>0.9984237492602646</v>
+        <v>0.9984237492602642</v>
       </c>
       <c r="L19">
-        <v>0.9804103448234742</v>
+        <v>0.9804103448234739</v>
       </c>
       <c r="M19">
-        <v>0.9799346435604922</v>
+        <v>0.9799346435604919</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9523746028917008</v>
+        <v>0.9523746028917011</v>
       </c>
       <c r="D20">
-        <v>0.9817098128351126</v>
+        <v>0.9817098128351128</v>
       </c>
       <c r="E20">
-        <v>0.9626704132771576</v>
+        <v>0.962670413277158</v>
       </c>
       <c r="F20">
-        <v>0.961889697347823</v>
+        <v>0.9618896973478236</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027519129107361</v>
+        <v>1.027519129107362</v>
       </c>
       <c r="J20">
-        <v>0.9818734239198417</v>
+        <v>0.9818734239198421</v>
       </c>
       <c r="K20">
-        <v>0.9960820825426857</v>
+        <v>0.9960820825426859</v>
       </c>
       <c r="L20">
-        <v>0.9774030316213809</v>
+        <v>0.977403031621381</v>
       </c>
       <c r="M20">
-        <v>0.9766374911559611</v>
+        <v>0.9766374911559615</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9401046357985016</v>
+        <v>0.9401046357985035</v>
       </c>
       <c r="D21">
-        <v>0.9726253223981964</v>
+        <v>0.9726253223981983</v>
       </c>
       <c r="E21">
-        <v>0.9512525615189471</v>
+        <v>0.9512525615189495</v>
       </c>
       <c r="F21">
-        <v>0.9494652693673711</v>
+        <v>0.9494652693673731</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.023052680696324</v>
       </c>
       <c r="J21">
-        <v>0.9723390493868054</v>
+        <v>0.9723390493868073</v>
       </c>
       <c r="K21">
-        <v>0.9881445625818708</v>
+        <v>0.9881445625818723</v>
       </c>
       <c r="L21">
-        <v>0.9672203133710012</v>
+        <v>0.9672203133710037</v>
       </c>
       <c r="M21">
-        <v>0.9654717429085109</v>
+        <v>0.9654717429085128</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9319686470990569</v>
+        <v>0.9319686470990556</v>
       </c>
       <c r="D22">
-        <v>0.9666141006466134</v>
+        <v>0.9666141006466119</v>
       </c>
       <c r="E22">
-        <v>0.9436952498351607</v>
+        <v>0.9436952498351592</v>
       </c>
       <c r="F22">
-        <v>0.9412362829999891</v>
+        <v>0.9412362829999876</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020075804382504</v>
+        <v>1.020075804382503</v>
       </c>
       <c r="J22">
-        <v>0.9660150630190485</v>
+        <v>0.966015063019047</v>
       </c>
       <c r="K22">
-        <v>0.9828772764840374</v>
+        <v>0.9828772764840361</v>
       </c>
       <c r="L22">
-        <v>0.9604711899037413</v>
+        <v>0.9604711899037397</v>
       </c>
       <c r="M22">
-        <v>0.9580692230310885</v>
+        <v>0.9580692230310871</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9363248126238616</v>
+        <v>0.9363248126238608</v>
       </c>
       <c r="D23">
-        <v>0.9698313067188402</v>
+        <v>0.9698313067188393</v>
       </c>
       <c r="E23">
-        <v>0.9477402146457888</v>
+        <v>0.9477402146457877</v>
       </c>
       <c r="F23">
-        <v>0.945641324952144</v>
+        <v>0.9456413249521434</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021671039597726</v>
+        <v>1.021671039597725</v>
       </c>
       <c r="J23">
-        <v>0.9694011536823498</v>
+        <v>0.9694011536823488</v>
       </c>
       <c r="K23">
-        <v>0.9856977686137779</v>
+        <v>0.9856977686137772</v>
       </c>
       <c r="L23">
-        <v>0.9640844557230075</v>
+        <v>0.9640844557230068</v>
       </c>
       <c r="M23">
-        <v>0.9620325079833738</v>
+        <v>0.9620325079833731</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9525738230274139</v>
+        <v>0.9525738230274121</v>
       </c>
       <c r="D24">
-        <v>0.9818574850394221</v>
+        <v>0.9818574850394203</v>
       </c>
       <c r="E24">
-        <v>0.9628560004227219</v>
+        <v>0.9628560004227202</v>
       </c>
       <c r="F24">
-        <v>0.9620915701777364</v>
+        <v>0.9620915701777348</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027591388391944</v>
+        <v>1.027591388391943</v>
       </c>
       <c r="J24">
-        <v>0.9820281822649011</v>
+        <v>0.9820281822648995</v>
       </c>
       <c r="K24">
-        <v>0.9962108748180579</v>
+        <v>0.9962108748180563</v>
       </c>
       <c r="L24">
-        <v>0.9775683924701353</v>
+        <v>0.9775683924701336</v>
       </c>
       <c r="M24">
-        <v>0.9768187939186286</v>
+        <v>0.9768187939186269</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9698682611976487</v>
+        <v>0.9698682611976482</v>
       </c>
       <c r="D25">
-        <v>0.9946952889991854</v>
+        <v>0.9946952889991849</v>
       </c>
       <c r="E25">
-        <v>0.9789913343571182</v>
+        <v>0.9789913343571176</v>
       </c>
       <c r="F25">
-        <v>0.9796347381994868</v>
+        <v>0.9796347381994863</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033826394071941</v>
       </c>
       <c r="J25">
-        <v>0.9954540415825976</v>
+        <v>0.9954540415825969</v>
       </c>
       <c r="K25">
         <v>1.007376515747818</v>
       </c>
       <c r="L25">
-        <v>0.9919247795804096</v>
+        <v>0.991924779580409</v>
       </c>
       <c r="M25">
-        <v>0.9925576456197581</v>
+        <v>0.992557645619758</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9826415200015293</v>
+        <v>0.9826700448161577</v>
       </c>
       <c r="D2">
-        <v>1.004196324637693</v>
+        <v>1.004219550272653</v>
       </c>
       <c r="E2">
-        <v>0.9909393004774393</v>
+        <v>0.9909676159821798</v>
       </c>
       <c r="F2">
-        <v>0.9926164133912735</v>
+        <v>0.9926407291730415</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038374046523336</v>
+        <v>1.038386520918698</v>
       </c>
       <c r="J2">
-        <v>1.00535411285656</v>
+        <v>1.005381742320734</v>
       </c>
       <c r="K2">
-        <v>1.015597505936578</v>
+        <v>1.015620411410625</v>
       </c>
       <c r="L2">
-        <v>1.00252632537405</v>
+        <v>1.002554237234146</v>
       </c>
       <c r="M2">
-        <v>1.004179580844891</v>
+        <v>1.004203551477046</v>
+      </c>
+      <c r="N2">
+        <v>1.003969609109167</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9914169650813953</v>
+        <v>0.9914380619830536</v>
       </c>
       <c r="D3">
-        <v>1.010730553686371</v>
+        <v>1.010747955420095</v>
       </c>
       <c r="E3">
-        <v>0.9991629262550975</v>
+        <v>0.9991838970600525</v>
       </c>
       <c r="F3">
-        <v>1.001548202120117</v>
+        <v>1.001566210836412</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041463327865815</v>
+        <v>1.041472678227812</v>
       </c>
       <c r="J3">
-        <v>1.012144378830204</v>
+        <v>1.012164886946868</v>
       </c>
       <c r="K3">
-        <v>1.021227951747649</v>
+        <v>1.021245136680438</v>
       </c>
       <c r="L3">
-        <v>1.009806528812455</v>
+        <v>1.009827230736802</v>
       </c>
       <c r="M3">
-        <v>1.012161311665386</v>
+        <v>1.012179090851032</v>
+      </c>
+      <c r="N3">
+        <v>1.008816766130322</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9968896715637459</v>
+        <v>0.9969062555657997</v>
       </c>
       <c r="D4">
-        <v>1.014807520497148</v>
+        <v>1.014821376035671</v>
       </c>
       <c r="E4">
-        <v>1.004297797086692</v>
+        <v>1.004314295367313</v>
       </c>
       <c r="F4">
-        <v>1.007124190142763</v>
+        <v>1.007138381151743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043373165354297</v>
+        <v>1.04338061122214</v>
       </c>
       <c r="J4">
-        <v>1.016373275891316</v>
+        <v>1.016389432091693</v>
       </c>
       <c r="K4">
-        <v>1.024730457264826</v>
+        <v>1.02474415156308</v>
       </c>
       <c r="L4">
-        <v>1.014344626767908</v>
+        <v>1.014360928040666</v>
       </c>
       <c r="M4">
-        <v>1.017137386221092</v>
+        <v>1.01715140894961</v>
+      </c>
+      <c r="N4">
+        <v>1.011830972216742</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9991444980555793</v>
+        <v>0.999159247778965</v>
       </c>
       <c r="D5">
-        <v>1.016487596135405</v>
+        <v>1.016500008761507</v>
       </c>
       <c r="E5">
-        <v>1.006414849261597</v>
+        <v>1.006429527522379</v>
       </c>
       <c r="F5">
-        <v>1.009422917511005</v>
+        <v>1.009435559901242</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044155941948385</v>
+        <v>1.044162612358508</v>
       </c>
       <c r="J5">
-        <v>1.018114172871445</v>
+        <v>1.018128554759229</v>
       </c>
       <c r="K5">
-        <v>1.026171305361186</v>
+        <v>1.026183577723181</v>
       </c>
       <c r="L5">
-        <v>1.016213790781447</v>
+        <v>1.016228299049362</v>
       </c>
       <c r="M5">
-        <v>1.019187149353985</v>
+        <v>1.019199646404481</v>
+      </c>
+      <c r="N5">
+        <v>1.013070695303662</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995204918547951</v>
+        <v>0.9995349370928232</v>
       </c>
       <c r="D6">
-        <v>1.016767763799571</v>
+        <v>1.016779936823316</v>
       </c>
       <c r="E6">
-        <v>1.006767950000367</v>
+        <v>1.006782326023837</v>
       </c>
       <c r="F6">
-        <v>1.00980631001604</v>
+        <v>1.009818695513608</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044286226908609</v>
+        <v>1.044292768518818</v>
       </c>
       <c r="J6">
-        <v>1.018404380311812</v>
+        <v>1.018418467362808</v>
       </c>
       <c r="K6">
-        <v>1.026411433643831</v>
+        <v>1.026423469794448</v>
       </c>
       <c r="L6">
-        <v>1.016525438013484</v>
+        <v>1.016539648404624</v>
       </c>
       <c r="M6">
-        <v>1.019528921151558</v>
+        <v>1.019541165007896</v>
+      </c>
+      <c r="N6">
+        <v>1.013277289862653</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9969199768894509</v>
+        <v>0.9969365361433259</v>
       </c>
       <c r="D7">
-        <v>1.014830100020113</v>
+        <v>1.014843936096574</v>
       </c>
       <c r="E7">
-        <v>1.004326245193077</v>
+        <v>1.004342718926108</v>
       </c>
       <c r="F7">
-        <v>1.007155080213641</v>
+        <v>1.007169250316635</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043383702388978</v>
+        <v>1.04339113779955</v>
       </c>
       <c r="J7">
-        <v>1.016396679800424</v>
+        <v>1.016412812082709</v>
       </c>
       <c r="K7">
-        <v>1.024749831526071</v>
+        <v>1.024763506651508</v>
       </c>
       <c r="L7">
-        <v>1.014369751161311</v>
+        <v>1.014386028259465</v>
       </c>
       <c r="M7">
-        <v>1.017164937279571</v>
+        <v>1.01717893941915</v>
+      </c>
+      <c r="N7">
+        <v>1.01184764305668</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.985651906877529</v>
+        <v>0.9856778558753554</v>
       </c>
       <c r="D8">
-        <v>1.006437348527238</v>
+        <v>1.006458556485814</v>
       </c>
       <c r="E8">
-        <v>0.9937589910426146</v>
+        <v>0.993784761979588</v>
       </c>
       <c r="F8">
-        <v>0.9956791824665872</v>
+        <v>0.9957013078393908</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039437315790951</v>
+        <v>1.039448708362049</v>
       </c>
       <c r="J8">
-        <v>1.007684664720866</v>
+        <v>1.007709830530009</v>
       </c>
       <c r="K8">
-        <v>1.017530822211558</v>
+        <v>1.017551747498448</v>
       </c>
       <c r="L8">
-        <v>1.005024169724689</v>
+        <v>1.0050495860428</v>
       </c>
       <c r="M8">
-        <v>1.006918001831487</v>
+        <v>1.006939824225724</v>
+      </c>
+      <c r="N8">
+        <v>1.005634190204467</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9640506220755876</v>
+        <v>0.9640957630397278</v>
       </c>
       <c r="D9">
-        <v>0.9903730231254227</v>
+        <v>0.9904092107590935</v>
       </c>
       <c r="E9">
-        <v>0.973558238301738</v>
+        <v>0.9736029058074108</v>
       </c>
       <c r="F9">
-        <v>0.9737292793747468</v>
+        <v>0.9737678070138979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031737955000544</v>
+        <v>1.031757368670849</v>
       </c>
       <c r="J9">
-        <v>0.9909399930785425</v>
+        <v>0.990983367162997</v>
       </c>
       <c r="K9">
-        <v>1.003624246544996</v>
+        <v>1.003659832296282</v>
       </c>
       <c r="L9">
-        <v>0.9870953953438526</v>
+        <v>0.9871392863482904</v>
       </c>
       <c r="M9">
-        <v>0.9872634635333015</v>
+        <v>0.9873013217058927</v>
+      </c>
+      <c r="N9">
+        <v>0.9936560918095177</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9481949458824088</v>
+        <v>0.9482553652291928</v>
       </c>
       <c r="D10">
-        <v>0.9786128651730728</v>
+        <v>0.9786608810819053</v>
       </c>
       <c r="E10">
-        <v>0.958778262990408</v>
+        <v>0.9588378684262074</v>
       </c>
       <c r="F10">
-        <v>0.9576554654046606</v>
+        <v>0.9577071817166999</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026001113081316</v>
+        <v>1.026026846146339</v>
       </c>
       <c r="J10">
-        <v>0.9786261926561428</v>
+        <v>0.9786838223112247</v>
       </c>
       <c r="K10">
-        <v>0.9933793146092982</v>
+        <v>0.9934264133389891</v>
       </c>
       <c r="L10">
-        <v>0.9739339303193982</v>
+        <v>0.9739923343458697</v>
       </c>
       <c r="M10">
-        <v>0.9728338006833976</v>
+        <v>0.9728844713666676</v>
+      </c>
+      <c r="N10">
+        <v>0.9848260370104986</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9409055307105343</v>
+        <v>0.9409733719915087</v>
       </c>
       <c r="D11">
-        <v>0.9732176221880704</v>
+        <v>0.9732713506286678</v>
       </c>
       <c r="E11">
-        <v>0.9519970844986405</v>
+        <v>0.9520639124436423</v>
       </c>
       <c r="F11">
-        <v>0.9502757192786881</v>
+        <v>0.9503338824165128</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023345111111956</v>
+        <v>1.02337389270664</v>
       </c>
       <c r="J11">
-        <v>0.9729615170898084</v>
+        <v>0.973025997683527</v>
       </c>
       <c r="K11">
-        <v>0.988662928330664</v>
+        <v>0.9887155688054489</v>
       </c>
       <c r="L11">
-        <v>0.9678848297417293</v>
+        <v>0.9679502232964894</v>
       </c>
       <c r="M11">
-        <v>0.9662005040253936</v>
+        <v>0.9662574127310659</v>
+      </c>
+      <c r="N11">
+        <v>0.9807596627057084</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9381260042772573</v>
+        <v>0.9381967482338147</v>
       </c>
       <c r="D12">
-        <v>0.9711624542732732</v>
+        <v>0.971218410743515</v>
       </c>
       <c r="E12">
-        <v>0.9494136517603328</v>
+        <v>0.9494832983421977</v>
       </c>
       <c r="F12">
-        <v>0.9474633418787854</v>
+        <v>0.9475240332296082</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022329736602324</v>
+        <v>1.02235970667829</v>
       </c>
       <c r="J12">
-        <v>0.9708011730569004</v>
+        <v>0.9708683201602741</v>
       </c>
       <c r="K12">
-        <v>0.986863805703999</v>
+        <v>0.9869186044865808</v>
       </c>
       <c r="L12">
-        <v>0.9655787101103338</v>
+        <v>0.9656468266714077</v>
       </c>
       <c r="M12">
-        <v>0.9636713668468542</v>
+        <v>0.9637307175798357</v>
+      </c>
+      <c r="N12">
+        <v>0.9792082987282149</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.93872562576381</v>
+        <v>0.9387957400182572</v>
       </c>
       <c r="D13">
-        <v>0.9716057101678665</v>
+        <v>0.9716611835865769</v>
       </c>
       <c r="E13">
-        <v>0.9499708625061912</v>
+        <v>0.9500398979052813</v>
       </c>
       <c r="F13">
-        <v>0.9480699767023921</v>
+        <v>0.9481301192612337</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022548895995162</v>
+        <v>1.022578608423947</v>
       </c>
       <c r="J13">
-        <v>0.9712672318291791</v>
+        <v>0.9713338010713045</v>
       </c>
       <c r="K13">
-        <v>0.9872519546534279</v>
+        <v>0.98730628564603</v>
       </c>
       <c r="L13">
-        <v>0.9660761799637931</v>
+        <v>0.9661437062997217</v>
       </c>
       <c r="M13">
-        <v>0.9642169609210371</v>
+        <v>0.9642757817729368</v>
+      </c>
+      <c r="N13">
+        <v>0.979543004098851</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9406772944175742</v>
+        <v>0.9407453724931611</v>
       </c>
       <c r="D14">
-        <v>0.9730488206428768</v>
+        <v>0.9731027309712299</v>
       </c>
       <c r="E14">
-        <v>0.9517849021244882</v>
+        <v>0.951851960135518</v>
       </c>
       <c r="F14">
-        <v>0.950044752646942</v>
+        <v>0.9501031218876258</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023261787065872</v>
+        <v>1.023290665694051</v>
       </c>
       <c r="J14">
-        <v>0.9727841297576507</v>
+        <v>0.9728488281485157</v>
       </c>
       <c r="K14">
-        <v>0.9885152092543319</v>
+        <v>0.9885680259895051</v>
       </c>
       <c r="L14">
-        <v>0.9676954558043899</v>
+        <v>0.967761071717542</v>
       </c>
       <c r="M14">
-        <v>0.9659928231067307</v>
+        <v>0.9660499309789451</v>
+      </c>
+      <c r="N14">
+        <v>0.9806322900729294</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.941869979810144</v>
+        <v>0.9419368235038527</v>
       </c>
       <c r="D15">
-        <v>0.9739310074457034</v>
+        <v>0.9739839693632265</v>
       </c>
       <c r="E15">
-        <v>0.9528937898111993</v>
+        <v>0.9529596482674335</v>
       </c>
       <c r="F15">
-        <v>0.9512517710232192</v>
+        <v>0.9513090661564512</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023697105429422</v>
+        <v>1.023725478078396</v>
       </c>
       <c r="J15">
-        <v>0.9737110829032107</v>
+        <v>0.973774645417706</v>
       </c>
       <c r="K15">
-        <v>0.9892871115002499</v>
+        <v>0.9893390090402964</v>
       </c>
       <c r="L15">
-        <v>0.9686850797816982</v>
+        <v>0.9687495361348841</v>
       </c>
       <c r="M15">
-        <v>0.9670781021803515</v>
+        <v>0.967134171918127</v>
+      </c>
+      <c r="N15">
+        <v>0.9812978645885123</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9486691219939527</v>
+        <v>0.9487290677251461</v>
       </c>
       <c r="D16">
-        <v>0.9789640894179934</v>
+        <v>0.9790117400382673</v>
       </c>
       <c r="E16">
-        <v>0.9592196790595698</v>
+        <v>0.9592788228501523</v>
       </c>
       <c r="F16">
-        <v>0.958135729971093</v>
+        <v>0.9581870357646345</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02617351820088</v>
+        <v>1.026199056257504</v>
       </c>
       <c r="J16">
-        <v>0.9789946211295533</v>
+        <v>0.9790518119838475</v>
       </c>
       <c r="K16">
-        <v>0.9936860030081686</v>
+        <v>0.9937327469716075</v>
       </c>
       <c r="L16">
-        <v>0.974327475413741</v>
+        <v>0.9743854320878332</v>
       </c>
       <c r="M16">
-        <v>0.9732653171962746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9733155901147679</v>
+      </c>
+      <c r="N16">
+        <v>0.9850904304393568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9528152209171421</v>
+        <v>0.9528710711455389</v>
       </c>
       <c r="D17">
-        <v>0.982036428558307</v>
+        <v>0.9820809166837432</v>
       </c>
       <c r="E17">
-        <v>0.9630808876410781</v>
+        <v>0.9631360356565657</v>
       </c>
       <c r="F17">
-        <v>0.9623361886873428</v>
+        <v>0.9623839490303867</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027678933993537</v>
+        <v>1.027702783383174</v>
       </c>
       <c r="J17">
-        <v>0.9822157027457897</v>
+        <v>0.9822690909366145</v>
       </c>
       <c r="K17">
-        <v>0.9963669299840228</v>
+        <v>0.9964106004998665</v>
       </c>
       <c r="L17">
-        <v>0.9777687635247707</v>
+        <v>0.9778228450818643</v>
       </c>
       <c r="M17">
-        <v>0.9770384813292047</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9770853161937907</v>
+      </c>
+      <c r="N17">
+        <v>0.9874014845962008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9551933090963122</v>
+        <v>0.9552468463216435</v>
       </c>
       <c r="D18">
-        <v>0.9837996629016632</v>
+        <v>0.9838423620268488</v>
       </c>
       <c r="E18">
-        <v>0.9652968280363302</v>
+        <v>0.9653497163747149</v>
       </c>
       <c r="F18">
-        <v>0.9647463754565597</v>
+        <v>0.9647921369876313</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028540658529014</v>
+        <v>1.028563552340017</v>
       </c>
       <c r="J18">
-        <v>0.9840628791242069</v>
+        <v>0.9841141131478117</v>
       </c>
       <c r="K18">
-        <v>0.9979040200810511</v>
+        <v>0.9979459503211093</v>
       </c>
       <c r="L18">
-        <v>0.9797427340168382</v>
+        <v>0.9797946216860907</v>
       </c>
       <c r="M18">
-        <v>0.9792027047412839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9792475991448967</v>
+      </c>
+      <c r="N18">
+        <v>0.9887263852721268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9559975729816557</v>
+        <v>0.9560503337448581</v>
       </c>
       <c r="D19">
-        <v>0.9843961480530192</v>
+        <v>0.9844382461515844</v>
       </c>
       <c r="E19">
-        <v>0.9660464608147445</v>
+        <v>0.9660985901074707</v>
       </c>
       <c r="F19">
-        <v>0.965561648330267</v>
+        <v>0.9656067394491759</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028831791778619</v>
+        <v>1.02885436450373</v>
       </c>
       <c r="J19">
-        <v>0.9846875258289387</v>
+        <v>0.984738035643711</v>
       </c>
       <c r="K19">
-        <v>0.9984237492602642</v>
+        <v>0.998465094572009</v>
       </c>
       <c r="L19">
-        <v>0.9804103448234739</v>
+        <v>0.9804614951463665</v>
       </c>
       <c r="M19">
-        <v>0.9799346435604919</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.979978886764904</v>
+      </c>
+      <c r="N19">
+        <v>0.9891743463950115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9523746028917011</v>
+        <v>0.9524308845264111</v>
       </c>
       <c r="D20">
-        <v>0.9817098128351128</v>
+        <v>0.9817546344004604</v>
       </c>
       <c r="E20">
-        <v>0.962670413277158</v>
+        <v>0.9627259825136144</v>
       </c>
       <c r="F20">
-        <v>0.9618896973478236</v>
+        <v>0.9619378307802843</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027519129107362</v>
+        <v>1.027543156575489</v>
       </c>
       <c r="J20">
-        <v>0.9818734239198421</v>
+        <v>0.9819272133669951</v>
       </c>
       <c r="K20">
-        <v>0.9960820825426859</v>
+        <v>0.9961260772843687</v>
       </c>
       <c r="L20">
-        <v>0.977403031621381</v>
+        <v>0.9774575219396027</v>
       </c>
       <c r="M20">
-        <v>0.9766374911559615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9766846880421481</v>
+      </c>
+      <c r="N20">
+        <v>0.9871559490317774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9401046357985035</v>
+        <v>0.9401733092207941</v>
       </c>
       <c r="D21">
-        <v>0.9726253223981983</v>
+        <v>0.9726796899255311</v>
       </c>
       <c r="E21">
-        <v>0.9512525615189495</v>
+        <v>0.9513201978599201</v>
       </c>
       <c r="F21">
-        <v>0.9494652693673731</v>
+        <v>0.9495241569030363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023052680696324</v>
+        <v>1.023081803222734</v>
       </c>
       <c r="J21">
-        <v>0.9723390493868073</v>
+        <v>0.9724042951499392</v>
       </c>
       <c r="K21">
-        <v>0.9881445625818723</v>
+        <v>0.9881978223200788</v>
       </c>
       <c r="L21">
-        <v>0.9672203133710037</v>
+        <v>0.9672864881618</v>
       </c>
       <c r="M21">
-        <v>0.9654717429085128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9655293515621284</v>
+      </c>
+      <c r="N21">
+        <v>0.9803126921884814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9319686470990556</v>
+        <v>0.9320459730298303</v>
       </c>
       <c r="D22">
-        <v>0.9666141006466119</v>
+        <v>0.9666750964226143</v>
       </c>
       <c r="E22">
-        <v>0.9436952498351592</v>
+        <v>0.9437712752901777</v>
       </c>
       <c r="F22">
-        <v>0.9412362829999876</v>
+        <v>0.94130272125942</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020075804382503</v>
+        <v>1.020108461563657</v>
       </c>
       <c r="J22">
-        <v>0.966015063019047</v>
+        <v>0.9660882303034573</v>
       </c>
       <c r="K22">
-        <v>0.9828772764840361</v>
+        <v>0.9829369506501831</v>
       </c>
       <c r="L22">
-        <v>0.9604711899037397</v>
+        <v>0.9605454593827525</v>
       </c>
       <c r="M22">
-        <v>0.9580692230310871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9581341159839397</v>
+      </c>
+      <c r="N22">
+        <v>0.9757704028743305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9363248126238608</v>
+        <v>0.9363974599593636</v>
       </c>
       <c r="D23">
-        <v>0.9698313067188393</v>
+        <v>0.9698887222993773</v>
       </c>
       <c r="E23">
-        <v>0.9477402146457877</v>
+        <v>0.9478117076596503</v>
       </c>
       <c r="F23">
-        <v>0.9456413249521434</v>
+        <v>0.9457036762061735</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021671039597725</v>
+        <v>1.02170178784891</v>
       </c>
       <c r="J23">
-        <v>0.9694011536823488</v>
+        <v>0.9694700454321823</v>
       </c>
       <c r="K23">
-        <v>0.9856977686137772</v>
+        <v>0.9857539799233166</v>
       </c>
       <c r="L23">
-        <v>0.9640844557230068</v>
+        <v>0.9641543546615496</v>
       </c>
       <c r="M23">
-        <v>0.9620325079833731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9620934607413533</v>
+      </c>
+      <c r="N23">
+        <v>0.9782027831316679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9525738230274121</v>
+        <v>0.9526299094956575</v>
       </c>
       <c r="D24">
-        <v>0.9818574850394203</v>
+        <v>0.9819021557670083</v>
       </c>
       <c r="E24">
-        <v>0.9628560004227202</v>
+        <v>0.9629113791098457</v>
       </c>
       <c r="F24">
-        <v>0.9620915701777348</v>
+        <v>0.9621395348150295</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027591388391943</v>
+        <v>1.027615335303923</v>
       </c>
       <c r="J24">
-        <v>0.9820281822648995</v>
+        <v>0.9820817902057193</v>
       </c>
       <c r="K24">
-        <v>0.9962108748180563</v>
+        <v>0.9962547228952753</v>
       </c>
       <c r="L24">
-        <v>0.9775683924701336</v>
+        <v>0.9776226978831446</v>
       </c>
       <c r="M24">
-        <v>0.9768187939186269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9768658270238558</v>
+      </c>
+      <c r="N24">
+        <v>0.9872669670394537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9698682611976482</v>
+        <v>0.9699080636058754</v>
       </c>
       <c r="D25">
-        <v>0.9946952889991849</v>
+        <v>0.9947273227139135</v>
       </c>
       <c r="E25">
-        <v>0.9789913343571176</v>
+        <v>0.9790307601166871</v>
       </c>
       <c r="F25">
-        <v>0.9796347381994863</v>
+        <v>0.9796686844804393</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033826394071941</v>
+        <v>1.033843585745263</v>
       </c>
       <c r="J25">
-        <v>0.9954540415825969</v>
+        <v>0.9954923848711519</v>
       </c>
       <c r="K25">
-        <v>1.007376515747818</v>
+        <v>1.007408045390684</v>
       </c>
       <c r="L25">
-        <v>0.991924779580409</v>
+        <v>0.9919635591044531</v>
       </c>
       <c r="M25">
-        <v>0.992557645619758</v>
+        <v>0.9925910364155484</v>
+      </c>
+      <c r="N25">
+        <v>0.9968890064155164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9826700448161577</v>
+        <v>1.015079042810023</v>
       </c>
       <c r="D2">
-        <v>1.004219550272653</v>
+        <v>1.03076898101899</v>
       </c>
       <c r="E2">
-        <v>0.9909676159821798</v>
+        <v>1.030344314849169</v>
       </c>
       <c r="F2">
-        <v>0.9926407291730415</v>
+        <v>1.032406191952278</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038386520918698</v>
+        <v>1.052084726935055</v>
       </c>
       <c r="J2">
-        <v>1.005381742320734</v>
+        <v>1.036817909857815</v>
       </c>
       <c r="K2">
-        <v>1.015620411410625</v>
+        <v>1.041815672887358</v>
       </c>
       <c r="L2">
-        <v>1.002554237234146</v>
+        <v>1.041396491995688</v>
       </c>
       <c r="M2">
-        <v>1.004203551477046</v>
+        <v>1.043431789301313</v>
       </c>
       <c r="N2">
-        <v>1.003969609109167</v>
+        <v>1.038290310214489</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9914380619830536</v>
+        <v>1.02564038016514</v>
       </c>
       <c r="D3">
-        <v>1.010747955420095</v>
+        <v>1.039076461205642</v>
       </c>
       <c r="E3">
-        <v>0.9991838970600525</v>
+        <v>1.040770428471557</v>
       </c>
       <c r="F3">
-        <v>1.001566210836412</v>
+        <v>1.04348750867147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041472678227812</v>
+        <v>1.056180112128806</v>
       </c>
       <c r="J3">
-        <v>1.012164886946868</v>
+        <v>1.045455656249156</v>
       </c>
       <c r="K3">
-        <v>1.021245136680438</v>
+        <v>1.04923262169767</v>
       </c>
       <c r="L3">
-        <v>1.009827230736802</v>
+        <v>1.050906924098148</v>
       </c>
       <c r="M3">
-        <v>1.012179090851032</v>
+        <v>1.05359262702641</v>
       </c>
       <c r="N3">
-        <v>1.008816766130322</v>
+        <v>1.04694032319647</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9969062555657997</v>
+        <v>1.032179687013632</v>
       </c>
       <c r="D4">
-        <v>1.014821376035671</v>
+        <v>1.044222450335259</v>
       </c>
       <c r="E4">
-        <v>1.004314295367313</v>
+        <v>1.047231958494534</v>
       </c>
       <c r="F4">
-        <v>1.007138381151743</v>
+        <v>1.050358247023618</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04338061122214</v>
+        <v>1.058698509455644</v>
       </c>
       <c r="J4">
-        <v>1.016389432091693</v>
+        <v>1.050794576733645</v>
       </c>
       <c r="K4">
-        <v>1.02474415156308</v>
+        <v>1.053814911450351</v>
       </c>
       <c r="L4">
-        <v>1.014360928040666</v>
+        <v>1.056791891769723</v>
       </c>
       <c r="M4">
-        <v>1.01715140894961</v>
+        <v>1.059884632038589</v>
       </c>
       <c r="N4">
-        <v>1.011830972216742</v>
+        <v>1.05228682556043</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.999159247778965</v>
+        <v>1.034863960656736</v>
       </c>
       <c r="D5">
-        <v>1.016500008761507</v>
+        <v>1.046335155002844</v>
       </c>
       <c r="E5">
-        <v>1.006429527522379</v>
+        <v>1.049885659927421</v>
       </c>
       <c r="F5">
-        <v>1.009435559901242</v>
+        <v>1.053180788436582</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044162612358508</v>
+        <v>1.059728036011075</v>
       </c>
       <c r="J5">
-        <v>1.018128554759229</v>
+        <v>1.052983818354827</v>
       </c>
       <c r="K5">
-        <v>1.026183577723181</v>
+        <v>1.055693352002599</v>
       </c>
       <c r="L5">
-        <v>1.016228299049362</v>
+        <v>1.059206641185066</v>
       </c>
       <c r="M5">
-        <v>1.019199646404481</v>
+        <v>1.062467504797429</v>
       </c>
       <c r="N5">
-        <v>1.013070695303662</v>
+        <v>1.054479176155823</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9995349370928232</v>
+        <v>1.035311010515605</v>
       </c>
       <c r="D6">
-        <v>1.016779936823316</v>
+        <v>1.046687030339447</v>
       </c>
       <c r="E6">
-        <v>1.006782326023837</v>
+        <v>1.050327695851505</v>
       </c>
       <c r="F6">
-        <v>1.009818695513608</v>
+        <v>1.053650995263376</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044292768518818</v>
+        <v>1.059899246593689</v>
       </c>
       <c r="J6">
-        <v>1.018418467362808</v>
+        <v>1.053348287177072</v>
       </c>
       <c r="K6">
-        <v>1.026423469794448</v>
+        <v>1.056006044914813</v>
       </c>
       <c r="L6">
-        <v>1.016539648404624</v>
+        <v>1.059608747223332</v>
       </c>
       <c r="M6">
-        <v>1.019541165007896</v>
+        <v>1.062897672192679</v>
       </c>
       <c r="N6">
-        <v>1.013277289862653</v>
+        <v>1.054844162565601</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9969365361433259</v>
+        <v>1.032215802276161</v>
       </c>
       <c r="D7">
-        <v>1.014843936096574</v>
+        <v>1.04425087424932</v>
       </c>
       <c r="E7">
-        <v>1.004342718926108</v>
+        <v>1.047267657145038</v>
       </c>
       <c r="F7">
-        <v>1.007169250316635</v>
+        <v>1.05039621384527</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04339113779955</v>
+        <v>1.058712377990639</v>
       </c>
       <c r="J7">
-        <v>1.016412812082709</v>
+        <v>1.050824040810714</v>
       </c>
       <c r="K7">
-        <v>1.024763506651508</v>
+        <v>1.053840194799039</v>
       </c>
       <c r="L7">
-        <v>1.014386028259465</v>
+        <v>1.056824384504005</v>
       </c>
       <c r="M7">
-        <v>1.01717893941915</v>
+        <v>1.059919382630884</v>
       </c>
       <c r="N7">
-        <v>1.01184764305668</v>
+        <v>1.052316331479867</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9856778558753554</v>
+        <v>1.018712953579292</v>
       </c>
       <c r="D8">
-        <v>1.006458556485814</v>
+        <v>1.033626810792712</v>
       </c>
       <c r="E8">
-        <v>0.993784761979588</v>
+        <v>1.033930381590957</v>
       </c>
       <c r="F8">
-        <v>0.9957013078393908</v>
+        <v>1.036216962316238</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039448708362049</v>
+        <v>1.053497508974421</v>
       </c>
       <c r="J8">
-        <v>1.007709830530009</v>
+        <v>1.039791916160354</v>
       </c>
       <c r="K8">
-        <v>1.017551747498448</v>
+        <v>1.04436976466639</v>
       </c>
       <c r="L8">
-        <v>1.0050495860428</v>
+        <v>1.044669551610323</v>
       </c>
       <c r="M8">
-        <v>1.006939824225724</v>
+        <v>1.046927719996175</v>
       </c>
       <c r="N8">
-        <v>1.005634190204467</v>
+        <v>1.041268539947102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9640957630397278</v>
+        <v>0.9923600975349313</v>
       </c>
       <c r="D9">
-        <v>0.9904092107590935</v>
+        <v>1.012920284276392</v>
       </c>
       <c r="E9">
-        <v>0.9736029058074108</v>
+        <v>1.007954760208577</v>
       </c>
       <c r="F9">
-        <v>0.9737678070138979</v>
+        <v>1.008626403577837</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031757368670849</v>
+        <v>1.04317803718899</v>
       </c>
       <c r="J9">
-        <v>0.990983367162997</v>
+        <v>1.018185555278888</v>
       </c>
       <c r="K9">
-        <v>1.003659832296282</v>
+        <v>1.025807160067676</v>
       </c>
       <c r="L9">
-        <v>0.9871392863482904</v>
+        <v>1.020920082030839</v>
       </c>
       <c r="M9">
-        <v>0.9873013217058927</v>
+        <v>1.021581056824071</v>
       </c>
       <c r="N9">
-        <v>0.9936560918095177</v>
+        <v>1.019631495554899</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9482553652291928</v>
+        <v>0.9725468008956344</v>
       </c>
       <c r="D10">
-        <v>0.9786608810819053</v>
+        <v>0.9973877824403448</v>
       </c>
       <c r="E10">
-        <v>0.9588378684262074</v>
+        <v>0.9884699278836523</v>
       </c>
       <c r="F10">
-        <v>0.9577071817166999</v>
+        <v>0.9879448042800443</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026026846146339</v>
+        <v>1.035327242454439</v>
       </c>
       <c r="J10">
-        <v>0.9786838223112247</v>
+        <v>1.001893628517736</v>
       </c>
       <c r="K10">
-        <v>0.9934264133389891</v>
+        <v>1.011804362001451</v>
       </c>
       <c r="L10">
-        <v>0.9739923343458697</v>
+        <v>1.003050529392504</v>
       </c>
       <c r="M10">
-        <v>0.9728844713666676</v>
+        <v>1.002535184598712</v>
       </c>
       <c r="N10">
-        <v>0.9848260370104986</v>
+        <v>1.003316432389036</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9409733719915087</v>
+        <v>0.9632771677922057</v>
       </c>
       <c r="D11">
-        <v>0.9732713506286678</v>
+        <v>0.9901341409587958</v>
       </c>
       <c r="E11">
-        <v>0.9520639124436423</v>
+        <v>0.9793668320453476</v>
       </c>
       <c r="F11">
-        <v>0.9503338824165128</v>
+        <v>0.9782852939138051</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02337389270664</v>
+        <v>1.031633995892424</v>
       </c>
       <c r="J11">
-        <v>0.973025997683527</v>
+        <v>0.9942616843802539</v>
       </c>
       <c r="K11">
-        <v>0.9887155688054489</v>
+        <v>1.005244542525236</v>
       </c>
       <c r="L11">
-        <v>0.9679502232964894</v>
+        <v>0.9946886395542619</v>
       </c>
       <c r="M11">
-        <v>0.9662574127310659</v>
+        <v>0.993628674684321</v>
       </c>
       <c r="N11">
-        <v>0.9807596627057084</v>
+        <v>0.995673650015483</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9381967482338147</v>
+        <v>0.9597125605328511</v>
       </c>
       <c r="D12">
-        <v>0.971218410743515</v>
+        <v>0.9873472720022991</v>
       </c>
       <c r="E12">
-        <v>0.9494832983421977</v>
+        <v>0.9758684328815012</v>
       </c>
       <c r="F12">
-        <v>0.9475240332296082</v>
+        <v>0.9745733769212458</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02235970667829</v>
+        <v>1.030210911822025</v>
       </c>
       <c r="J12">
-        <v>0.9708683201602741</v>
+        <v>0.9913255424918551</v>
       </c>
       <c r="K12">
-        <v>0.9869186044865808</v>
+        <v>1.002720960357795</v>
       </c>
       <c r="L12">
-        <v>0.9656468266714077</v>
+        <v>0.9914730336441877</v>
       </c>
       <c r="M12">
-        <v>0.9637307175798357</v>
+        <v>0.9902044799469043</v>
       </c>
       <c r="N12">
-        <v>0.9792082987282149</v>
+        <v>0.9927333384688225</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9387957400182572</v>
+        <v>0.960483012328195</v>
       </c>
       <c r="D13">
-        <v>0.9716611835865769</v>
+        <v>0.9879495023361888</v>
       </c>
       <c r="E13">
-        <v>0.9500398979052813</v>
+        <v>0.9766244726850968</v>
       </c>
       <c r="F13">
-        <v>0.9481301192612337</v>
+        <v>0.9753755475019129</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022578608423947</v>
+        <v>1.030518621480107</v>
       </c>
       <c r="J13">
-        <v>0.9713338010713045</v>
+        <v>0.9919602137168174</v>
       </c>
       <c r="K13">
-        <v>0.98730628564603</v>
+        <v>1.003266446834027</v>
       </c>
       <c r="L13">
-        <v>0.9661437062997217</v>
+        <v>0.992168052306688</v>
       </c>
       <c r="M13">
-        <v>0.9642757817729368</v>
+        <v>0.9909445452333927</v>
       </c>
       <c r="N13">
-        <v>0.979543004098851</v>
+        <v>0.9933689109997222</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9407453724931611</v>
+        <v>0.9629851129058877</v>
       </c>
       <c r="D14">
-        <v>0.9731027309712299</v>
+        <v>0.9899057539981206</v>
       </c>
       <c r="E14">
-        <v>0.951851960135518</v>
+        <v>0.9790801564976108</v>
       </c>
       <c r="F14">
-        <v>0.9501031218876258</v>
+        <v>0.9779811158868157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023290665694051</v>
+        <v>1.031517456405923</v>
       </c>
       <c r="J14">
-        <v>0.9728488281485157</v>
+        <v>0.9940211459944323</v>
       </c>
       <c r="K14">
-        <v>0.9885680259895051</v>
+        <v>1.005037799660182</v>
       </c>
       <c r="L14">
-        <v>0.967761071717542</v>
+        <v>0.9944251792107136</v>
       </c>
       <c r="M14">
-        <v>0.9660499309789451</v>
+        <v>0.9933481073830883</v>
       </c>
       <c r="N14">
-        <v>0.9806322900729294</v>
+        <v>0.9954327700375636</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9419368235038527</v>
+        <v>0.9645100376186844</v>
       </c>
       <c r="D15">
-        <v>0.9739839693632265</v>
+        <v>0.9910983493406523</v>
       </c>
       <c r="E15">
-        <v>0.9529596482674335</v>
+        <v>0.9805770827053195</v>
       </c>
       <c r="F15">
-        <v>0.9513090661564512</v>
+        <v>0.9795694465546422</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023725478078396</v>
+        <v>1.032125837249096</v>
       </c>
       <c r="J15">
-        <v>0.973774645417706</v>
+        <v>0.9952770328436993</v>
       </c>
       <c r="K15">
-        <v>0.9893390090402964</v>
+        <v>1.006117239683865</v>
       </c>
       <c r="L15">
-        <v>0.9687495361348841</v>
+        <v>0.995800799818312</v>
       </c>
       <c r="M15">
-        <v>0.967134171918127</v>
+        <v>0.9948130835554683</v>
       </c>
       <c r="N15">
-        <v>0.9812978645885123</v>
+        <v>0.9966904403902085</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9487290677251461</v>
+        <v>0.9731460367159623</v>
       </c>
       <c r="D16">
-        <v>0.9790117400382673</v>
+        <v>0.9978570038993717</v>
       </c>
       <c r="E16">
-        <v>0.9592788228501523</v>
+        <v>0.9890586785772258</v>
       </c>
       <c r="F16">
-        <v>0.9581870357646345</v>
+        <v>0.988569589836088</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026199056257504</v>
+        <v>1.035565593820369</v>
       </c>
       <c r="J16">
-        <v>0.9790518119838475</v>
+        <v>1.002386809308377</v>
       </c>
       <c r="K16">
-        <v>0.9937327469716075</v>
+        <v>1.01222826702977</v>
       </c>
       <c r="L16">
-        <v>0.9743854320878332</v>
+        <v>1.003591064540168</v>
       </c>
       <c r="M16">
-        <v>0.9733155901147679</v>
+        <v>1.003111042167552</v>
       </c>
       <c r="N16">
-        <v>0.9850904304393568</v>
+        <v>1.003810313552969</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9528710711455389</v>
+        <v>0.9783671492297666</v>
       </c>
       <c r="D17">
-        <v>0.9820809166837432</v>
+        <v>1.001946821165955</v>
       </c>
       <c r="E17">
-        <v>0.9631360356565657</v>
+        <v>0.9941898819888511</v>
       </c>
       <c r="F17">
-        <v>0.9623839490303867</v>
+        <v>0.9940151431816588</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027702783383174</v>
+        <v>1.037640111506606</v>
       </c>
       <c r="J17">
-        <v>0.9822690909366145</v>
+        <v>1.006682801587204</v>
       </c>
       <c r="K17">
-        <v>0.9964106004998665</v>
+        <v>1.015920801444452</v>
       </c>
       <c r="L17">
-        <v>0.9778228450818643</v>
+        <v>1.008300556356202</v>
       </c>
       <c r="M17">
-        <v>0.9770853161937907</v>
+        <v>1.008128928719322</v>
       </c>
       <c r="N17">
-        <v>0.9874014845962008</v>
+        <v>1.008112406633589</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9552468463216435</v>
+        <v>0.9813473276283418</v>
       </c>
       <c r="D18">
-        <v>0.9838423620268488</v>
+        <v>1.004282443814322</v>
       </c>
       <c r="E18">
-        <v>0.9653497163747149</v>
+        <v>0.9971199079449528</v>
       </c>
       <c r="F18">
-        <v>0.9647921369876313</v>
+        <v>0.9971249249939341</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028563552340017</v>
+        <v>1.038822355453351</v>
       </c>
       <c r="J18">
-        <v>0.9841141131478117</v>
+        <v>1.00913401480695</v>
       </c>
       <c r="K18">
-        <v>0.9979459503211093</v>
+        <v>1.018027663876975</v>
       </c>
       <c r="L18">
-        <v>0.9797946216860907</v>
+        <v>1.01098854140993</v>
       </c>
       <c r="M18">
-        <v>0.9792475991448967</v>
+        <v>1.010993471209868</v>
       </c>
       <c r="N18">
-        <v>0.9887263852721268</v>
+        <v>1.010567100857265</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9560503337448581</v>
+        <v>0.9823529002667212</v>
       </c>
       <c r="D19">
-        <v>0.9844382461515844</v>
+        <v>1.005070717456141</v>
       </c>
       <c r="E19">
-        <v>0.9660985901074707</v>
+        <v>0.9981087501157465</v>
       </c>
       <c r="F19">
-        <v>0.9656067394491759</v>
+        <v>0.9981744777720436</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02885436450373</v>
+        <v>1.039220945224178</v>
       </c>
       <c r="J19">
-        <v>0.984738035643711</v>
+        <v>1.009960944881003</v>
       </c>
       <c r="K19">
-        <v>0.998465094572009</v>
+        <v>1.018738417132641</v>
       </c>
       <c r="L19">
-        <v>0.9804614951463665</v>
+        <v>1.01189548985127</v>
       </c>
       <c r="M19">
-        <v>0.979978886764904</v>
+        <v>1.011960083613464</v>
       </c>
       <c r="N19">
-        <v>0.9891743463950115</v>
+        <v>1.011395205266874</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9524308845264111</v>
+        <v>0.9778138322370883</v>
       </c>
       <c r="D20">
-        <v>0.9817546344004604</v>
+        <v>1.001513268946209</v>
       </c>
       <c r="E20">
-        <v>0.9627259825136144</v>
+        <v>0.9936459700865353</v>
       </c>
       <c r="F20">
-        <v>0.9619378307802843</v>
+        <v>0.9934378838395361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027543156575489</v>
+        <v>1.037420455354441</v>
       </c>
       <c r="J20">
-        <v>0.9819272133669951</v>
+        <v>1.006227620025311</v>
       </c>
       <c r="K20">
-        <v>0.9961260772843687</v>
+        <v>1.015529561432845</v>
       </c>
       <c r="L20">
-        <v>0.9774575219396027</v>
+        <v>1.007801475247394</v>
       </c>
       <c r="M20">
-        <v>0.9766846880421481</v>
+        <v>1.007597109978777</v>
       </c>
       <c r="N20">
-        <v>0.9871559490317774</v>
+        <v>1.007656578661668</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9401733092207941</v>
+        <v>0.9622518248935819</v>
       </c>
       <c r="D21">
-        <v>0.9726796899255311</v>
+        <v>0.9893323645438381</v>
       </c>
       <c r="E21">
-        <v>0.9513201978599201</v>
+        <v>0.9783604104417376</v>
       </c>
       <c r="F21">
-        <v>0.9495241569030363</v>
+        <v>0.97721743171842</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023081803222734</v>
+        <v>1.031224805358012</v>
       </c>
       <c r="J21">
-        <v>0.9724042951499392</v>
+        <v>0.9934171847960529</v>
       </c>
       <c r="K21">
-        <v>0.9881978223200788</v>
+        <v>1.004518696694775</v>
       </c>
       <c r="L21">
-        <v>0.9672864881618</v>
+        <v>0.9937636856255639</v>
       </c>
       <c r="M21">
-        <v>0.9655293515621284</v>
+        <v>0.9926436752805456</v>
       </c>
       <c r="N21">
-        <v>0.9803126921884814</v>
+        <v>0.994827951145007</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9320459730298303</v>
+        <v>0.9517521713408246</v>
       </c>
       <c r="D22">
-        <v>0.9666750964226143</v>
+        <v>0.9811290190831989</v>
       </c>
       <c r="E22">
-        <v>0.9437712752901777</v>
+        <v>0.9680602355266541</v>
       </c>
       <c r="F22">
-        <v>0.94130272125942</v>
+        <v>0.9662890897942618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020108461563657</v>
+        <v>1.027027851313435</v>
       </c>
       <c r="J22">
-        <v>0.9660882303034573</v>
+        <v>0.9847664315533077</v>
       </c>
       <c r="K22">
-        <v>0.9829369506501831</v>
+        <v>0.997083817938079</v>
       </c>
       <c r="L22">
-        <v>0.9605454593827525</v>
+        <v>0.9842921371024825</v>
       </c>
       <c r="M22">
-        <v>0.9581341159839397</v>
+        <v>0.9825593114529548</v>
       </c>
       <c r="N22">
-        <v>0.9757704028743305</v>
+        <v>0.9861649128404018</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9363974599593636</v>
+        <v>0.9573932522096883</v>
       </c>
       <c r="D23">
-        <v>0.9698887222993773</v>
+        <v>0.98553477615135</v>
       </c>
       <c r="E23">
-        <v>0.9478117076596503</v>
+        <v>0.9735928481139962</v>
       </c>
       <c r="F23">
-        <v>0.9457036762061735</v>
+        <v>0.9721589826080195</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02170178784891</v>
+        <v>1.029284204133032</v>
       </c>
       <c r="J23">
-        <v>0.9694700454321823</v>
+        <v>0.9894148017962274</v>
       </c>
       <c r="K23">
-        <v>0.9857539799233166</v>
+        <v>1.001078744392216</v>
       </c>
       <c r="L23">
-        <v>0.9641543546615496</v>
+        <v>0.9893808095407731</v>
       </c>
       <c r="M23">
-        <v>0.9620934607413533</v>
+        <v>0.9879767730158491</v>
       </c>
       <c r="N23">
-        <v>0.9782027831316679</v>
+        <v>0.9908198843022419</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9526299094956575</v>
+        <v>0.9780640525884678</v>
       </c>
       <c r="D24">
-        <v>0.9819021557670083</v>
+        <v>1.001709325769355</v>
       </c>
       <c r="E24">
-        <v>0.9629113791098457</v>
+        <v>0.9938919336562656</v>
       </c>
       <c r="F24">
-        <v>0.9621395348150295</v>
+        <v>0.9936989267242287</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027615335303923</v>
+        <v>1.037519793866523</v>
       </c>
       <c r="J24">
-        <v>0.9820817902057193</v>
+        <v>1.006433464545674</v>
       </c>
       <c r="K24">
-        <v>0.9962547228952753</v>
+        <v>1.015706490079558</v>
       </c>
       <c r="L24">
-        <v>0.9776226978831446</v>
+        <v>1.008027169634111</v>
       </c>
       <c r="M24">
-        <v>0.9768658270238558</v>
+        <v>1.007837607291843</v>
       </c>
       <c r="N24">
-        <v>0.9872669670394537</v>
+        <v>1.00786271550486</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9699080636058754</v>
+        <v>0.9995239060375701</v>
       </c>
       <c r="D25">
-        <v>0.9947273227139135</v>
+        <v>1.01854454707601</v>
       </c>
       <c r="E25">
-        <v>0.9790307601166871</v>
+        <v>1.015009162988403</v>
       </c>
       <c r="F25">
-        <v>0.9796686844804393</v>
+        <v>1.016116751007413</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033843585745263</v>
+        <v>1.045999052652036</v>
       </c>
       <c r="J25">
-        <v>0.9954923848711519</v>
+        <v>1.024067303273365</v>
       </c>
       <c r="K25">
-        <v>1.007408045390684</v>
+        <v>1.030861645458075</v>
       </c>
       <c r="L25">
-        <v>0.9919635591044531</v>
+        <v>1.027378864876549</v>
       </c>
       <c r="M25">
-        <v>0.9925910364155484</v>
+        <v>1.028469922853667</v>
       </c>
       <c r="N25">
-        <v>0.9968890064155164</v>
+        <v>1.025521596306175</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015079042810023</v>
+        <v>0.9949433485233373</v>
       </c>
       <c r="D2">
-        <v>1.03076898101899</v>
+        <v>1.015695621054622</v>
       </c>
       <c r="E2">
-        <v>1.030344314849169</v>
+        <v>1.003153450821922</v>
       </c>
       <c r="F2">
-        <v>1.032406191952278</v>
+        <v>1.01554911172793</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052084726935055</v>
+        <v>1.041120042613514</v>
       </c>
       <c r="J2">
-        <v>1.036817909857815</v>
+        <v>1.017276362293171</v>
       </c>
       <c r="K2">
-        <v>1.041815672887358</v>
+        <v>1.026940537335307</v>
       </c>
       <c r="L2">
-        <v>1.041396491995688</v>
+        <v>1.014569027197511</v>
       </c>
       <c r="M2">
-        <v>1.043431789301313</v>
+        <v>1.026795990972396</v>
       </c>
       <c r="N2">
-        <v>1.038290310214489</v>
+        <v>1.018721011410853</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02564038016514</v>
+        <v>1.000025753354241</v>
       </c>
       <c r="D3">
-        <v>1.039076461205642</v>
+        <v>1.01942837799564</v>
       </c>
       <c r="E3">
-        <v>1.040770428471557</v>
+        <v>1.007721341337689</v>
       </c>
       <c r="F3">
-        <v>1.04348750867147</v>
+        <v>1.020084337306176</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056180112128806</v>
+        <v>1.042231628277917</v>
       </c>
       <c r="J3">
-        <v>1.045455656249156</v>
+        <v>1.020515716331895</v>
       </c>
       <c r="K3">
-        <v>1.04923262169767</v>
+        <v>1.029818560639145</v>
       </c>
       <c r="L3">
-        <v>1.050906924098148</v>
+        <v>1.018256370324373</v>
       </c>
       <c r="M3">
-        <v>1.05359262702641</v>
+        <v>1.030466526293472</v>
       </c>
       <c r="N3">
-        <v>1.04694032319647</v>
+        <v>1.021964965703874</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032179687013632</v>
+        <v>1.003242718273081</v>
       </c>
       <c r="D4">
-        <v>1.044222450335259</v>
+        <v>1.021793530365131</v>
       </c>
       <c r="E4">
-        <v>1.047231958494534</v>
+        <v>1.010618534742974</v>
       </c>
       <c r="F4">
-        <v>1.050358247023618</v>
+        <v>1.022960544338632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058698509455644</v>
+        <v>1.042924116296674</v>
       </c>
       <c r="J4">
-        <v>1.050794576733645</v>
+        <v>1.022563837149796</v>
       </c>
       <c r="K4">
-        <v>1.053814911450351</v>
+        <v>1.031635853942609</v>
       </c>
       <c r="L4">
-        <v>1.056791891769723</v>
+        <v>1.020590470671747</v>
       </c>
       <c r="M4">
-        <v>1.059884632038589</v>
+        <v>1.032789533895111</v>
       </c>
       <c r="N4">
-        <v>1.05228682556043</v>
+        <v>1.02401599508826</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034863960656736</v>
+        <v>1.004578647756684</v>
       </c>
       <c r="D5">
-        <v>1.046335155002844</v>
+        <v>1.022776240443732</v>
       </c>
       <c r="E5">
-        <v>1.049885659927421</v>
+        <v>1.011823040314457</v>
       </c>
       <c r="F5">
-        <v>1.053180788436582</v>
+        <v>1.024156244059747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059728036011075</v>
+        <v>1.043208978102804</v>
       </c>
       <c r="J5">
-        <v>1.052983818354827</v>
+        <v>1.023413787244243</v>
       </c>
       <c r="K5">
-        <v>1.055693352002599</v>
+        <v>1.032389423834685</v>
       </c>
       <c r="L5">
-        <v>1.059206641185066</v>
+        <v>1.021559760150102</v>
       </c>
       <c r="M5">
-        <v>1.062467504797429</v>
+        <v>1.033754093529099</v>
       </c>
       <c r="N5">
-        <v>1.054479176155823</v>
+        <v>1.024867152209332</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035311010515605</v>
+        <v>1.004802008727706</v>
       </c>
       <c r="D6">
-        <v>1.046687030339447</v>
+        <v>1.022940573241495</v>
       </c>
       <c r="E6">
-        <v>1.050327695851505</v>
+        <v>1.012024507090897</v>
       </c>
       <c r="F6">
-        <v>1.053650995263376</v>
+        <v>1.024356232750816</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059899246593689</v>
+        <v>1.04325644480338</v>
       </c>
       <c r="J6">
-        <v>1.053348287177072</v>
+        <v>1.023555859135293</v>
       </c>
       <c r="K6">
-        <v>1.056006044914813</v>
+        <v>1.032515350259503</v>
       </c>
       <c r="L6">
-        <v>1.059608747223332</v>
+        <v>1.021721818994084</v>
       </c>
       <c r="M6">
-        <v>1.062897672192679</v>
+        <v>1.033915353911102</v>
       </c>
       <c r="N6">
-        <v>1.054844162565601</v>
+        <v>1.025009425858763</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032215802276161</v>
+        <v>1.003260632920473</v>
       </c>
       <c r="D7">
-        <v>1.04425087424932</v>
+        <v>1.021806706430416</v>
       </c>
       <c r="E7">
-        <v>1.047267657145038</v>
+        <v>1.010634681657957</v>
       </c>
       <c r="F7">
-        <v>1.05039621384527</v>
+        <v>1.022976573547502</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058712377990639</v>
+        <v>1.042927947037284</v>
       </c>
       <c r="J7">
-        <v>1.050824040810714</v>
+        <v>1.022575237245393</v>
       </c>
       <c r="K7">
-        <v>1.053840194799039</v>
+        <v>1.031645963677176</v>
       </c>
       <c r="L7">
-        <v>1.056824384504005</v>
+        <v>1.020603468808441</v>
       </c>
       <c r="M7">
-        <v>1.059919382630884</v>
+        <v>1.032802469110874</v>
       </c>
       <c r="N7">
-        <v>1.052316331479867</v>
+        <v>1.024027411373301</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.018712953579292</v>
+        <v>0.9966762370385355</v>
       </c>
       <c r="D8">
-        <v>1.033626810792712</v>
+        <v>1.016967773669083</v>
       </c>
       <c r="E8">
-        <v>1.033930381590957</v>
+        <v>1.004709645498322</v>
       </c>
       <c r="F8">
-        <v>1.036216962316238</v>
+        <v>1.017094224145795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053497508974421</v>
+        <v>1.041501347649681</v>
       </c>
       <c r="J8">
-        <v>1.039791916160354</v>
+        <v>1.018381295890041</v>
       </c>
       <c r="K8">
-        <v>1.04436976466639</v>
+        <v>1.027922707999543</v>
       </c>
       <c r="L8">
-        <v>1.044669551610323</v>
+        <v>1.015826197340284</v>
       </c>
       <c r="M8">
-        <v>1.046927719996175</v>
+        <v>1.028047516703372</v>
       </c>
       <c r="N8">
-        <v>1.041268539947102</v>
+        <v>1.019827514140172</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9923600975349313</v>
+        <v>0.9844919822170627</v>
       </c>
       <c r="D9">
-        <v>1.012920284276392</v>
+        <v>1.008036668630985</v>
       </c>
       <c r="E9">
-        <v>1.007954760208577</v>
+        <v>0.9937948371629884</v>
       </c>
       <c r="F9">
-        <v>1.008626403577837</v>
+        <v>1.006256717197261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04317803718899</v>
+        <v>1.038775103706087</v>
       </c>
       <c r="J9">
-        <v>1.018185555278888</v>
+        <v>1.010604510015276</v>
       </c>
       <c r="K9">
-        <v>1.025807160067676</v>
+        <v>1.021000688421158</v>
       </c>
       <c r="L9">
-        <v>1.020920082030839</v>
+        <v>1.006989397513112</v>
       </c>
       <c r="M9">
-        <v>1.021581056824071</v>
+        <v>1.019249092641239</v>
       </c>
       <c r="N9">
-        <v>1.019631495554899</v>
+        <v>1.012039684337455</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9725468008956344</v>
+        <v>0.9759289322146888</v>
       </c>
       <c r="D10">
-        <v>0.9973877824403448</v>
+        <v>1.001780984939653</v>
       </c>
       <c r="E10">
-        <v>0.9884699278836523</v>
+        <v>0.9861607975401722</v>
       </c>
       <c r="F10">
-        <v>0.9879448042800443</v>
+        <v>0.9986770456746312</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035327242454439</v>
+        <v>1.03680386860978</v>
       </c>
       <c r="J10">
-        <v>1.001893628517736</v>
+        <v>1.005131239463941</v>
       </c>
       <c r="K10">
-        <v>1.011804362001451</v>
+        <v>1.016118157436523</v>
       </c>
       <c r="L10">
-        <v>1.003050529392504</v>
+        <v>1.000784501044797</v>
       </c>
       <c r="M10">
-        <v>1.002535184598712</v>
+        <v>1.013070227624188</v>
       </c>
       <c r="N10">
-        <v>1.003316432389036</v>
+        <v>1.006558641114144</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9632771677922057</v>
+        <v>0.9721045470486306</v>
       </c>
       <c r="D11">
-        <v>0.9901341409587958</v>
+        <v>0.9989933801408669</v>
       </c>
       <c r="E11">
-        <v>0.9793668320453476</v>
+        <v>0.9827608959526077</v>
       </c>
       <c r="F11">
-        <v>0.9782852939138051</v>
+        <v>0.9953017217135712</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031633995892424</v>
+        <v>1.035911151562096</v>
       </c>
       <c r="J11">
-        <v>0.9942616843802539</v>
+        <v>1.00268568559213</v>
       </c>
       <c r="K11">
-        <v>1.005244542525236</v>
+        <v>1.01393430483797</v>
       </c>
       <c r="L11">
-        <v>0.9946886395542619</v>
+        <v>0.998015407558196</v>
       </c>
       <c r="M11">
-        <v>0.993628674684321</v>
+        <v>1.010312787933453</v>
       </c>
       <c r="N11">
-        <v>0.995673650015483</v>
+        <v>1.004109614275326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9597125605328511</v>
+        <v>0.9706653663164948</v>
       </c>
       <c r="D12">
-        <v>0.9873472720022991</v>
+        <v>0.997945416359169</v>
       </c>
       <c r="E12">
-        <v>0.9758684328815012</v>
+        <v>0.9814829699450003</v>
       </c>
       <c r="F12">
-        <v>0.9745733769212458</v>
+        <v>0.9940331153175087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030210911822025</v>
+        <v>1.035573423305104</v>
       </c>
       <c r="J12">
-        <v>0.9913255424918551</v>
+        <v>1.001765282171892</v>
       </c>
       <c r="K12">
-        <v>1.002720960357795</v>
+        <v>1.013112085091423</v>
       </c>
       <c r="L12">
-        <v>0.9914730336441877</v>
+        <v>0.9969737384122591</v>
       </c>
       <c r="M12">
-        <v>0.9902044799469043</v>
+        <v>1.009275531266773</v>
       </c>
       <c r="N12">
-        <v>0.9927333384688225</v>
+        <v>1.00318790377666</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.960483012328195</v>
+        <v>0.9709749377998618</v>
       </c>
       <c r="D13">
-        <v>0.9879495023361888</v>
+        <v>0.9981707862943507</v>
       </c>
       <c r="E13">
-        <v>0.9766244726850968</v>
+        <v>0.9817577854392127</v>
       </c>
       <c r="F13">
-        <v>0.9753755475019129</v>
+        <v>0.9943059225100537</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030518621480107</v>
+        <v>1.03564614894745</v>
       </c>
       <c r="J13">
-        <v>0.9919602137168174</v>
+        <v>1.001963266733316</v>
       </c>
       <c r="K13">
-        <v>1.003266446834027</v>
+        <v>1.013288963240793</v>
       </c>
       <c r="L13">
-        <v>0.992168052306688</v>
+        <v>0.9971977854344761</v>
       </c>
       <c r="M13">
-        <v>0.9909445452333927</v>
+        <v>1.009498627554525</v>
       </c>
       <c r="N13">
-        <v>0.9933689109997222</v>
+        <v>1.00338616949887</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9629851129058877</v>
+        <v>0.9719859708884623</v>
       </c>
       <c r="D14">
-        <v>0.9899057539981206</v>
+        <v>0.9989070146968932</v>
       </c>
       <c r="E14">
-        <v>0.9790801564976108</v>
+        <v>0.9826555745769027</v>
       </c>
       <c r="F14">
-        <v>0.9779811158868157</v>
+        <v>0.9951971666021096</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031517456405923</v>
+        <v>1.035883361475419</v>
       </c>
       <c r="J14">
-        <v>0.9940211459944323</v>
+        <v>1.00260985387507</v>
       </c>
       <c r="K14">
-        <v>1.005037799660182</v>
+        <v>1.013866568560828</v>
       </c>
       <c r="L14">
-        <v>0.9944251792107136</v>
+        <v>0.9979295746478861</v>
       </c>
       <c r="M14">
-        <v>0.9933481073830883</v>
+        <v>1.010227317889616</v>
       </c>
       <c r="N14">
-        <v>0.9954327700375636</v>
+        <v>1.00403367486853</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9645100376186844</v>
+        <v>0.9726063973125825</v>
       </c>
       <c r="D15">
-        <v>0.9910983493406523</v>
+        <v>0.9993589487361899</v>
       </c>
       <c r="E15">
-        <v>0.9805770827053195</v>
+        <v>0.9832067101080799</v>
       </c>
       <c r="F15">
-        <v>0.9795694465546422</v>
+        <v>0.9957442958439743</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032125837249096</v>
+        <v>1.036028695389658</v>
       </c>
       <c r="J15">
-        <v>0.9952770328436993</v>
+        <v>1.00300662473646</v>
       </c>
       <c r="K15">
-        <v>1.006117239683865</v>
+        <v>1.014220969577485</v>
       </c>
       <c r="L15">
-        <v>0.995800799818312</v>
+        <v>0.9983786946814133</v>
       </c>
       <c r="M15">
-        <v>0.9948130835554683</v>
+        <v>1.010674540533123</v>
       </c>
       <c r="N15">
-        <v>0.9966904403902085</v>
+        <v>1.004431009190054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9731460367159623</v>
+        <v>0.976180194852703</v>
       </c>
       <c r="D16">
-        <v>0.9978570038993717</v>
+        <v>1.001964271194011</v>
       </c>
       <c r="E16">
-        <v>0.9890586785772258</v>
+        <v>0.986384377063124</v>
       </c>
       <c r="F16">
-        <v>0.988569589836088</v>
+        <v>0.9988990187717361</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035565593820369</v>
+        <v>1.03686226935321</v>
       </c>
       <c r="J16">
-        <v>1.002386809308377</v>
+        <v>1.005291895121471</v>
       </c>
       <c r="K16">
-        <v>1.01222826702977</v>
+        <v>1.016261576699834</v>
       </c>
       <c r="L16">
-        <v>1.003591064540168</v>
+        <v>1.000966480586927</v>
       </c>
       <c r="M16">
-        <v>1.003111042167552</v>
+        <v>1.013251443978156</v>
       </c>
       <c r="N16">
-        <v>1.003810313552969</v>
+        <v>1.006719524921135</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9783671492297666</v>
+        <v>0.9783899786907574</v>
       </c>
       <c r="D17">
-        <v>1.001946821165955</v>
+        <v>1.003576948637707</v>
       </c>
       <c r="E17">
-        <v>0.9941898819888511</v>
+        <v>0.9883517924648642</v>
       </c>
       <c r="F17">
-        <v>0.9940151431816588</v>
+        <v>1.000852342756122</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037640111506606</v>
+        <v>1.037374493728009</v>
       </c>
       <c r="J17">
-        <v>1.006682801587204</v>
+        <v>1.006704697732582</v>
       </c>
       <c r="K17">
-        <v>1.015920801444452</v>
+        <v>1.017522550319579</v>
       </c>
       <c r="L17">
-        <v>1.008300556356202</v>
+        <v>1.002567186655301</v>
       </c>
       <c r="M17">
-        <v>1.008128928719322</v>
+        <v>1.014845443803122</v>
       </c>
       <c r="N17">
-        <v>1.008112406633589</v>
+        <v>1.008134333874004</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9813473276283418</v>
+        <v>0.9796677457755004</v>
       </c>
       <c r="D18">
-        <v>1.004282443814322</v>
+        <v>1.004510036366995</v>
       </c>
       <c r="E18">
-        <v>0.9971199079449528</v>
+        <v>0.9894903159620795</v>
       </c>
       <c r="F18">
-        <v>0.9971249249939341</v>
+        <v>1.001982744384148</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038822355453351</v>
+        <v>1.037669505154073</v>
       </c>
       <c r="J18">
-        <v>1.00913401480695</v>
+        <v>1.00752151529716</v>
       </c>
       <c r="K18">
-        <v>1.018027663876975</v>
+        <v>1.018251372182675</v>
       </c>
       <c r="L18">
-        <v>1.01098854140993</v>
+        <v>1.00349296017168</v>
       </c>
       <c r="M18">
-        <v>1.010993471209868</v>
+        <v>1.015767340620551</v>
       </c>
       <c r="N18">
-        <v>1.010567100857265</v>
+        <v>1.008952311413216</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9823529002667212</v>
+        <v>0.9801015707191765</v>
       </c>
       <c r="D19">
-        <v>1.005070717456141</v>
+        <v>1.004826932604925</v>
       </c>
       <c r="E19">
-        <v>0.9981087501157465</v>
+        <v>0.9898770159416536</v>
       </c>
       <c r="F19">
-        <v>0.9981744777720436</v>
+        <v>1.002366690541967</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039220945224178</v>
+        <v>1.037769465877163</v>
       </c>
       <c r="J19">
-        <v>1.009960944881003</v>
+        <v>1.007798819048321</v>
       </c>
       <c r="K19">
-        <v>1.018738417132641</v>
+        <v>1.018498764694238</v>
       </c>
       <c r="L19">
-        <v>1.01189548985127</v>
+        <v>1.003807307904268</v>
       </c>
       <c r="M19">
-        <v>1.011960083613464</v>
+        <v>1.01608037166889</v>
       </c>
       <c r="N19">
-        <v>1.011395205266874</v>
+        <v>1.00923000896751</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9778138322370883</v>
+        <v>0.9781540522322465</v>
       </c>
       <c r="D20">
-        <v>1.001513268946209</v>
+        <v>1.003404710272587</v>
       </c>
       <c r="E20">
-        <v>0.9936459700865353</v>
+        <v>0.988141648263919</v>
       </c>
       <c r="F20">
-        <v>0.9934378838395361</v>
+        <v>1.00064370011502</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037420455354441</v>
+        <v>1.037319927599886</v>
       </c>
       <c r="J20">
-        <v>1.006227620025311</v>
+        <v>1.006553871497911</v>
       </c>
       <c r="K20">
-        <v>1.015529561432845</v>
+        <v>1.017387954987994</v>
       </c>
       <c r="L20">
-        <v>1.007801475247394</v>
+        <v>1.00239626739934</v>
       </c>
       <c r="M20">
-        <v>1.007597109978777</v>
+        <v>1.014675240267981</v>
       </c>
       <c r="N20">
-        <v>1.007656578661668</v>
+        <v>1.007983293448781</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9622518248935819</v>
+        <v>0.9716887707429109</v>
       </c>
       <c r="D21">
-        <v>0.9893323645438381</v>
+        <v>0.998690565183794</v>
       </c>
       <c r="E21">
-        <v>0.9783604104417376</v>
+        <v>0.9823916209732367</v>
       </c>
       <c r="F21">
-        <v>0.97721743171842</v>
+        <v>0.99493513479824</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031224805358012</v>
+        <v>1.03581367971919</v>
       </c>
       <c r="J21">
-        <v>0.9934171847960529</v>
+        <v>1.002419787331108</v>
       </c>
       <c r="K21">
-        <v>1.004518696694775</v>
+        <v>1.01369678774676</v>
       </c>
       <c r="L21">
-        <v>0.9937636856255639</v>
+        <v>0.9977144489108484</v>
       </c>
       <c r="M21">
-        <v>0.9926436752805456</v>
+        <v>1.01001310215792</v>
       </c>
       <c r="N21">
-        <v>0.994827951145007</v>
+        <v>1.003843338408275</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9517521713408246</v>
+        <v>0.9675153546352241</v>
       </c>
       <c r="D22">
-        <v>0.9811290190831989</v>
+        <v>0.9956537649063999</v>
       </c>
       <c r="E22">
-        <v>0.9680602355266541</v>
+        <v>0.9786887799242189</v>
       </c>
       <c r="F22">
-        <v>0.9662890897942618</v>
+        <v>0.9912594840206167</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027027851313435</v>
+        <v>1.034831017175595</v>
       </c>
       <c r="J22">
-        <v>0.9847664315533077</v>
+        <v>0.9997506387878096</v>
       </c>
       <c r="K22">
-        <v>0.997083817938079</v>
+        <v>1.011311816066169</v>
       </c>
       <c r="L22">
-        <v>0.9842921371024825</v>
+        <v>0.9946945771049176</v>
       </c>
       <c r="M22">
-        <v>0.9825593114529548</v>
+        <v>1.00700610381557</v>
       </c>
       <c r="N22">
-        <v>0.9861649128404018</v>
+        <v>1.00117039936789</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9573932522096883</v>
+        <v>0.9697384411171591</v>
       </c>
       <c r="D23">
-        <v>0.98553477615135</v>
+        <v>0.9972707736485122</v>
       </c>
       <c r="E23">
-        <v>0.9735928481139962</v>
+        <v>0.980660339895808</v>
       </c>
       <c r="F23">
-        <v>0.9721589826080195</v>
+        <v>0.9932165110264632</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029284204133032</v>
+        <v>1.03535541083835</v>
       </c>
       <c r="J23">
-        <v>0.9894148017962274</v>
+        <v>1.001172463452048</v>
       </c>
       <c r="K23">
-        <v>1.001078744392216</v>
+        <v>1.012582421511008</v>
       </c>
       <c r="L23">
-        <v>0.9893808095407731</v>
+        <v>0.9963029547979299</v>
       </c>
       <c r="M23">
-        <v>0.9879767730158491</v>
+        <v>1.008607600143697</v>
       </c>
       <c r="N23">
-        <v>0.9908198843022419</v>
+        <v>1.002594243186237</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9780640525884678</v>
+        <v>0.9782606916559575</v>
       </c>
       <c r="D24">
-        <v>1.001709325769355</v>
+        <v>1.003482560688342</v>
       </c>
       <c r="E24">
-        <v>0.9938919336562656</v>
+        <v>0.9882366312441051</v>
       </c>
       <c r="F24">
-        <v>0.9936989267242287</v>
+        <v>1.000738004306518</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037519793866523</v>
+        <v>1.03734459528673</v>
       </c>
       <c r="J24">
-        <v>1.006433464545674</v>
+        <v>1.006622045726026</v>
       </c>
       <c r="K24">
-        <v>1.015706490079558</v>
+        <v>1.017448793434565</v>
       </c>
       <c r="L24">
-        <v>1.008027169634111</v>
+        <v>1.002473522786456</v>
       </c>
       <c r="M24">
-        <v>1.007837607291843</v>
+        <v>1.014752172145682</v>
       </c>
       <c r="N24">
-        <v>1.00786271550486</v>
+        <v>1.00805156449212</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9995239060375701</v>
+        <v>0.9877156715603146</v>
       </c>
       <c r="D25">
-        <v>1.01854454707601</v>
+        <v>1.010396421765024</v>
       </c>
       <c r="E25">
-        <v>1.015009162988403</v>
+        <v>0.9966765803699903</v>
       </c>
       <c r="F25">
-        <v>1.016116751007413</v>
+        <v>1.009118090002709</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045999052652036</v>
+        <v>1.039506149802602</v>
       </c>
       <c r="J25">
-        <v>1.024067303273365</v>
+        <v>1.012663644586404</v>
       </c>
       <c r="K25">
-        <v>1.030861645458075</v>
+        <v>1.022835462306871</v>
       </c>
       <c r="L25">
-        <v>1.027378864876549</v>
+        <v>1.009326708163154</v>
       </c>
       <c r="M25">
-        <v>1.028469922853667</v>
+        <v>1.02157648935269</v>
       </c>
       <c r="N25">
-        <v>1.025521596306175</v>
+        <v>1.01410174311586</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9949433485233373</v>
+        <v>1.031483913438708</v>
       </c>
       <c r="D2">
-        <v>1.015695621054622</v>
+        <v>1.037752324847416</v>
       </c>
       <c r="E2">
-        <v>1.003153450821922</v>
+        <v>1.035122920090494</v>
       </c>
       <c r="F2">
-        <v>1.01554911172793</v>
+        <v>1.045208720303641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041120042613514</v>
+        <v>1.032424074483189</v>
       </c>
       <c r="J2">
-        <v>1.017276362293171</v>
+        <v>1.036619387477876</v>
       </c>
       <c r="K2">
-        <v>1.026940537335307</v>
+        <v>1.040542312718022</v>
       </c>
       <c r="L2">
-        <v>1.014569027197511</v>
+        <v>1.037920428664011</v>
       </c>
       <c r="M2">
-        <v>1.026795990972396</v>
+        <v>1.047977604476914</v>
       </c>
       <c r="N2">
-        <v>1.018721011410853</v>
+        <v>1.038091505910029</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000025753354241</v>
+        <v>1.032556738882705</v>
       </c>
       <c r="D3">
-        <v>1.01942837799564</v>
+        <v>1.038558565408314</v>
       </c>
       <c r="E3">
-        <v>1.007721341337689</v>
+        <v>1.036143898266447</v>
       </c>
       <c r="F3">
-        <v>1.020084337306176</v>
+        <v>1.046218500185343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042231628277917</v>
+        <v>1.032590958305202</v>
       </c>
       <c r="J3">
-        <v>1.020515716331895</v>
+        <v>1.037333479179003</v>
       </c>
       <c r="K3">
-        <v>1.029818560639145</v>
+        <v>1.04115843521033</v>
       </c>
       <c r="L3">
-        <v>1.018256370324373</v>
+        <v>1.038750173503523</v>
       </c>
       <c r="M3">
-        <v>1.030466526293472</v>
+        <v>1.048798261628608</v>
       </c>
       <c r="N3">
-        <v>1.021964965703874</v>
+        <v>1.03880661170325</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003242718273081</v>
+        <v>1.033251204644971</v>
       </c>
       <c r="D4">
-        <v>1.021793530365131</v>
+        <v>1.03908028757045</v>
       </c>
       <c r="E4">
-        <v>1.010618534742974</v>
+        <v>1.03680517364483</v>
       </c>
       <c r="F4">
-        <v>1.022960544338632</v>
+        <v>1.046872404035093</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042924116296674</v>
+        <v>1.032697566401658</v>
       </c>
       <c r="J4">
-        <v>1.022563837149796</v>
+        <v>1.037795269105075</v>
       </c>
       <c r="K4">
-        <v>1.031635853942609</v>
+        <v>1.041556487413829</v>
       </c>
       <c r="L4">
-        <v>1.020590470671747</v>
+        <v>1.039287103845</v>
       </c>
       <c r="M4">
-        <v>1.032789533895111</v>
+        <v>1.049329180945313</v>
       </c>
       <c r="N4">
-        <v>1.02401599508826</v>
+        <v>1.039269057423986</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004578647756684</v>
+        <v>1.033543224240139</v>
       </c>
       <c r="D5">
-        <v>1.022776240443732</v>
+        <v>1.039299626172374</v>
       </c>
       <c r="E5">
-        <v>1.011823040314457</v>
+        <v>1.037083325269095</v>
       </c>
       <c r="F5">
-        <v>1.024156244059747</v>
+        <v>1.047147426449089</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043208978102804</v>
+        <v>1.032742054505131</v>
       </c>
       <c r="J5">
-        <v>1.023413787244243</v>
+        <v>1.037989339408449</v>
       </c>
       <c r="K5">
-        <v>1.032389423834685</v>
+        <v>1.041723679594103</v>
       </c>
       <c r="L5">
-        <v>1.021559760150102</v>
+        <v>1.039512836193471</v>
       </c>
       <c r="M5">
-        <v>1.033754093529099</v>
+        <v>1.049552354811513</v>
       </c>
       <c r="N5">
-        <v>1.024867152209332</v>
+        <v>1.03946340332945</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004802008727706</v>
+        <v>1.03359225950014</v>
       </c>
       <c r="D6">
-        <v>1.022940573241495</v>
+        <v>1.039336454455085</v>
       </c>
       <c r="E6">
-        <v>1.012024507090897</v>
+        <v>1.037130037021148</v>
       </c>
       <c r="F6">
-        <v>1.024356232750816</v>
+        <v>1.047193611015668</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04325644480338</v>
+        <v>1.032749504896648</v>
       </c>
       <c r="J6">
-        <v>1.023555859135293</v>
+        <v>1.038021920776474</v>
       </c>
       <c r="K6">
-        <v>1.032515350259503</v>
+        <v>1.041751743147545</v>
       </c>
       <c r="L6">
-        <v>1.021721818994084</v>
+        <v>1.039550738039003</v>
       </c>
       <c r="M6">
-        <v>1.033915353911102</v>
+        <v>1.049589825227807</v>
       </c>
       <c r="N6">
-        <v>1.025009425858763</v>
+        <v>1.039496030966755</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003260632920473</v>
+        <v>1.033255106364853</v>
       </c>
       <c r="D7">
-        <v>1.021806706430416</v>
+        <v>1.039083218358543</v>
       </c>
       <c r="E7">
-        <v>1.010634681657957</v>
+        <v>1.036808889725806</v>
       </c>
       <c r="F7">
-        <v>1.022976573547502</v>
+        <v>1.046876078422377</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042927947037284</v>
+        <v>1.032698162150699</v>
       </c>
       <c r="J7">
-        <v>1.022575237245393</v>
+        <v>1.037797862542404</v>
       </c>
       <c r="K7">
-        <v>1.031645963677176</v>
+        <v>1.041558722029863</v>
       </c>
       <c r="L7">
-        <v>1.020603468808441</v>
+        <v>1.039290120065261</v>
       </c>
       <c r="M7">
-        <v>1.032802469110874</v>
+        <v>1.049332163102781</v>
       </c>
       <c r="N7">
-        <v>1.024027411373301</v>
+        <v>1.039271654544292</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9966762370385355</v>
+        <v>1.031846422753253</v>
       </c>
       <c r="D8">
-        <v>1.016967773669083</v>
+        <v>1.038024790847954</v>
       </c>
       <c r="E8">
-        <v>1.004709645498322</v>
+        <v>1.035467832895003</v>
       </c>
       <c r="F8">
-        <v>1.017094224145795</v>
+        <v>1.045549874466909</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041501347649681</v>
+        <v>1.03248075856169</v>
       </c>
       <c r="J8">
-        <v>1.018381295890041</v>
+        <v>1.036860774897966</v>
       </c>
       <c r="K8">
-        <v>1.027922707999543</v>
+        <v>1.040750662338113</v>
       </c>
       <c r="L8">
-        <v>1.015826197340284</v>
+        <v>1.038200838413872</v>
       </c>
       <c r="M8">
-        <v>1.028047516703372</v>
+        <v>1.048254969961645</v>
       </c>
       <c r="N8">
-        <v>1.019827514140172</v>
+        <v>1.038333236127914</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9844919822170627</v>
+        <v>1.029366249937053</v>
       </c>
       <c r="D9">
-        <v>1.008036668630985</v>
+        <v>1.036159972341695</v>
       </c>
       <c r="E9">
-        <v>0.9937948371629884</v>
+        <v>1.033109593279611</v>
       </c>
       <c r="F9">
-        <v>1.006256717197261</v>
+        <v>1.04321685435393</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038775103706087</v>
+        <v>1.032087133808021</v>
       </c>
       <c r="J9">
-        <v>1.010604510015276</v>
+        <v>1.035207412719884</v>
       </c>
       <c r="K9">
-        <v>1.021000688421158</v>
+        <v>1.039322028357345</v>
       </c>
       <c r="L9">
-        <v>1.006989397513112</v>
+        <v>1.036281628854974</v>
       </c>
       <c r="M9">
-        <v>1.019249092641239</v>
+        <v>1.046356068165256</v>
       </c>
       <c r="N9">
-        <v>1.012039684337455</v>
+        <v>1.036677525985896</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9759289322146888</v>
+        <v>1.027714207454214</v>
       </c>
       <c r="D10">
-        <v>1.001780984939653</v>
+        <v>1.034916979659439</v>
       </c>
       <c r="E10">
-        <v>0.9861607975401722</v>
+        <v>1.031540730197007</v>
       </c>
       <c r="F10">
-        <v>0.9986770456746312</v>
+        <v>1.04166417420911</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03680386860978</v>
+        <v>1.031817653815993</v>
       </c>
       <c r="J10">
-        <v>1.005131239463941</v>
+        <v>1.034103779398431</v>
       </c>
       <c r="K10">
-        <v>1.016118157436523</v>
+        <v>1.038366452205818</v>
       </c>
       <c r="L10">
-        <v>1.000784501044797</v>
+        <v>1.035002337242652</v>
       </c>
       <c r="M10">
-        <v>1.013070227624188</v>
+        <v>1.045089656679003</v>
       </c>
       <c r="N10">
-        <v>1.006558641114144</v>
+        <v>1.035572325378538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9721045470486306</v>
+        <v>1.026999184959289</v>
       </c>
       <c r="D11">
-        <v>0.9989933801408669</v>
+        <v>1.03437881023551</v>
       </c>
       <c r="E11">
-        <v>0.9827608959526077</v>
+        <v>1.030862180466008</v>
       </c>
       <c r="F11">
-        <v>0.9953017217135712</v>
+        <v>1.040992484748903</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035911151562096</v>
+        <v>1.031699294091008</v>
       </c>
       <c r="J11">
-        <v>1.00268568559213</v>
+        <v>1.033625566591926</v>
       </c>
       <c r="K11">
-        <v>1.01393430483797</v>
+        <v>1.037951934234344</v>
       </c>
       <c r="L11">
-        <v>0.998015407558196</v>
+        <v>1.034448435863006</v>
       </c>
       <c r="M11">
-        <v>1.010312787933453</v>
+        <v>1.044541178472536</v>
       </c>
       <c r="N11">
-        <v>1.004109614275326</v>
+        <v>1.035093433454996</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9706653663164948</v>
+        <v>1.026733641868928</v>
       </c>
       <c r="D12">
-        <v>0.997945416359169</v>
+        <v>1.034178918931572</v>
       </c>
       <c r="E12">
-        <v>0.9814829699450003</v>
+        <v>1.030610254001536</v>
       </c>
       <c r="F12">
-        <v>0.9940331153175087</v>
+        <v>1.040743084594117</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035573423305104</v>
+        <v>1.031655078886125</v>
       </c>
       <c r="J12">
-        <v>1.001765282171892</v>
+        <v>1.033447887278191</v>
       </c>
       <c r="K12">
-        <v>1.013112085091423</v>
+        <v>1.037797851877177</v>
       </c>
       <c r="L12">
-        <v>0.9969737384122591</v>
+        <v>1.034242698441227</v>
       </c>
       <c r="M12">
-        <v>1.009275531266773</v>
+        <v>1.044337432493629</v>
       </c>
       <c r="N12">
-        <v>1.00318790377666</v>
+        <v>1.034915501816255</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9709749377998618</v>
+        <v>1.026790599592891</v>
       </c>
       <c r="D13">
-        <v>0.9981707862943507</v>
+        <v>1.034221795888143</v>
       </c>
       <c r="E13">
-        <v>0.9817577854392127</v>
+        <v>1.030664287780579</v>
       </c>
       <c r="F13">
-        <v>0.9943059225100537</v>
+        <v>1.040796577459117</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03564614894745</v>
+        <v>1.031664574558219</v>
       </c>
       <c r="J13">
-        <v>1.001963266733316</v>
+        <v>1.033486002344771</v>
       </c>
       <c r="K13">
-        <v>1.013288963240793</v>
+        <v>1.037830908125412</v>
       </c>
       <c r="L13">
-        <v>0.9971977854344761</v>
+        <v>1.034286829532952</v>
       </c>
       <c r="M13">
-        <v>1.009498627554525</v>
+        <v>1.044381137450552</v>
       </c>
       <c r="N13">
-        <v>1.00338616949887</v>
+        <v>1.034953671010602</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9719859708884623</v>
+        <v>1.026977234105642</v>
       </c>
       <c r="D14">
-        <v>0.9989070146968932</v>
+        <v>1.034362286975481</v>
       </c>
       <c r="E14">
-        <v>0.9826555745769027</v>
+        <v>1.030841353755635</v>
       </c>
       <c r="F14">
-        <v>0.9951971666021096</v>
+        <v>1.040971867309729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035883361475419</v>
+        <v>1.031695644370067</v>
       </c>
       <c r="J14">
-        <v>1.00260985387507</v>
+        <v>1.033610880579217</v>
       </c>
       <c r="K14">
-        <v>1.013866568560828</v>
+        <v>1.037939200019978</v>
       </c>
       <c r="L14">
-        <v>0.9979295746478861</v>
+        <v>1.034431429415902</v>
       </c>
       <c r="M14">
-        <v>1.010227317889616</v>
+        <v>1.044524337106205</v>
       </c>
       <c r="N14">
-        <v>1.00403367486853</v>
+        <v>1.035078726586464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9726063973125825</v>
+        <v>1.027092232150676</v>
       </c>
       <c r="D15">
-        <v>0.9993589487361899</v>
+        <v>1.034448849352154</v>
       </c>
       <c r="E15">
-        <v>0.9832067101080799</v>
+        <v>1.030950465471527</v>
       </c>
       <c r="F15">
-        <v>0.9957442958439743</v>
+        <v>1.041079881800455</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036028695389658</v>
+        <v>1.031714754235992</v>
       </c>
       <c r="J15">
-        <v>1.00300662473646</v>
+        <v>1.033687815588138</v>
       </c>
       <c r="K15">
-        <v>1.014220969577485</v>
+        <v>1.038005907408909</v>
       </c>
       <c r="L15">
-        <v>0.9983786946814133</v>
+        <v>1.034520523004107</v>
       </c>
       <c r="M15">
-        <v>1.010674540533123</v>
+        <v>1.044612564930212</v>
       </c>
       <c r="N15">
-        <v>1.004431009190054</v>
+        <v>1.035155770851923</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.976180194852703</v>
+        <v>1.027761667909442</v>
       </c>
       <c r="D16">
-        <v>1.001964271194011</v>
+        <v>1.034952697391583</v>
       </c>
       <c r="E16">
-        <v>0.986384377063124</v>
+        <v>1.031585779722045</v>
       </c>
       <c r="F16">
-        <v>0.9988990187717361</v>
+        <v>1.041708765358837</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03686226935321</v>
+        <v>1.031825473730481</v>
       </c>
       <c r="J16">
-        <v>1.005291895121471</v>
+        <v>1.034135509818172</v>
       </c>
       <c r="K16">
-        <v>1.016261576699834</v>
+        <v>1.038393946684178</v>
       </c>
       <c r="L16">
-        <v>1.000966480586927</v>
+        <v>1.035039098715813</v>
       </c>
       <c r="M16">
-        <v>1.013251443978156</v>
+        <v>1.045126055004031</v>
       </c>
       <c r="N16">
-        <v>1.006719524921135</v>
+        <v>1.035604100859115</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9783899786907574</v>
+        <v>1.028181673416825</v>
       </c>
       <c r="D17">
-        <v>1.003576948637707</v>
+        <v>1.035268762984103</v>
       </c>
       <c r="E17">
-        <v>0.9883517924648642</v>
+        <v>1.031984504077494</v>
       </c>
       <c r="F17">
-        <v>1.000852342756122</v>
+        <v>1.042103416677783</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037374493728009</v>
+        <v>1.031894477369303</v>
       </c>
       <c r="J17">
-        <v>1.006704697732582</v>
+        <v>1.034416247713545</v>
       </c>
       <c r="K17">
-        <v>1.017522550319579</v>
+        <v>1.038637153658946</v>
       </c>
       <c r="L17">
-        <v>1.002567186655301</v>
+        <v>1.035364398465218</v>
       </c>
       <c r="M17">
-        <v>1.014845443803122</v>
+        <v>1.045448123557296</v>
       </c>
       <c r="N17">
-        <v>1.008134333874004</v>
+        <v>1.0358852374345</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9796677457755004</v>
+        <v>1.028426686695461</v>
       </c>
       <c r="D18">
-        <v>1.004510036366995</v>
+        <v>1.035453123927221</v>
       </c>
       <c r="E18">
-        <v>0.9894903159620795</v>
+        <v>1.032217148334096</v>
       </c>
       <c r="F18">
-        <v>1.001982744384148</v>
+        <v>1.042333671000257</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037669505154073</v>
+        <v>1.031934564577858</v>
       </c>
       <c r="J18">
-        <v>1.00752151529716</v>
+        <v>1.034579965307164</v>
       </c>
       <c r="K18">
-        <v>1.018251372182675</v>
+        <v>1.038778940057192</v>
       </c>
       <c r="L18">
-        <v>1.00349296017168</v>
+        <v>1.035554144186342</v>
       </c>
       <c r="M18">
-        <v>1.015767340620551</v>
+        <v>1.045635969705449</v>
       </c>
       <c r="N18">
-        <v>1.008952311413216</v>
+        <v>1.036049187525881</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9801015707191765</v>
+        <v>1.028510235191219</v>
       </c>
       <c r="D19">
-        <v>1.004826932604925</v>
+        <v>1.035515987114089</v>
       </c>
       <c r="E19">
-        <v>0.9898770159416536</v>
+        <v>1.032296486743898</v>
       </c>
       <c r="F19">
-        <v>1.002366690541967</v>
+        <v>1.042412192089724</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037769465877163</v>
+        <v>1.031948205888825</v>
       </c>
       <c r="J19">
-        <v>1.007798819048321</v>
+        <v>1.034635783331737</v>
       </c>
       <c r="K19">
-        <v>1.018498764694238</v>
+        <v>1.038827273312814</v>
       </c>
       <c r="L19">
-        <v>1.003807307904268</v>
+        <v>1.035618843227385</v>
       </c>
       <c r="M19">
-        <v>1.01608037166889</v>
+        <v>1.045700018513571</v>
       </c>
       <c r="N19">
-        <v>1.00923000896751</v>
+        <v>1.036105084818451</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9781540522322465</v>
+        <v>1.02813660757923</v>
       </c>
       <c r="D20">
-        <v>1.003404710272587</v>
+        <v>1.035234851591987</v>
       </c>
       <c r="E20">
-        <v>0.988141648263919</v>
+        <v>1.031941716959738</v>
       </c>
       <c r="F20">
-        <v>1.00064370011502</v>
+        <v>1.042061068025776</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037319927599886</v>
+        <v>1.031887090629362</v>
       </c>
       <c r="J20">
-        <v>1.006553871497911</v>
+        <v>1.034386130510421</v>
       </c>
       <c r="K20">
-        <v>1.017387954987994</v>
+        <v>1.038611067309012</v>
       </c>
       <c r="L20">
-        <v>1.00239626739934</v>
+        <v>1.035329496478087</v>
       </c>
       <c r="M20">
-        <v>1.014675240267981</v>
+        <v>1.04541356978386</v>
       </c>
       <c r="N20">
-        <v>1.007983293448781</v>
+        <v>1.035855077461494</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9716887707429109</v>
+        <v>1.026922273568732</v>
       </c>
       <c r="D21">
-        <v>0.998690565183794</v>
+        <v>1.034320915604846</v>
       </c>
       <c r="E21">
-        <v>0.9823916209732367</v>
+        <v>1.030789209004735</v>
       </c>
       <c r="F21">
-        <v>0.99493513479824</v>
+        <v>1.040920246186228</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03581367971919</v>
+        <v>1.0316865020155</v>
       </c>
       <c r="J21">
-        <v>1.002419787331108</v>
+        <v>1.03357410842487</v>
       </c>
       <c r="K21">
-        <v>1.01369678774676</v>
+        <v>1.037907313843183</v>
       </c>
       <c r="L21">
-        <v>0.9977144489108484</v>
+        <v>1.034388848181676</v>
       </c>
       <c r="M21">
-        <v>1.01001310215792</v>
+        <v>1.044482168836585</v>
       </c>
       <c r="N21">
-        <v>1.003843338408275</v>
+        <v>1.035041902211441</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9675153546352241</v>
+        <v>1.026159051681693</v>
       </c>
       <c r="D22">
-        <v>0.9956537649063999</v>
+        <v>1.033746338871406</v>
       </c>
       <c r="E22">
-        <v>0.9786887799242189</v>
+        <v>1.030065259210555</v>
       </c>
       <c r="F22">
-        <v>0.9912594840206167</v>
+        <v>1.040203517302574</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034831017175595</v>
+        <v>1.031558931130023</v>
       </c>
       <c r="J22">
-        <v>0.9997506387878096</v>
+        <v>1.033063269939591</v>
       </c>
       <c r="K22">
-        <v>1.011311816066169</v>
+        <v>1.037464188701148</v>
       </c>
       <c r="L22">
-        <v>0.9946945771049176</v>
+        <v>1.033797461287626</v>
       </c>
       <c r="M22">
-        <v>1.00700610381557</v>
+        <v>1.043896463333898</v>
       </c>
       <c r="N22">
-        <v>1.00117039936789</v>
+        <v>1.034530338276919</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9697384411171591</v>
+        <v>1.026563623815226</v>
       </c>
       <c r="D23">
-        <v>0.9972707736485122</v>
+        <v>1.034050927833344</v>
       </c>
       <c r="E23">
-        <v>0.980660339895808</v>
+        <v>1.030448974394865</v>
       </c>
       <c r="F23">
-        <v>0.9932165110264632</v>
+        <v>1.040583416483215</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03535541083835</v>
+        <v>1.031626696506802</v>
       </c>
       <c r="J23">
-        <v>1.001172463452048</v>
+        <v>1.033334102335811</v>
       </c>
       <c r="K23">
-        <v>1.012582421511008</v>
+        <v>1.037699158979246</v>
       </c>
       <c r="L23">
-        <v>0.9963029547979299</v>
+        <v>1.034110963203233</v>
       </c>
       <c r="M23">
-        <v>1.008607600143697</v>
+        <v>1.044206965965366</v>
       </c>
       <c r="N23">
-        <v>1.002594243186237</v>
+        <v>1.034801555286206</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9782606916559575</v>
+        <v>1.028156970794874</v>
       </c>
       <c r="D24">
-        <v>1.003482560688342</v>
+        <v>1.035250174674204</v>
       </c>
       <c r="E24">
-        <v>0.9882366312441051</v>
+        <v>1.031961050384399</v>
       </c>
       <c r="F24">
-        <v>1.000738004306518</v>
+        <v>1.042080203370547</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03734459528673</v>
+        <v>1.031890428878014</v>
       </c>
       <c r="J24">
-        <v>1.006622045726026</v>
+        <v>1.034399739277139</v>
       </c>
       <c r="K24">
-        <v>1.017448793434565</v>
+        <v>1.038622854830447</v>
       </c>
       <c r="L24">
-        <v>1.002473522786456</v>
+        <v>1.035345267171647</v>
       </c>
       <c r="M24">
-        <v>1.014752172145682</v>
+        <v>1.045429183180615</v>
       </c>
       <c r="N24">
-        <v>1.00805156449212</v>
+        <v>1.035868705554221</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9877156715603146</v>
+        <v>1.03000718543574</v>
       </c>
       <c r="D25">
-        <v>1.010396421765024</v>
+        <v>1.036642036891644</v>
       </c>
       <c r="E25">
-        <v>0.9966765803699903</v>
+        <v>1.033718675137204</v>
       </c>
       <c r="F25">
-        <v>1.009118090002709</v>
+        <v>1.043819528206198</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039506149802602</v>
+        <v>1.032190141515703</v>
       </c>
       <c r="J25">
-        <v>1.012663644586404</v>
+        <v>1.035635092975686</v>
       </c>
       <c r="K25">
-        <v>1.022835462306871</v>
+        <v>1.039691922241914</v>
       </c>
       <c r="L25">
-        <v>1.009326708163154</v>
+        <v>1.036777759831591</v>
       </c>
       <c r="M25">
-        <v>1.02157648935269</v>
+        <v>1.046847065854627</v>
       </c>
       <c r="N25">
-        <v>1.01410174311586</v>
+        <v>1.037105813596717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031483913438708</v>
+        <v>0.9949433485233372</v>
       </c>
       <c r="D2">
-        <v>1.037752324847416</v>
+        <v>1.015695621054622</v>
       </c>
       <c r="E2">
-        <v>1.035122920090494</v>
+        <v>1.003153450821923</v>
       </c>
       <c r="F2">
-        <v>1.045208720303641</v>
+        <v>1.01554911172793</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032424074483189</v>
+        <v>1.041120042613514</v>
       </c>
       <c r="J2">
-        <v>1.036619387477876</v>
+        <v>1.017276362293171</v>
       </c>
       <c r="K2">
-        <v>1.040542312718022</v>
+        <v>1.026940537335308</v>
       </c>
       <c r="L2">
-        <v>1.037920428664011</v>
+        <v>1.014569027197512</v>
       </c>
       <c r="M2">
-        <v>1.047977604476914</v>
+        <v>1.026795990972396</v>
       </c>
       <c r="N2">
-        <v>1.038091505910029</v>
+        <v>1.018721011410853</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032556738882705</v>
+        <v>1.000025753354241</v>
       </c>
       <c r="D3">
-        <v>1.038558565408314</v>
+        <v>1.01942837799564</v>
       </c>
       <c r="E3">
-        <v>1.036143898266447</v>
+        <v>1.007721341337689</v>
       </c>
       <c r="F3">
-        <v>1.046218500185343</v>
+        <v>1.020084337306177</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032590958305202</v>
+        <v>1.042231628277917</v>
       </c>
       <c r="J3">
-        <v>1.037333479179003</v>
+        <v>1.020515716331895</v>
       </c>
       <c r="K3">
-        <v>1.04115843521033</v>
+        <v>1.029818560639146</v>
       </c>
       <c r="L3">
-        <v>1.038750173503523</v>
+        <v>1.018256370324373</v>
       </c>
       <c r="M3">
-        <v>1.048798261628608</v>
+        <v>1.030466526293472</v>
       </c>
       <c r="N3">
-        <v>1.03880661170325</v>
+        <v>1.021964965703875</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033251204644971</v>
+        <v>1.00324271827308</v>
       </c>
       <c r="D4">
-        <v>1.03908028757045</v>
+        <v>1.021793530365131</v>
       </c>
       <c r="E4">
-        <v>1.03680517364483</v>
+        <v>1.010618534742974</v>
       </c>
       <c r="F4">
-        <v>1.046872404035093</v>
+        <v>1.022960544338631</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032697566401658</v>
+        <v>1.042924116296674</v>
       </c>
       <c r="J4">
-        <v>1.037795269105075</v>
+        <v>1.022563837149795</v>
       </c>
       <c r="K4">
-        <v>1.041556487413829</v>
+        <v>1.031635853942608</v>
       </c>
       <c r="L4">
-        <v>1.039287103845</v>
+        <v>1.020590470671747</v>
       </c>
       <c r="M4">
-        <v>1.049329180945313</v>
+        <v>1.03278953389511</v>
       </c>
       <c r="N4">
-        <v>1.039269057423986</v>
+        <v>1.024015995088259</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033543224240139</v>
+        <v>1.004578647756685</v>
       </c>
       <c r="D5">
-        <v>1.039299626172374</v>
+        <v>1.022776240443733</v>
       </c>
       <c r="E5">
-        <v>1.037083325269095</v>
+        <v>1.011823040314458</v>
       </c>
       <c r="F5">
-        <v>1.047147426449089</v>
+        <v>1.024156244059747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032742054505131</v>
+        <v>1.043208978102804</v>
       </c>
       <c r="J5">
-        <v>1.037989339408449</v>
+        <v>1.023413787244243</v>
       </c>
       <c r="K5">
-        <v>1.041723679594103</v>
+        <v>1.032389423834686</v>
       </c>
       <c r="L5">
-        <v>1.039512836193471</v>
+        <v>1.021559760150102</v>
       </c>
       <c r="M5">
-        <v>1.049552354811513</v>
+        <v>1.033754093529099</v>
       </c>
       <c r="N5">
-        <v>1.03946340332945</v>
+        <v>1.024867152209332</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03359225950014</v>
+        <v>1.004802008727707</v>
       </c>
       <c r="D6">
-        <v>1.039336454455085</v>
+        <v>1.022940573241496</v>
       </c>
       <c r="E6">
-        <v>1.037130037021148</v>
+        <v>1.012024507090898</v>
       </c>
       <c r="F6">
-        <v>1.047193611015668</v>
+        <v>1.024356232750817</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032749504896648</v>
+        <v>1.04325644480338</v>
       </c>
       <c r="J6">
-        <v>1.038021920776474</v>
+        <v>1.023555859135294</v>
       </c>
       <c r="K6">
-        <v>1.041751743147545</v>
+        <v>1.032515350259503</v>
       </c>
       <c r="L6">
-        <v>1.039550738039003</v>
+        <v>1.021721818994084</v>
       </c>
       <c r="M6">
-        <v>1.049589825227807</v>
+        <v>1.033915353911103</v>
       </c>
       <c r="N6">
-        <v>1.039496030966755</v>
+        <v>1.025009425858764</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033255106364853</v>
+        <v>1.003260632920473</v>
       </c>
       <c r="D7">
-        <v>1.039083218358543</v>
+        <v>1.021806706430415</v>
       </c>
       <c r="E7">
-        <v>1.036808889725806</v>
+        <v>1.010634681657956</v>
       </c>
       <c r="F7">
-        <v>1.046876078422377</v>
+        <v>1.022976573547501</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032698162150699</v>
+        <v>1.042927947037284</v>
       </c>
       <c r="J7">
-        <v>1.037797862542404</v>
+        <v>1.022575237245393</v>
       </c>
       <c r="K7">
-        <v>1.041558722029863</v>
+        <v>1.031645963677175</v>
       </c>
       <c r="L7">
-        <v>1.039290120065261</v>
+        <v>1.02060346880844</v>
       </c>
       <c r="M7">
-        <v>1.049332163102781</v>
+        <v>1.032802469110873</v>
       </c>
       <c r="N7">
-        <v>1.039271654544292</v>
+        <v>1.0240274113733</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031846422753253</v>
+        <v>0.9966762370385354</v>
       </c>
       <c r="D8">
-        <v>1.038024790847954</v>
+        <v>1.016967773669082</v>
       </c>
       <c r="E8">
-        <v>1.035467832895003</v>
+        <v>1.004709645498322</v>
       </c>
       <c r="F8">
-        <v>1.045549874466909</v>
+        <v>1.017094224145794</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03248075856169</v>
+        <v>1.041501347649681</v>
       </c>
       <c r="J8">
-        <v>1.036860774897966</v>
+        <v>1.018381295890041</v>
       </c>
       <c r="K8">
-        <v>1.040750662338113</v>
+        <v>1.027922707999542</v>
       </c>
       <c r="L8">
-        <v>1.038200838413872</v>
+        <v>1.015826197340284</v>
       </c>
       <c r="M8">
-        <v>1.048254969961645</v>
+        <v>1.028047516703371</v>
       </c>
       <c r="N8">
-        <v>1.038333236127914</v>
+        <v>1.019827514140172</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029366249937053</v>
+        <v>0.9844919822170628</v>
       </c>
       <c r="D9">
-        <v>1.036159972341695</v>
+        <v>1.008036668630985</v>
       </c>
       <c r="E9">
-        <v>1.033109593279611</v>
+        <v>0.9937948371629883</v>
       </c>
       <c r="F9">
-        <v>1.04321685435393</v>
+        <v>1.006256717197261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032087133808021</v>
+        <v>1.038775103706087</v>
       </c>
       <c r="J9">
-        <v>1.035207412719884</v>
+        <v>1.010604510015276</v>
       </c>
       <c r="K9">
-        <v>1.039322028357345</v>
+        <v>1.021000688421158</v>
       </c>
       <c r="L9">
-        <v>1.036281628854974</v>
+        <v>1.006989397513112</v>
       </c>
       <c r="M9">
-        <v>1.046356068165256</v>
+        <v>1.019249092641238</v>
       </c>
       <c r="N9">
-        <v>1.036677525985896</v>
+        <v>1.012039684337455</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027714207454214</v>
+        <v>0.9759289322146888</v>
       </c>
       <c r="D10">
-        <v>1.034916979659439</v>
+        <v>1.001780984939653</v>
       </c>
       <c r="E10">
-        <v>1.031540730197007</v>
+        <v>0.9861607975401718</v>
       </c>
       <c r="F10">
-        <v>1.04166417420911</v>
+        <v>0.9986770456746314</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031817653815993</v>
+        <v>1.03680386860978</v>
       </c>
       <c r="J10">
-        <v>1.034103779398431</v>
+        <v>1.005131239463941</v>
       </c>
       <c r="K10">
-        <v>1.038366452205818</v>
+        <v>1.016118157436523</v>
       </c>
       <c r="L10">
-        <v>1.035002337242652</v>
+        <v>1.000784501044796</v>
       </c>
       <c r="M10">
-        <v>1.045089656679003</v>
+        <v>1.013070227624188</v>
       </c>
       <c r="N10">
-        <v>1.035572325378538</v>
+        <v>1.006558641114144</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026999184959289</v>
+        <v>0.9721045470486297</v>
       </c>
       <c r="D11">
-        <v>1.03437881023551</v>
+        <v>0.998993380140866</v>
       </c>
       <c r="E11">
-        <v>1.030862180466008</v>
+        <v>0.9827608959526068</v>
       </c>
       <c r="F11">
-        <v>1.040992484748903</v>
+        <v>0.9953017217135703</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031699294091008</v>
+        <v>1.035911151562096</v>
       </c>
       <c r="J11">
-        <v>1.033625566591926</v>
+        <v>1.002685685592128</v>
       </c>
       <c r="K11">
-        <v>1.037951934234344</v>
+        <v>1.013934304837969</v>
       </c>
       <c r="L11">
-        <v>1.034448435863006</v>
+        <v>0.9980154075581948</v>
       </c>
       <c r="M11">
-        <v>1.044541178472536</v>
+        <v>1.010312787933452</v>
       </c>
       <c r="N11">
-        <v>1.035093433454996</v>
+        <v>1.004109614275325</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026733641868928</v>
+        <v>0.9706653663164942</v>
       </c>
       <c r="D12">
-        <v>1.034178918931572</v>
+        <v>0.997945416359169</v>
       </c>
       <c r="E12">
-        <v>1.030610254001536</v>
+        <v>0.9814829699449996</v>
       </c>
       <c r="F12">
-        <v>1.040743084594117</v>
+        <v>0.9940331153175087</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031655078886125</v>
+        <v>1.035573423305103</v>
       </c>
       <c r="J12">
-        <v>1.033447887278191</v>
+        <v>1.001765282171892</v>
       </c>
       <c r="K12">
-        <v>1.037797851877177</v>
+        <v>1.013112085091423</v>
       </c>
       <c r="L12">
-        <v>1.034242698441227</v>
+        <v>0.9969737384122583</v>
       </c>
       <c r="M12">
-        <v>1.044337432493629</v>
+        <v>1.009275531266773</v>
       </c>
       <c r="N12">
-        <v>1.034915501816255</v>
+        <v>1.00318790377666</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026790599592891</v>
+        <v>0.9709749377998611</v>
       </c>
       <c r="D13">
-        <v>1.034221795888143</v>
+        <v>0.9981707862943501</v>
       </c>
       <c r="E13">
-        <v>1.030664287780579</v>
+        <v>0.981757785439212</v>
       </c>
       <c r="F13">
-        <v>1.040796577459117</v>
+        <v>0.994305922510053</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031664574558219</v>
+        <v>1.03564614894745</v>
       </c>
       <c r="J13">
-        <v>1.033486002344771</v>
+        <v>1.001963266733315</v>
       </c>
       <c r="K13">
-        <v>1.037830908125412</v>
+        <v>1.013288963240792</v>
       </c>
       <c r="L13">
-        <v>1.034286829532952</v>
+        <v>0.9971977854344752</v>
       </c>
       <c r="M13">
-        <v>1.044381137450552</v>
+        <v>1.009498627554524</v>
       </c>
       <c r="N13">
-        <v>1.034953671010602</v>
+        <v>1.003386169498869</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026977234105642</v>
+        <v>0.9719859708884619</v>
       </c>
       <c r="D14">
-        <v>1.034362286975481</v>
+        <v>0.9989070146968926</v>
       </c>
       <c r="E14">
-        <v>1.030841353755635</v>
+        <v>0.9826555745769023</v>
       </c>
       <c r="F14">
-        <v>1.040971867309729</v>
+        <v>0.9951971666021091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031695644370067</v>
+        <v>1.035883361475419</v>
       </c>
       <c r="J14">
-        <v>1.033610880579217</v>
+        <v>1.00260985387507</v>
       </c>
       <c r="K14">
-        <v>1.037939200019978</v>
+        <v>1.013866568560827</v>
       </c>
       <c r="L14">
-        <v>1.034431429415902</v>
+        <v>0.9979295746478859</v>
       </c>
       <c r="M14">
-        <v>1.044524337106205</v>
+        <v>1.010227317889616</v>
       </c>
       <c r="N14">
-        <v>1.035078726586464</v>
+        <v>1.00403367486853</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027092232150676</v>
+        <v>0.9726063973125821</v>
       </c>
       <c r="D15">
-        <v>1.034448849352154</v>
+        <v>0.9993589487361894</v>
       </c>
       <c r="E15">
-        <v>1.030950465471527</v>
+        <v>0.9832067101080795</v>
       </c>
       <c r="F15">
-        <v>1.041079881800455</v>
+        <v>0.9957442958439742</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031714754235992</v>
+        <v>1.036028695389657</v>
       </c>
       <c r="J15">
-        <v>1.033687815588138</v>
+        <v>1.00300662473646</v>
       </c>
       <c r="K15">
-        <v>1.038005907408909</v>
+        <v>1.014220969577485</v>
       </c>
       <c r="L15">
-        <v>1.034520523004107</v>
+        <v>0.9983786946814128</v>
       </c>
       <c r="M15">
-        <v>1.044612564930212</v>
+        <v>1.010674540533123</v>
       </c>
       <c r="N15">
-        <v>1.035155770851923</v>
+        <v>1.004431009190054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027761667909442</v>
+        <v>0.9761801948527022</v>
       </c>
       <c r="D16">
-        <v>1.034952697391583</v>
+        <v>1.00196427119401</v>
       </c>
       <c r="E16">
-        <v>1.031585779722045</v>
+        <v>0.9863843770631229</v>
       </c>
       <c r="F16">
-        <v>1.041708765358837</v>
+        <v>0.9988990187717351</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031825473730481</v>
+        <v>1.03686226935321</v>
       </c>
       <c r="J16">
-        <v>1.034135509818172</v>
+        <v>1.00529189512147</v>
       </c>
       <c r="K16">
-        <v>1.038393946684178</v>
+        <v>1.016261576699833</v>
       </c>
       <c r="L16">
-        <v>1.035039098715813</v>
+        <v>1.000966480586926</v>
       </c>
       <c r="M16">
-        <v>1.045126055004031</v>
+        <v>1.013251443978155</v>
       </c>
       <c r="N16">
-        <v>1.035604100859115</v>
+        <v>1.006719524921134</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.028181673416825</v>
+        <v>0.9783899786907577</v>
       </c>
       <c r="D17">
-        <v>1.035268762984103</v>
+        <v>1.003576948637707</v>
       </c>
       <c r="E17">
-        <v>1.031984504077494</v>
+        <v>0.9883517924648645</v>
       </c>
       <c r="F17">
-        <v>1.042103416677783</v>
+        <v>1.000852342756122</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031894477369303</v>
+        <v>1.037374493728009</v>
       </c>
       <c r="J17">
-        <v>1.034416247713545</v>
+        <v>1.006704697732582</v>
       </c>
       <c r="K17">
-        <v>1.038637153658946</v>
+        <v>1.017522550319579</v>
       </c>
       <c r="L17">
-        <v>1.035364398465218</v>
+        <v>1.002567186655302</v>
       </c>
       <c r="M17">
-        <v>1.045448123557296</v>
+        <v>1.014845443803123</v>
       </c>
       <c r="N17">
-        <v>1.0358852374345</v>
+        <v>1.008134333874005</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028426686695461</v>
+        <v>0.9796677457755009</v>
       </c>
       <c r="D18">
-        <v>1.035453123927221</v>
+        <v>1.004510036366995</v>
       </c>
       <c r="E18">
-        <v>1.032217148334096</v>
+        <v>0.9894903159620797</v>
       </c>
       <c r="F18">
-        <v>1.042333671000257</v>
+        <v>1.001982744384148</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031934564577858</v>
+        <v>1.037669505154073</v>
       </c>
       <c r="J18">
-        <v>1.034579965307164</v>
+        <v>1.007521515297161</v>
       </c>
       <c r="K18">
-        <v>1.038778940057192</v>
+        <v>1.018251372182675</v>
       </c>
       <c r="L18">
-        <v>1.035554144186342</v>
+        <v>1.00349296017168</v>
       </c>
       <c r="M18">
-        <v>1.045635969705449</v>
+        <v>1.015767340620551</v>
       </c>
       <c r="N18">
-        <v>1.036049187525881</v>
+        <v>1.008952311413216</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028510235191219</v>
+        <v>0.9801015707191766</v>
       </c>
       <c r="D19">
-        <v>1.035515987114089</v>
+        <v>1.004826932604925</v>
       </c>
       <c r="E19">
-        <v>1.032296486743898</v>
+        <v>0.9898770159416534</v>
       </c>
       <c r="F19">
-        <v>1.042412192089724</v>
+        <v>1.002366690541966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031948205888825</v>
+        <v>1.037769465877163</v>
       </c>
       <c r="J19">
-        <v>1.034635783331737</v>
+        <v>1.007798819048321</v>
       </c>
       <c r="K19">
-        <v>1.038827273312814</v>
+        <v>1.018498764694238</v>
       </c>
       <c r="L19">
-        <v>1.035618843227385</v>
+        <v>1.003807307904268</v>
       </c>
       <c r="M19">
-        <v>1.045700018513571</v>
+        <v>1.01608037166889</v>
       </c>
       <c r="N19">
-        <v>1.036105084818451</v>
+        <v>1.00923000896751</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02813660757923</v>
+        <v>0.9781540522322458</v>
       </c>
       <c r="D20">
-        <v>1.035234851591987</v>
+        <v>1.003404710272586</v>
       </c>
       <c r="E20">
-        <v>1.031941716959738</v>
+        <v>0.988141648263918</v>
       </c>
       <c r="F20">
-        <v>1.042061068025776</v>
+        <v>1.000643700115019</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031887090629362</v>
+        <v>1.037319927599886</v>
       </c>
       <c r="J20">
-        <v>1.034386130510421</v>
+        <v>1.00655387149791</v>
       </c>
       <c r="K20">
-        <v>1.038611067309012</v>
+        <v>1.017387954987993</v>
       </c>
       <c r="L20">
-        <v>1.035329496478087</v>
+        <v>1.00239626739934</v>
       </c>
       <c r="M20">
-        <v>1.04541356978386</v>
+        <v>1.01467524026798</v>
       </c>
       <c r="N20">
-        <v>1.035855077461494</v>
+        <v>1.00798329344878</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026922273568732</v>
+        <v>0.9716887707429106</v>
       </c>
       <c r="D21">
-        <v>1.034320915604846</v>
+        <v>0.9986905651837937</v>
       </c>
       <c r="E21">
-        <v>1.030789209004735</v>
+        <v>0.9823916209732367</v>
       </c>
       <c r="F21">
-        <v>1.040920246186228</v>
+        <v>0.9949351347982397</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0316865020155</v>
+        <v>1.03581367971919</v>
       </c>
       <c r="J21">
-        <v>1.03357410842487</v>
+        <v>1.002419787331108</v>
       </c>
       <c r="K21">
-        <v>1.037907313843183</v>
+        <v>1.01369678774676</v>
       </c>
       <c r="L21">
-        <v>1.034388848181676</v>
+        <v>0.9977144489108483</v>
       </c>
       <c r="M21">
-        <v>1.044482168836585</v>
+        <v>1.010013102157919</v>
       </c>
       <c r="N21">
-        <v>1.035041902211441</v>
+        <v>1.003843338408275</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026159051681693</v>
+        <v>0.9675153546352258</v>
       </c>
       <c r="D22">
-        <v>1.033746338871406</v>
+        <v>0.9956537649064009</v>
       </c>
       <c r="E22">
-        <v>1.030065259210555</v>
+        <v>0.97868877992422</v>
       </c>
       <c r="F22">
-        <v>1.040203517302574</v>
+        <v>0.9912594840206176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031558931130023</v>
+        <v>1.034831017175595</v>
       </c>
       <c r="J22">
-        <v>1.033063269939591</v>
+        <v>0.9997506387878109</v>
       </c>
       <c r="K22">
-        <v>1.037464188701148</v>
+        <v>1.01131181606617</v>
       </c>
       <c r="L22">
-        <v>1.033797461287626</v>
+        <v>0.9946945771049187</v>
       </c>
       <c r="M22">
-        <v>1.043896463333898</v>
+        <v>1.007006103815571</v>
       </c>
       <c r="N22">
-        <v>1.034530338276919</v>
+        <v>1.001170399367891</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026563623815226</v>
+        <v>0.9697384411171582</v>
       </c>
       <c r="D23">
-        <v>1.034050927833344</v>
+        <v>0.9972707736485119</v>
       </c>
       <c r="E23">
-        <v>1.030448974394865</v>
+        <v>0.9806603398958073</v>
       </c>
       <c r="F23">
-        <v>1.040583416483215</v>
+        <v>0.9932165110264628</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031626696506802</v>
+        <v>1.035355410838349</v>
       </c>
       <c r="J23">
-        <v>1.033334102335811</v>
+        <v>1.001172463452047</v>
       </c>
       <c r="K23">
-        <v>1.037699158979246</v>
+        <v>1.012582421511008</v>
       </c>
       <c r="L23">
-        <v>1.034110963203233</v>
+        <v>0.9963029547979291</v>
       </c>
       <c r="M23">
-        <v>1.044206965965366</v>
+        <v>1.008607600143697</v>
       </c>
       <c r="N23">
-        <v>1.034801555286206</v>
+        <v>1.002594243186236</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028156970794874</v>
+        <v>0.9782606916559591</v>
       </c>
       <c r="D24">
-        <v>1.035250174674204</v>
+        <v>1.003482560688343</v>
       </c>
       <c r="E24">
-        <v>1.031961050384399</v>
+        <v>0.9882366312441069</v>
       </c>
       <c r="F24">
-        <v>1.042080203370547</v>
+        <v>1.00073800430652</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031890428878014</v>
+        <v>1.037344595286731</v>
       </c>
       <c r="J24">
-        <v>1.034399739277139</v>
+        <v>1.006622045726028</v>
       </c>
       <c r="K24">
-        <v>1.038622854830447</v>
+        <v>1.017448793434567</v>
       </c>
       <c r="L24">
-        <v>1.035345267171647</v>
+        <v>1.002473522786458</v>
       </c>
       <c r="M24">
-        <v>1.045429183180615</v>
+        <v>1.014752172145683</v>
       </c>
       <c r="N24">
-        <v>1.035868705554221</v>
+        <v>1.008051564492121</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03000718543574</v>
+        <v>0.9877156715603154</v>
       </c>
       <c r="D25">
-        <v>1.036642036891644</v>
+        <v>1.010396421765024</v>
       </c>
       <c r="E25">
-        <v>1.033718675137204</v>
+        <v>0.9966765803699914</v>
       </c>
       <c r="F25">
-        <v>1.043819528206198</v>
+        <v>1.00911809000271</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032190141515703</v>
+        <v>1.039506149802603</v>
       </c>
       <c r="J25">
-        <v>1.035635092975686</v>
+        <v>1.012663644586405</v>
       </c>
       <c r="K25">
-        <v>1.039691922241914</v>
+        <v>1.022835462306871</v>
       </c>
       <c r="L25">
-        <v>1.036777759831591</v>
+        <v>1.009326708163155</v>
       </c>
       <c r="M25">
-        <v>1.046847065854627</v>
+        <v>1.02157648935269</v>
       </c>
       <c r="N25">
-        <v>1.037105813596717</v>
+        <v>1.014101743115861</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9949433485233372</v>
+        <v>1.01536447385298</v>
       </c>
       <c r="D2">
-        <v>1.015695621054622</v>
+        <v>1.031742761608847</v>
       </c>
       <c r="E2">
-        <v>1.003153450821923</v>
+        <v>1.031820360684788</v>
       </c>
       <c r="F2">
-        <v>1.01554911172793</v>
+        <v>1.036382016571855</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041120042613514</v>
+        <v>1.052411018064909</v>
       </c>
       <c r="J2">
-        <v>1.017276362293171</v>
+        <v>1.037095150464085</v>
       </c>
       <c r="K2">
-        <v>1.026940537335308</v>
+        <v>1.042776896785274</v>
       </c>
       <c r="L2">
-        <v>1.014569027197512</v>
+        <v>1.042853496512943</v>
       </c>
       <c r="M2">
-        <v>1.026795990972396</v>
+        <v>1.047356734298462</v>
       </c>
       <c r="N2">
-        <v>1.018721011410853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016149160361154</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046052048103049</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041317253795018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000025753354241</v>
+        <v>1.018816071520541</v>
       </c>
       <c r="D3">
-        <v>1.01942837799564</v>
+        <v>1.034024621275722</v>
       </c>
       <c r="E3">
-        <v>1.007721341337689</v>
+        <v>1.034773679905078</v>
       </c>
       <c r="F3">
-        <v>1.020084337306177</v>
+        <v>1.039245167971662</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042231628277917</v>
+        <v>1.05330980478532</v>
       </c>
       <c r="J3">
-        <v>1.020515716331895</v>
+        <v>1.038806610865962</v>
       </c>
       <c r="K3">
-        <v>1.029818560639146</v>
+        <v>1.044239900971061</v>
       </c>
       <c r="L3">
-        <v>1.018256370324373</v>
+        <v>1.044980148619899</v>
       </c>
       <c r="M3">
-        <v>1.030466526293472</v>
+        <v>1.049399366433229</v>
       </c>
       <c r="N3">
-        <v>1.021964965703875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016729999978287</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047668640382814</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042349061542574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00324271827308</v>
+        <v>1.021011721971887</v>
       </c>
       <c r="D4">
-        <v>1.021793530365131</v>
+        <v>1.035479284182867</v>
       </c>
       <c r="E4">
-        <v>1.010618534742974</v>
+        <v>1.036657862644607</v>
       </c>
       <c r="F4">
-        <v>1.022960544338631</v>
+        <v>1.041074101206254</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042924116296674</v>
+        <v>1.053872006255169</v>
       </c>
       <c r="J4">
-        <v>1.022563837149795</v>
+        <v>1.039892800569088</v>
       </c>
       <c r="K4">
-        <v>1.031635853942608</v>
+        <v>1.045167562916938</v>
       </c>
       <c r="L4">
-        <v>1.020590470671747</v>
+        <v>1.046333109330032</v>
       </c>
       <c r="M4">
-        <v>1.03278953389511</v>
+        <v>1.050700837878585</v>
       </c>
       <c r="N4">
-        <v>1.024015995088259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017098659475814</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048698656942851</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043005884763347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004578647756685</v>
+        <v>1.021928689348923</v>
       </c>
       <c r="D5">
-        <v>1.022776240443733</v>
+        <v>1.036089579588306</v>
       </c>
       <c r="E5">
-        <v>1.011823040314458</v>
+        <v>1.037446180036911</v>
       </c>
       <c r="F5">
-        <v>1.024156244059747</v>
+        <v>1.041839378455885</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043208978102804</v>
+        <v>1.054105912094557</v>
       </c>
       <c r="J5">
-        <v>1.023413787244243</v>
+        <v>1.040347107002642</v>
       </c>
       <c r="K5">
-        <v>1.032389423834686</v>
+        <v>1.045556921181594</v>
       </c>
       <c r="L5">
-        <v>1.021559760150102</v>
+        <v>1.046898918245051</v>
       </c>
       <c r="M5">
-        <v>1.033754093529099</v>
+        <v>1.051245144757479</v>
       </c>
       <c r="N5">
-        <v>1.024867152209332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017253230807163</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049129434390285</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043288330267628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004802008727707</v>
+        <v>1.022085445738338</v>
       </c>
       <c r="D6">
-        <v>1.022940573241496</v>
+        <v>1.036196463155687</v>
       </c>
       <c r="E6">
-        <v>1.012024507090898</v>
+        <v>1.037581175929518</v>
       </c>
       <c r="F6">
-        <v>1.024356232750817</v>
+        <v>1.041969890176424</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04325644480338</v>
+        <v>1.054147510976284</v>
       </c>
       <c r="J6">
-        <v>1.023555859135294</v>
+        <v>1.040426323987216</v>
       </c>
       <c r="K6">
-        <v>1.032515350259503</v>
+        <v>1.04562669578519</v>
       </c>
       <c r="L6">
-        <v>1.021721818994084</v>
+        <v>1.046996570440827</v>
       </c>
       <c r="M6">
-        <v>1.033915353911103</v>
+        <v>1.051338575538724</v>
       </c>
       <c r="N6">
-        <v>1.025009425858764</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017280636233914</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049203377714088</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043346372063426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003260632920473</v>
+        <v>1.021032877118809</v>
       </c>
       <c r="D7">
-        <v>1.021806706430415</v>
+        <v>1.035500069881031</v>
       </c>
       <c r="E7">
-        <v>1.010634681657956</v>
+        <v>1.036676463592625</v>
       </c>
       <c r="F7">
-        <v>1.022976573547501</v>
+        <v>1.041090626585625</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042927947037284</v>
+        <v>1.053882089816452</v>
       </c>
       <c r="J7">
-        <v>1.022575237245393</v>
+        <v>1.039907544361572</v>
       </c>
       <c r="K7">
-        <v>1.031645963677175</v>
+        <v>1.045185254297771</v>
       </c>
       <c r="L7">
-        <v>1.02060346880844</v>
+        <v>1.046348645056383</v>
       </c>
       <c r="M7">
-        <v>1.032802469110873</v>
+        <v>1.050714338977978</v>
       </c>
       <c r="N7">
-        <v>1.0240274113733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017104907365542</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048709342037976</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043038417783969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9966762370385354</v>
+        <v>1.016549945229691</v>
       </c>
       <c r="D8">
-        <v>1.016967773669082</v>
+        <v>1.032534048025183</v>
       </c>
       <c r="E8">
-        <v>1.004709645498322</v>
+        <v>1.03283408404236</v>
       </c>
       <c r="F8">
-        <v>1.017094224145794</v>
+        <v>1.037362433297787</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041501347649681</v>
+        <v>1.052727361480939</v>
       </c>
       <c r="J8">
-        <v>1.018381295890041</v>
+        <v>1.037688723702932</v>
       </c>
       <c r="K8">
-        <v>1.027922707999542</v>
+        <v>1.043290645585278</v>
       </c>
       <c r="L8">
-        <v>1.015826197340284</v>
+        <v>1.043586931920063</v>
       </c>
       <c r="M8">
-        <v>1.028047516703371</v>
+        <v>1.048059016334267</v>
       </c>
       <c r="N8">
-        <v>1.019827514140172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016352211823471</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046607852799599</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.0417033304621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9844919822170628</v>
+        <v>1.008335709457543</v>
       </c>
       <c r="D9">
-        <v>1.008036668630985</v>
+        <v>1.027114849917805</v>
       </c>
       <c r="E9">
-        <v>0.9937948371629883</v>
+        <v>1.02583752207738</v>
       </c>
       <c r="F9">
-        <v>1.006256717197261</v>
+        <v>1.030594229717679</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038775103706087</v>
+        <v>1.050530236718699</v>
       </c>
       <c r="J9">
-        <v>1.010604510015276</v>
+        <v>1.03359750765857</v>
       </c>
       <c r="K9">
-        <v>1.021000688421158</v>
+        <v>1.039782808972096</v>
       </c>
       <c r="L9">
-        <v>1.006989397513112</v>
+        <v>1.038524864618387</v>
       </c>
       <c r="M9">
-        <v>1.019249092641238</v>
+        <v>1.043209699297946</v>
       </c>
       <c r="N9">
-        <v>1.012039684337455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014962531475203</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042769965625673</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03921991312956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9759289322146888</v>
+        <v>1.002713744314882</v>
       </c>
       <c r="D10">
-        <v>1.001780984939653</v>
+        <v>1.023434156598958</v>
       </c>
       <c r="E10">
-        <v>0.9861607975401718</v>
+        <v>1.021126303704939</v>
       </c>
       <c r="F10">
-        <v>0.9986770456746314</v>
+        <v>1.026098032540534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03680386860978</v>
+        <v>1.048998462751449</v>
       </c>
       <c r="J10">
-        <v>1.005131239463941</v>
+        <v>1.030820105170688</v>
       </c>
       <c r="K10">
-        <v>1.016118157436523</v>
+        <v>1.037392809566998</v>
       </c>
       <c r="L10">
-        <v>1.000784501044796</v>
+        <v>1.035124312774452</v>
       </c>
       <c r="M10">
-        <v>1.013070227624188</v>
+        <v>1.040011542079629</v>
       </c>
       <c r="N10">
-        <v>1.006558641114144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014025561206743</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040290167677689</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037546805062382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9721045470486297</v>
+        <v>1.00080355249185</v>
       </c>
       <c r="D11">
-        <v>0.998993380140866</v>
+        <v>1.022248755757518</v>
       </c>
       <c r="E11">
-        <v>0.9827608959526068</v>
+        <v>1.019901377998278</v>
       </c>
       <c r="F11">
-        <v>0.9953017217135703</v>
+        <v>1.025328406073476</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035911151562096</v>
+        <v>1.048617735290309</v>
       </c>
       <c r="J11">
-        <v>1.002685685592128</v>
+        <v>1.030142940906642</v>
       </c>
       <c r="K11">
-        <v>1.013934304837969</v>
+        <v>1.036762946080993</v>
       </c>
       <c r="L11">
-        <v>0.9980154075581948</v>
+        <v>1.034457495577543</v>
       </c>
       <c r="M11">
-        <v>1.010312787933452</v>
+        <v>1.039787967367914</v>
       </c>
       <c r="N11">
-        <v>1.004109614275325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013847012721601</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040548402068378</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.037134216488821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9706653663164942</v>
+        <v>1.000298800166119</v>
       </c>
       <c r="D12">
-        <v>0.997945416359169</v>
+        <v>1.021958922457944</v>
       </c>
       <c r="E12">
-        <v>0.9814829699449996</v>
+        <v>1.019752748465454</v>
       </c>
       <c r="F12">
-        <v>0.9940331153175087</v>
+        <v>1.025478135605465</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035573423305103</v>
+        <v>1.048583404964548</v>
       </c>
       <c r="J12">
-        <v>1.001765282171892</v>
+        <v>1.030090519613818</v>
       </c>
       <c r="K12">
-        <v>1.013112085091423</v>
+        <v>1.036677179006955</v>
       </c>
       <c r="L12">
-        <v>0.9969737384122583</v>
+        <v>1.034511055238561</v>
       </c>
       <c r="M12">
-        <v>1.009275531266773</v>
+        <v>1.040132968793585</v>
       </c>
       <c r="N12">
-        <v>1.00318790377666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.013867877163704</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041146883376501</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.037073576725265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9709749377998611</v>
+        <v>1.000852486263303</v>
       </c>
       <c r="D13">
-        <v>0.9981707862943501</v>
+        <v>1.022352817967576</v>
       </c>
       <c r="E13">
-        <v>0.981757785439212</v>
+        <v>1.020434286845548</v>
       </c>
       <c r="F13">
-        <v>0.994305922510053</v>
+        <v>1.026365750184149</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03564614894745</v>
+        <v>1.048825892452224</v>
       </c>
       <c r="J13">
-        <v>1.001963266733315</v>
+        <v>1.030528321875323</v>
       </c>
       <c r="K13">
-        <v>1.013288963240792</v>
+        <v>1.037021307516684</v>
       </c>
       <c r="L13">
-        <v>0.9971977854344752</v>
+        <v>1.035137440968234</v>
       </c>
       <c r="M13">
-        <v>1.009498627554524</v>
+        <v>1.040962276934096</v>
       </c>
       <c r="N13">
-        <v>1.003386169498869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014049675637527</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042078602251143</v>
+      </c>
+      <c r="Q13">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R13">
+        <v>1.037314400318456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9719859708884619</v>
+        <v>1.001717891819536</v>
       </c>
       <c r="D14">
-        <v>0.9989070146968926</v>
+        <v>1.022938364618427</v>
       </c>
       <c r="E14">
-        <v>0.9826555745769023</v>
+        <v>1.021283785880946</v>
       </c>
       <c r="F14">
-        <v>0.9951971666021091</v>
+        <v>1.027317481965054</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035883361475419</v>
+        <v>1.049120290638536</v>
       </c>
       <c r="J14">
-        <v>1.00260985387507</v>
+        <v>1.031054930888451</v>
       </c>
       <c r="K14">
-        <v>1.013866568560827</v>
+        <v>1.037456704418353</v>
       </c>
       <c r="L14">
-        <v>0.9979295746478859</v>
+        <v>1.035831639328845</v>
       </c>
       <c r="M14">
-        <v>1.010227317889616</v>
+        <v>1.041758303710195</v>
       </c>
       <c r="N14">
-        <v>1.00403367486853</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.014249221577647</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.042880765753373</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03762365864315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9726063973125821</v>
+        <v>1.002165167000127</v>
       </c>
       <c r="D15">
-        <v>0.9993589487361894</v>
+        <v>1.023236665418826</v>
       </c>
       <c r="E15">
-        <v>0.9832067101080795</v>
+        <v>1.021683095538122</v>
       </c>
       <c r="F15">
-        <v>0.9957442958439742</v>
+        <v>1.027728789825169</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036028695389657</v>
+        <v>1.049256870575745</v>
       </c>
       <c r="J15">
-        <v>1.00300662473646</v>
+        <v>1.031297603569969</v>
       </c>
       <c r="K15">
-        <v>1.014220969577485</v>
+        <v>1.037663714630587</v>
       </c>
       <c r="L15">
-        <v>0.9983786946814128</v>
+        <v>1.036137643275771</v>
       </c>
       <c r="M15">
-        <v>1.010674540533123</v>
+        <v>1.04207693323413</v>
       </c>
       <c r="N15">
-        <v>1.004431009190054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.014336030373859</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043170063558381</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037775872942767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1175,105 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9761801948527022</v>
+        <v>1.004434750880106</v>
       </c>
       <c r="D16">
-        <v>1.00196427119401</v>
+        <v>1.024717447881707</v>
       </c>
       <c r="E16">
-        <v>0.9863843770631229</v>
+        <v>1.02355004767948</v>
       </c>
       <c r="F16">
-        <v>0.9988990187717351</v>
+        <v>1.029493585398856</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03686226935321</v>
+        <v>1.049872897622219</v>
       </c>
       <c r="J16">
-        <v>1.00529189512147</v>
+        <v>1.032397290118287</v>
       </c>
       <c r="K16">
-        <v>1.016261576699833</v>
+        <v>1.038618904812224</v>
       </c>
       <c r="L16">
-        <v>1.000966480586926</v>
+        <v>1.037471261632085</v>
       </c>
       <c r="M16">
-        <v>1.013251443978155</v>
+        <v>1.043314812505108</v>
       </c>
       <c r="N16">
-        <v>1.006719524921134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014700956158688</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044109859311816</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038454379386862</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9783899786907577</v>
+        <v>1.005725473615963</v>
       </c>
       <c r="D17">
-        <v>1.003576948637707</v>
+        <v>1.025549592461158</v>
       </c>
       <c r="E17">
-        <v>0.9883517924648645</v>
+        <v>1.02453942014695</v>
       </c>
       <c r="F17">
-        <v>1.000852342756122</v>
+        <v>1.030345325848035</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037374493728009</v>
+        <v>1.050189613003267</v>
       </c>
       <c r="J17">
-        <v>1.006704697732582</v>
+        <v>1.032965394516227</v>
       </c>
       <c r="K17">
-        <v>1.017522550319579</v>
+        <v>1.039123999322936</v>
       </c>
       <c r="L17">
-        <v>1.002567186655302</v>
+        <v>1.038130443157568</v>
       </c>
       <c r="M17">
-        <v>1.014845443803123</v>
+        <v>1.043841419414056</v>
       </c>
       <c r="N17">
-        <v>1.008134333874005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014876444832083</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044397405787587</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.038814077986297</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9796677457755009</v>
+        <v>1.00627663558029</v>
       </c>
       <c r="D18">
-        <v>1.004510036366995</v>
+        <v>1.025881053594837</v>
       </c>
       <c r="E18">
-        <v>0.9894903159620797</v>
+        <v>1.024826513215741</v>
       </c>
       <c r="F18">
-        <v>1.001982744384148</v>
+        <v>1.030428141799337</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037669505154073</v>
+        <v>1.050266083681585</v>
       </c>
       <c r="J18">
-        <v>1.007521515297161</v>
+        <v>1.033104598476252</v>
       </c>
       <c r="K18">
-        <v>1.018251372182675</v>
+        <v>1.039267515546709</v>
       </c>
       <c r="L18">
-        <v>1.00349296017168</v>
+        <v>1.03823004044286</v>
       </c>
       <c r="M18">
-        <v>1.015767340620551</v>
+        <v>1.043741532567666</v>
       </c>
       <c r="N18">
-        <v>1.008952311413216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01489487677199</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044081443033716</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.038903951798212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9801015707191766</v>
+        <v>1.00616573272648</v>
       </c>
       <c r="D19">
-        <v>1.004826932604925</v>
+        <v>1.025773676402668</v>
       </c>
       <c r="E19">
-        <v>0.9898770159416534</v>
+        <v>1.02447795966519</v>
       </c>
       <c r="F19">
-        <v>1.002366690541966</v>
+        <v>1.029808044900034</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037769465877163</v>
+        <v>1.050134655849175</v>
       </c>
       <c r="J19">
-        <v>1.007798819048321</v>
+        <v>1.032864534990346</v>
       </c>
       <c r="K19">
-        <v>1.018498764694238</v>
+        <v>1.039099633618683</v>
       </c>
       <c r="L19">
-        <v>1.003807307904268</v>
+        <v>1.03782478518452</v>
       </c>
       <c r="M19">
-        <v>1.01608037166889</v>
+        <v>1.043069457121862</v>
       </c>
       <c r="N19">
-        <v>1.00923000896751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014777786556914</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.043225528203083</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038791628214682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9781540522322458</v>
+        <v>1.004193739227917</v>
       </c>
       <c r="D20">
-        <v>1.003404710272586</v>
+        <v>1.024418058216592</v>
       </c>
       <c r="E20">
-        <v>0.988141648263918</v>
+        <v>1.022367701039746</v>
       </c>
       <c r="F20">
-        <v>1.000643700115019</v>
+        <v>1.027280990893527</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037319927599886</v>
+        <v>1.049416757579062</v>
       </c>
       <c r="J20">
-        <v>1.00655387149791</v>
+        <v>1.031563950998804</v>
       </c>
       <c r="K20">
-        <v>1.017387954987993</v>
+        <v>1.03804471720248</v>
       </c>
       <c r="L20">
-        <v>1.00239626739934</v>
+        <v>1.036028322511138</v>
       </c>
       <c r="M20">
-        <v>1.01467524026798</v>
+        <v>1.040860519393833</v>
       </c>
       <c r="N20">
-        <v>1.00798329344878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014280369964591</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040951516231654</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038049674881449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9716887707429106</v>
+        <v>0.9998665123375285</v>
       </c>
       <c r="D21">
-        <v>0.9986905651837937</v>
+        <v>1.021578088747632</v>
       </c>
       <c r="E21">
-        <v>0.9823916209732367</v>
+        <v>1.018681647283706</v>
       </c>
       <c r="F21">
-        <v>0.9949351347982397</v>
+        <v>1.023690141644969</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03581367971919</v>
+        <v>1.048191274712648</v>
       </c>
       <c r="J21">
-        <v>1.002419787331108</v>
+        <v>1.029369815675835</v>
       </c>
       <c r="K21">
-        <v>1.01369678774676</v>
+        <v>1.036161873361398</v>
       </c>
       <c r="L21">
-        <v>0.9977144489108483</v>
+        <v>1.033317527998205</v>
       </c>
       <c r="M21">
-        <v>1.010013102157919</v>
+        <v>1.038236179635154</v>
       </c>
       <c r="N21">
-        <v>1.003843338408275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013530744336396</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038833759912105</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036721658216381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9675153546352258</v>
+        <v>0.997120570257926</v>
       </c>
       <c r="D22">
-        <v>0.9956537649064009</v>
+        <v>1.01977784378354</v>
       </c>
       <c r="E22">
-        <v>0.97868877992422</v>
+        <v>1.016372176137526</v>
       </c>
       <c r="F22">
-        <v>0.9912594840206176</v>
+        <v>1.021469152629889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034831017175595</v>
+        <v>1.047408930540459</v>
       </c>
       <c r="J22">
-        <v>0.9997506387878109</v>
+        <v>1.027987666600749</v>
       </c>
       <c r="K22">
-        <v>1.01131181606617</v>
+        <v>1.034967422394226</v>
       </c>
       <c r="L22">
-        <v>0.9946945771049187</v>
+        <v>1.031626127705482</v>
       </c>
       <c r="M22">
-        <v>1.007006103815571</v>
+        <v>1.036626970870459</v>
       </c>
       <c r="N22">
-        <v>1.001170399367891</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01305988441977</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037560174982353</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035863661279414</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9697384411171582</v>
+        <v>0.9985731071799466</v>
       </c>
       <c r="D23">
-        <v>0.9972707736485119</v>
+        <v>1.020723940505187</v>
       </c>
       <c r="E23">
-        <v>0.9806603398958073</v>
+        <v>1.017592646469666</v>
       </c>
       <c r="F23">
-        <v>0.9932165110264628</v>
+        <v>1.02264391555084</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035355410838349</v>
+        <v>1.047819878902816</v>
       </c>
       <c r="J23">
-        <v>1.001172463452047</v>
+        <v>1.028715271017945</v>
       </c>
       <c r="K23">
-        <v>1.012582421511008</v>
+        <v>1.035592163074689</v>
       </c>
       <c r="L23">
-        <v>0.9963029547979291</v>
+        <v>1.03251853069739</v>
       </c>
       <c r="M23">
-        <v>1.008607600143697</v>
+        <v>1.037477009787661</v>
       </c>
       <c r="N23">
-        <v>1.002594243186236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013306401136616</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.038232926233402</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.036295766010875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782606916559591</v>
+        <v>1.004196674509155</v>
       </c>
       <c r="D24">
-        <v>1.003482560688343</v>
+        <v>1.024405588285395</v>
       </c>
       <c r="E24">
-        <v>0.9882366312441069</v>
+        <v>1.022333456967824</v>
       </c>
       <c r="F24">
-        <v>1.00073800430652</v>
+        <v>1.027210611621318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037344595286731</v>
+        <v>1.049397509849115</v>
       </c>
       <c r="J24">
-        <v>1.006622045726028</v>
+        <v>1.031534128481686</v>
       </c>
       <c r="K24">
-        <v>1.017448793434567</v>
+        <v>1.03801725402381</v>
       </c>
       <c r="L24">
-        <v>1.002473522786458</v>
+        <v>1.035979403921521</v>
       </c>
       <c r="M24">
-        <v>1.014752172145683</v>
+        <v>1.040776154506133</v>
       </c>
       <c r="N24">
-        <v>1.008051564492121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014263802842025</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040843981569853</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03800293193774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9877156715603154</v>
+        <v>1.010510572539082</v>
       </c>
       <c r="D25">
-        <v>1.010396421765024</v>
+        <v>1.028556594062273</v>
       </c>
       <c r="E25">
-        <v>0.9966765803699914</v>
+        <v>1.027685320982169</v>
       </c>
       <c r="F25">
-        <v>1.00911809000271</v>
+        <v>1.032377251978785</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039506149802603</v>
+        <v>1.05112734789873</v>
       </c>
       <c r="J25">
-        <v>1.012663644586405</v>
+        <v>1.034689318529736</v>
       </c>
       <c r="K25">
-        <v>1.022835462306871</v>
+        <v>1.040727208635464</v>
       </c>
       <c r="L25">
-        <v>1.009326708163155</v>
+        <v>1.039868539212019</v>
       </c>
       <c r="M25">
-        <v>1.02157648935269</v>
+        <v>1.044492915693223</v>
       </c>
       <c r="N25">
-        <v>1.014101743115861</v>
+        <v>1.015335495077514</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043785541471572</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039916144509604</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_20/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01536447385298</v>
+        <v>1.014645531144541</v>
       </c>
       <c r="D2">
-        <v>1.031742761608847</v>
+        <v>1.030415640955811</v>
       </c>
       <c r="E2">
-        <v>1.031820360684788</v>
+        <v>1.031169230377252</v>
       </c>
       <c r="F2">
-        <v>1.036382016571855</v>
+        <v>1.035873274250174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052411018064909</v>
+        <v>1.051727230028685</v>
       </c>
       <c r="J2">
-        <v>1.037095150464085</v>
+        <v>1.036396849870026</v>
       </c>
       <c r="K2">
-        <v>1.042776896785274</v>
+        <v>1.041466896410366</v>
       </c>
       <c r="L2">
-        <v>1.042853496512943</v>
+        <v>1.042210757525158</v>
       </c>
       <c r="M2">
-        <v>1.047356734298462</v>
+        <v>1.046854475256169</v>
       </c>
       <c r="N2">
-        <v>1.016149160361154</v>
+        <v>1.016768502938626</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046052048103049</v>
+        <v>1.045654546670215</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041317253795018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040399720108251</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023068786716856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018816071520541</v>
+        <v>1.017978349000763</v>
       </c>
       <c r="D3">
-        <v>1.034024621275722</v>
+        <v>1.032534787410852</v>
       </c>
       <c r="E3">
-        <v>1.034773679905078</v>
+        <v>1.034014321382393</v>
       </c>
       <c r="F3">
-        <v>1.039245167971662</v>
+        <v>1.038652211803767</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05330980478532</v>
+        <v>1.05253375849886</v>
       </c>
       <c r="J3">
-        <v>1.038806610865962</v>
+        <v>1.037990622281836</v>
       </c>
       <c r="K3">
-        <v>1.044239900971061</v>
+        <v>1.042767638692591</v>
       </c>
       <c r="L3">
-        <v>1.044980148619899</v>
+        <v>1.044229722342831</v>
       </c>
       <c r="M3">
-        <v>1.049399366433229</v>
+        <v>1.048813309725672</v>
       </c>
       <c r="N3">
-        <v>1.016729999978287</v>
+        <v>1.017197371193473</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047668640382814</v>
+        <v>1.047204820200587</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042349061542574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041316520263914</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023317662729401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021011721971887</v>
+        <v>1.020099157151379</v>
       </c>
       <c r="D4">
-        <v>1.035479284182867</v>
+        <v>1.033886430792678</v>
       </c>
       <c r="E4">
-        <v>1.036657862644607</v>
+        <v>1.035830230376377</v>
       </c>
       <c r="F4">
-        <v>1.041074101206254</v>
+        <v>1.040428070994498</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053872006255169</v>
+        <v>1.053037462762428</v>
       </c>
       <c r="J4">
-        <v>1.039892800569088</v>
+        <v>1.039002333086583</v>
       </c>
       <c r="K4">
-        <v>1.045167562916938</v>
+        <v>1.043592380462107</v>
       </c>
       <c r="L4">
-        <v>1.046333109330032</v>
+        <v>1.045514624735651</v>
       </c>
       <c r="M4">
-        <v>1.050700837878585</v>
+        <v>1.050061872384965</v>
       </c>
       <c r="N4">
-        <v>1.017098659475814</v>
+        <v>1.017469685298114</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048698656942851</v>
+        <v>1.048192964090903</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043005884763347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041900653906374</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023473084218601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021928689348923</v>
+        <v>1.020984996488941</v>
       </c>
       <c r="D5">
-        <v>1.036089579588306</v>
+        <v>1.034453840899227</v>
       </c>
       <c r="E5">
-        <v>1.037446180036911</v>
+        <v>1.036590135195488</v>
       </c>
       <c r="F5">
-        <v>1.041839378455885</v>
+        <v>1.041171272249267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054105912094557</v>
+        <v>1.053246983136984</v>
       </c>
       <c r="J5">
-        <v>1.040347107002642</v>
+        <v>1.03942559235182</v>
       </c>
       <c r="K5">
-        <v>1.045556921181594</v>
+        <v>1.043938853177513</v>
       </c>
       <c r="L5">
-        <v>1.046898918245051</v>
+        <v>1.04605208300792</v>
       </c>
       <c r="M5">
-        <v>1.051245144757479</v>
+        <v>1.05058415062622</v>
       </c>
       <c r="N5">
-        <v>1.017253230807163</v>
+        <v>1.017583909308876</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049129434390285</v>
+        <v>1.048606307835445</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043288330267628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042153488267958</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023538278252752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022085445738338</v>
+        <v>1.021136398052609</v>
       </c>
       <c r="D6">
-        <v>1.036196463155687</v>
+        <v>1.034553430519323</v>
       </c>
       <c r="E6">
-        <v>1.037581175929518</v>
+        <v>1.036720243253977</v>
       </c>
       <c r="F6">
-        <v>1.041969890176424</v>
+        <v>1.041297986407818</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054147510976284</v>
+        <v>1.053284416604119</v>
       </c>
       <c r="J6">
-        <v>1.040426323987216</v>
+        <v>1.039499467329748</v>
       </c>
       <c r="K6">
-        <v>1.04562669578519</v>
+        <v>1.044001332492804</v>
       </c>
       <c r="L6">
-        <v>1.046996570440827</v>
+        <v>1.046144857521313</v>
       </c>
       <c r="M6">
-        <v>1.051338575538724</v>
+        <v>1.050673791616926</v>
       </c>
       <c r="N6">
-        <v>1.017280636233914</v>
+        <v>1.017604189373513</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049203377714088</v>
+        <v>1.048677251879719</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043346372063426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042207241707064</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02355058478096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021032877118809</v>
+        <v>1.020126390445276</v>
       </c>
       <c r="D7">
-        <v>1.035500069881031</v>
+        <v>1.033911296698849</v>
       </c>
       <c r="E7">
-        <v>1.036676463592625</v>
+        <v>1.035854341207187</v>
       </c>
       <c r="F7">
-        <v>1.041090626585625</v>
+        <v>1.040448898633218</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053882089816452</v>
+        <v>1.053050620309367</v>
       </c>
       <c r="J7">
-        <v>1.039907544361572</v>
+        <v>1.039022998459418</v>
       </c>
       <c r="K7">
-        <v>1.045185254297771</v>
+        <v>1.043614099959874</v>
       </c>
       <c r="L7">
-        <v>1.046348645056383</v>
+        <v>1.045535605959979</v>
       </c>
       <c r="M7">
-        <v>1.050714338977978</v>
+        <v>1.050079626053594</v>
       </c>
       <c r="N7">
-        <v>1.017104907365542</v>
+        <v>1.017502082831627</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048709342037976</v>
+        <v>1.048207014781256</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043038417783969</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.0419380364603</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023479371656462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016549945229691</v>
+        <v>1.015811144977926</v>
       </c>
       <c r="D8">
-        <v>1.032534048025183</v>
+        <v>1.031166374505952</v>
       </c>
       <c r="E8">
-        <v>1.03283408404236</v>
+        <v>1.032164769833168</v>
       </c>
       <c r="F8">
-        <v>1.037362433297787</v>
+        <v>1.036839588105986</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052727361480939</v>
+        <v>1.052022993447175</v>
       </c>
       <c r="J8">
-        <v>1.037688723702932</v>
+        <v>1.036970433901575</v>
       </c>
       <c r="K8">
-        <v>1.043290645585278</v>
+        <v>1.041940098953595</v>
       </c>
       <c r="L8">
-        <v>1.043586931920063</v>
+        <v>1.042925986156211</v>
       </c>
       <c r="M8">
-        <v>1.048059016334267</v>
+        <v>1.047542636259029</v>
       </c>
       <c r="N8">
-        <v>1.016352211823471</v>
+        <v>1.017002784120336</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046607852799599</v>
+        <v>1.046199175903812</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.0417033304621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040759397395547</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023163654043706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008335709457543</v>
+        <v>1.00788738899629</v>
       </c>
       <c r="D9">
-        <v>1.027114849917805</v>
+        <v>1.026139579473913</v>
       </c>
       <c r="E9">
-        <v>1.02583752207738</v>
+        <v>1.025432253575758</v>
       </c>
       <c r="F9">
-        <v>1.030594229717679</v>
+        <v>1.030277201097187</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050530236718699</v>
+        <v>1.050048225338963</v>
       </c>
       <c r="J9">
-        <v>1.03359750765857</v>
+        <v>1.033164664985091</v>
       </c>
       <c r="K9">
-        <v>1.039782808972096</v>
+        <v>1.038822332732899</v>
       </c>
       <c r="L9">
-        <v>1.038524864618387</v>
+        <v>1.038125758941694</v>
       </c>
       <c r="M9">
-        <v>1.043209699297946</v>
+        <v>1.042897434642307</v>
       </c>
       <c r="N9">
-        <v>1.014962531475203</v>
+        <v>1.015987640894922</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042769965625673</v>
+        <v>1.042522829820523</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03921991312956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038551502010872</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022552342134895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002713744314882</v>
+        <v>1.002497147186745</v>
       </c>
       <c r="D10">
-        <v>1.023434156598958</v>
+        <v>1.022750180924435</v>
       </c>
       <c r="E10">
-        <v>1.021126303704939</v>
+        <v>1.020930847745494</v>
       </c>
       <c r="F10">
-        <v>1.026098032540534</v>
+        <v>1.025945000819802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048998462751449</v>
+        <v>1.048684355784603</v>
       </c>
       <c r="J10">
-        <v>1.030820105170688</v>
+        <v>1.030612038582689</v>
       </c>
       <c r="K10">
-        <v>1.037392809566998</v>
+        <v>1.036720473898287</v>
       </c>
       <c r="L10">
-        <v>1.035124312774452</v>
+        <v>1.034932200509638</v>
       </c>
       <c r="M10">
-        <v>1.040011542079629</v>
+        <v>1.039861095525328</v>
       </c>
       <c r="N10">
-        <v>1.014025561206743</v>
+        <v>1.015422534439561</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040290167677689</v>
+        <v>1.040171106663853</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037546805062382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037083805498193</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022136152485875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00080355249185</v>
+        <v>1.000694774525901</v>
       </c>
       <c r="D11">
-        <v>1.022248755757518</v>
+        <v>1.0216789150066</v>
       </c>
       <c r="E11">
-        <v>1.019901377998278</v>
+        <v>1.019803364691381</v>
       </c>
       <c r="F11">
-        <v>1.025328406073476</v>
+        <v>1.025251713446191</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048617735290309</v>
+        <v>1.048373784186164</v>
       </c>
       <c r="J11">
-        <v>1.030142940906642</v>
+        <v>1.030038678601815</v>
       </c>
       <c r="K11">
-        <v>1.036762946080993</v>
+        <v>1.036203260446508</v>
       </c>
       <c r="L11">
-        <v>1.034457495577543</v>
+        <v>1.034361238370121</v>
       </c>
       <c r="M11">
-        <v>1.039787967367914</v>
+        <v>1.039712630001337</v>
       </c>
       <c r="N11">
-        <v>1.013847012721601</v>
+        <v>1.015532905702202</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040548402068378</v>
+        <v>1.040488811124733</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037134216488821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036754081618204</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022075200575918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000298800166119</v>
+        <v>1.000217485791546</v>
       </c>
       <c r="D12">
-        <v>1.021958922457944</v>
+        <v>1.021415361012886</v>
       </c>
       <c r="E12">
-        <v>1.019752748465454</v>
+        <v>1.019679541032714</v>
       </c>
       <c r="F12">
-        <v>1.025478135605465</v>
+        <v>1.025420884749199</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048583404964548</v>
+        <v>1.048356470336243</v>
       </c>
       <c r="J12">
-        <v>1.030090519613818</v>
+        <v>1.030012644079571</v>
       </c>
       <c r="K12">
-        <v>1.036677179006955</v>
+        <v>1.036143464322586</v>
       </c>
       <c r="L12">
-        <v>1.034511055238561</v>
+        <v>1.034439180657712</v>
       </c>
       <c r="M12">
-        <v>1.040132968793585</v>
+        <v>1.040076745188403</v>
       </c>
       <c r="N12">
-        <v>1.013867877163704</v>
+        <v>1.015654076343341</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041146883376501</v>
+        <v>1.041102426167263</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037073576725265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036711804896129</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02209224546849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000852486263303</v>
+        <v>1.000728889324533</v>
       </c>
       <c r="D13">
-        <v>1.022352817967576</v>
+        <v>1.021762722574541</v>
       </c>
       <c r="E13">
-        <v>1.020434286845548</v>
+        <v>1.020323050799907</v>
       </c>
       <c r="F13">
-        <v>1.026365750184149</v>
+        <v>1.02627880948891</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048825892452224</v>
+        <v>1.048571249389751</v>
       </c>
       <c r="J13">
-        <v>1.030528321875323</v>
+        <v>1.030409924927039</v>
       </c>
       <c r="K13">
-        <v>1.037021307516684</v>
+        <v>1.036441856116046</v>
       </c>
       <c r="L13">
-        <v>1.035137440968234</v>
+        <v>1.035028219967645</v>
       </c>
       <c r="M13">
-        <v>1.040962276934096</v>
+        <v>1.040876887578665</v>
       </c>
       <c r="N13">
-        <v>1.014049675637527</v>
+        <v>1.015760624676106</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042078602251143</v>
+        <v>1.042011099940807</v>
       </c>
       <c r="Q13">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037314400318456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03692004452204</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022174961366302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001717891819536</v>
+        <v>1.001534098321821</v>
       </c>
       <c r="D14">
-        <v>1.022938364618427</v>
+        <v>1.022283599819851</v>
       </c>
       <c r="E14">
-        <v>1.021283785880946</v>
+        <v>1.021118376991885</v>
       </c>
       <c r="F14">
-        <v>1.027317481965054</v>
+        <v>1.027188252406068</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049120290638536</v>
+        <v>1.048826549862561</v>
       </c>
       <c r="J14">
-        <v>1.031054930888451</v>
+        <v>1.030878759038718</v>
       </c>
       <c r="K14">
-        <v>1.037456704418353</v>
+        <v>1.036813604197381</v>
       </c>
       <c r="L14">
-        <v>1.035831639328845</v>
+        <v>1.035669187760121</v>
       </c>
       <c r="M14">
-        <v>1.041758303710195</v>
+        <v>1.041631349471406</v>
       </c>
       <c r="N14">
-        <v>1.014249221577647</v>
+        <v>1.015829612600367</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.042880765753373</v>
+        <v>1.042780418898335</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03762365864315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037184434816822</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022262934209348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002165167000127</v>
+        <v>1.001951994422265</v>
       </c>
       <c r="D15">
-        <v>1.023236665418826</v>
+        <v>1.022550493578237</v>
       </c>
       <c r="E15">
-        <v>1.021683095538122</v>
+        <v>1.021491229996696</v>
       </c>
       <c r="F15">
-        <v>1.027728789825169</v>
+        <v>1.027578908780625</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049256870575745</v>
+        <v>1.048944042389468</v>
       </c>
       <c r="J15">
-        <v>1.031297603569969</v>
+        <v>1.031093194168997</v>
       </c>
       <c r="K15">
-        <v>1.037663714630587</v>
+        <v>1.036989674818152</v>
       </c>
       <c r="L15">
-        <v>1.036137643275771</v>
+        <v>1.0359491813255</v>
       </c>
       <c r="M15">
-        <v>1.04207693323413</v>
+        <v>1.04192967049567</v>
       </c>
       <c r="N15">
-        <v>1.014336030373859</v>
+        <v>1.015848636129222</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043170063558381</v>
+        <v>1.043053667557334</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037775872942767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037315343083968</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022301093130169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004434750880106</v>
+        <v>1.004087165946987</v>
       </c>
       <c r="D16">
-        <v>1.024717447881707</v>
+        <v>1.023885186945603</v>
       </c>
       <c r="E16">
-        <v>1.02355004767948</v>
+        <v>1.023236949268372</v>
       </c>
       <c r="F16">
-        <v>1.029493585398856</v>
+        <v>1.029249075337386</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049872897622219</v>
+        <v>1.04947147512288</v>
       </c>
       <c r="J16">
-        <v>1.032397290118287</v>
+        <v>1.032063287272723</v>
       </c>
       <c r="K16">
-        <v>1.038618904812224</v>
+        <v>1.037800723068305</v>
       </c>
       <c r="L16">
-        <v>1.037471261632085</v>
+        <v>1.037163471978869</v>
       </c>
       <c r="M16">
-        <v>1.043314812505108</v>
+        <v>1.04307438643519</v>
       </c>
       <c r="N16">
-        <v>1.014700956158688</v>
+        <v>1.01589748071457</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044109859311816</v>
+        <v>1.043919821885468</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038454379386862</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037892235822118</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022458075447612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005725473615963</v>
+        <v>1.005313429866976</v>
       </c>
       <c r="D17">
-        <v>1.025549592461158</v>
+        <v>1.024644082171709</v>
       </c>
       <c r="E17">
-        <v>1.02453942014695</v>
+        <v>1.024168023541186</v>
       </c>
       <c r="F17">
-        <v>1.030345325848035</v>
+        <v>1.0300552942982</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050189613003267</v>
+        <v>1.049744287986637</v>
       </c>
       <c r="J17">
-        <v>1.032965394516227</v>
+        <v>1.032568941061096</v>
       </c>
       <c r="K17">
-        <v>1.039123999322936</v>
+        <v>1.038233381657763</v>
       </c>
       <c r="L17">
-        <v>1.038130443157568</v>
+        <v>1.037765166192394</v>
       </c>
       <c r="M17">
-        <v>1.043841419414056</v>
+        <v>1.043556097408067</v>
       </c>
       <c r="N17">
-        <v>1.014876444832083</v>
+        <v>1.015927450947463</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044397405787587</v>
+        <v>1.044171859371831</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.038814077986297</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038200967578928</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022533152964913</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00627663558029</v>
+        <v>1.005845999729327</v>
       </c>
       <c r="D18">
-        <v>1.025881053594837</v>
+        <v>1.024952854008725</v>
       </c>
       <c r="E18">
-        <v>1.024826513215741</v>
+        <v>1.024438129651142</v>
       </c>
       <c r="F18">
-        <v>1.030428141799337</v>
+        <v>1.030124755170414</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050266083681585</v>
+        <v>1.049807267193774</v>
       </c>
       <c r="J18">
-        <v>1.033104598476252</v>
+        <v>1.032689957052464</v>
       </c>
       <c r="K18">
-        <v>1.039267515546709</v>
+        <v>1.038354334327612</v>
       </c>
       <c r="L18">
-        <v>1.03823004044286</v>
+        <v>1.037847953328034</v>
       </c>
       <c r="M18">
-        <v>1.043741532567666</v>
+        <v>1.043442995576555</v>
       </c>
       <c r="N18">
-        <v>1.01489487677199</v>
+        <v>1.015898857918776</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044081443033716</v>
+        <v>1.043845401288396</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.038903951798212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038273752293362</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022536780997856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00616573272648</v>
+        <v>1.005752324809893</v>
       </c>
       <c r="D19">
-        <v>1.025773676402668</v>
+        <v>1.024864594287128</v>
       </c>
       <c r="E19">
-        <v>1.02447795966519</v>
+        <v>1.024104902270449</v>
       </c>
       <c r="F19">
-        <v>1.029808044900034</v>
+        <v>1.029516450057004</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050134655849175</v>
+        <v>1.049687019972831</v>
       </c>
       <c r="J19">
-        <v>1.032864534990346</v>
+        <v>1.032466396350624</v>
       </c>
       <c r="K19">
-        <v>1.039099633618683</v>
+        <v>1.038205185733701</v>
       </c>
       <c r="L19">
-        <v>1.03782478518452</v>
+        <v>1.037457748671255</v>
       </c>
       <c r="M19">
-        <v>1.043069457121862</v>
+        <v>1.042782505707275</v>
       </c>
       <c r="N19">
-        <v>1.014777786556914</v>
+        <v>1.0158021864081</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.043225528203083</v>
+        <v>1.042998573042774</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038791628214682</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038175299581171</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022480176801076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004193739227917</v>
+        <v>1.003895947940714</v>
       </c>
       <c r="D20">
-        <v>1.024418058216592</v>
+        <v>1.023643191698841</v>
       </c>
       <c r="E20">
-        <v>1.022367701039746</v>
+        <v>1.022098852446814</v>
       </c>
       <c r="F20">
-        <v>1.027280990893527</v>
+        <v>1.027070545449787</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049416757579062</v>
+        <v>1.049048140854796</v>
       </c>
       <c r="J20">
-        <v>1.031563950998804</v>
+        <v>1.031277509035157</v>
       </c>
       <c r="K20">
-        <v>1.03804471720248</v>
+        <v>1.037282665127616</v>
       </c>
       <c r="L20">
-        <v>1.036028322511138</v>
+        <v>1.035763940186996</v>
       </c>
       <c r="M20">
-        <v>1.040860519393833</v>
+        <v>1.040653526863009</v>
       </c>
       <c r="N20">
-        <v>1.014280369964591</v>
+        <v>1.015504623910173</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040951516231654</v>
+        <v>1.040787703684569</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038049674881449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037527346235965</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022250577936316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9998665123375285</v>
+        <v>0.9998462715289218</v>
       </c>
       <c r="D21">
-        <v>1.021578088747632</v>
+        <v>1.021100006280391</v>
       </c>
       <c r="E21">
-        <v>1.018681647283706</v>
+        <v>1.01866339610618</v>
       </c>
       <c r="F21">
-        <v>1.023690141644969</v>
+        <v>1.023675843050247</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048191274712648</v>
+        <v>1.048003381385693</v>
       </c>
       <c r="J21">
-        <v>1.029369815675835</v>
+        <v>1.029350421473104</v>
       </c>
       <c r="K21">
-        <v>1.036161873361398</v>
+        <v>1.035692363344144</v>
       </c>
       <c r="L21">
-        <v>1.033317527998205</v>
+        <v>1.033299606311915</v>
       </c>
       <c r="M21">
-        <v>1.038236179635154</v>
+        <v>1.038222135905204</v>
       </c>
       <c r="N21">
-        <v>1.013530744336396</v>
+        <v>1.015401837262021</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038833759912105</v>
+        <v>1.038822645215596</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036721658216381</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036406496242853</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021931869779799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.997120570257926</v>
+        <v>0.9972756569472377</v>
       </c>
       <c r="D22">
-        <v>1.01977784378354</v>
+        <v>1.019487009362343</v>
       </c>
       <c r="E22">
-        <v>1.016372176137526</v>
+        <v>1.016511897335741</v>
       </c>
       <c r="F22">
-        <v>1.021469152629889</v>
+        <v>1.021578668208309</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047408930540459</v>
+        <v>1.047334740470185</v>
       </c>
       <c r="J22">
-        <v>1.027987666600749</v>
+        <v>1.028135891527968</v>
       </c>
       <c r="K22">
-        <v>1.034967422394226</v>
+        <v>1.034682063300796</v>
       </c>
       <c r="L22">
-        <v>1.031626127705482</v>
+        <v>1.031763196838933</v>
       </c>
       <c r="M22">
-        <v>1.036626970870459</v>
+        <v>1.036734434635382</v>
       </c>
       <c r="N22">
-        <v>1.01305988441977</v>
+        <v>1.015333165459927</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037560174982353</v>
+        <v>1.037645225690732</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035863661279414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035677401194296</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021728096068489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9985731071799466</v>
+        <v>0.9986243125372032</v>
       </c>
       <c r="D23">
-        <v>1.020723940505187</v>
+        <v>1.020325855148623</v>
       </c>
       <c r="E23">
-        <v>1.017592646469666</v>
+        <v>1.01763879989393</v>
       </c>
       <c r="F23">
-        <v>1.02264391555084</v>
+        <v>1.022680081937857</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047819878902816</v>
+        <v>1.047679728866546</v>
       </c>
       <c r="J23">
-        <v>1.028715271017945</v>
+        <v>1.028764276786288</v>
       </c>
       <c r="K23">
-        <v>1.035592163074689</v>
+        <v>1.035201382739027</v>
       </c>
       <c r="L23">
-        <v>1.03251853069739</v>
+        <v>1.032563830864004</v>
       </c>
       <c r="M23">
-        <v>1.037477009787661</v>
+        <v>1.037512516113134</v>
       </c>
       <c r="N23">
-        <v>1.013306401136616</v>
+        <v>1.015324680256196</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.038232926233402</v>
+        <v>1.038261027197581</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036295766010875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036034025416357</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021830718729883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004196674509155</v>
+        <v>1.003900327432594</v>
       </c>
       <c r="D24">
-        <v>1.024405588285395</v>
+        <v>1.023632041630624</v>
       </c>
       <c r="E24">
-        <v>1.022333456967824</v>
+        <v>1.022065888494202</v>
       </c>
       <c r="F24">
-        <v>1.027210611621318</v>
+        <v>1.027001149625555</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049397509849115</v>
+        <v>1.049029721352861</v>
       </c>
       <c r="J24">
-        <v>1.031534128481686</v>
+        <v>1.031249059726271</v>
       </c>
       <c r="K24">
-        <v>1.03801725402381</v>
+        <v>1.037256483983818</v>
       </c>
       <c r="L24">
-        <v>1.035979403921521</v>
+        <v>1.035716275131973</v>
       </c>
       <c r="M24">
-        <v>1.040776154506133</v>
+        <v>1.040570125491266</v>
       </c>
       <c r="N24">
-        <v>1.014263802842025</v>
+        <v>1.015488411640672</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040843981569853</v>
+        <v>1.040680923477773</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03800293193774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037478835022559</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022239550431431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010510572539082</v>
+        <v>1.009975812183608</v>
       </c>
       <c r="D25">
-        <v>1.028556594062273</v>
+        <v>1.027470848854552</v>
       </c>
       <c r="E25">
-        <v>1.027685320982169</v>
+        <v>1.027201623654449</v>
       </c>
       <c r="F25">
-        <v>1.032377251978785</v>
+        <v>1.031999012577587</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05112734789873</v>
+        <v>1.0505817694055</v>
       </c>
       <c r="J25">
-        <v>1.034689318529736</v>
+        <v>1.034172052083722</v>
       </c>
       <c r="K25">
-        <v>1.040727208635464</v>
+        <v>1.039657173749814</v>
       </c>
       <c r="L25">
-        <v>1.039868539212019</v>
+        <v>1.039391850650723</v>
       </c>
       <c r="M25">
-        <v>1.044492915693223</v>
+        <v>1.04412009337062</v>
       </c>
       <c r="N25">
-        <v>1.015335495077514</v>
+        <v>1.016227397408411</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043785541471572</v>
+        <v>1.043490478877489</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039916144509604</v>
+        <v>1.039173075885997</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022719779316347</v>
       </c>
     </row>
   </sheetData>
